--- a/all_BM25.xlsx
+++ b/all_BM25.xlsx
@@ -43,16 +43,16 @@
     <t xml:space="preserve">pure100</t>
   </si>
   <si>
-    <t xml:space="preserve">lemmatize</t>
+    <t xml:space="preserve">lem_orig</t>
   </si>
   <si>
     <t xml:space="preserve">stem100</t>
   </si>
   <si>
-    <t xml:space="preserve">stem_vocab</t>
+    <t xml:space="preserve">stem_voc_fixed</t>
   </si>
   <si>
-    <t xml:space="preserve">stem_vocab_100</t>
+    <t xml:space="preserve">stem_voc_split</t>
   </si>
 </sst>
 </file>
@@ -151,8 +151,8 @@
   </sheetPr>
   <dimension ref="A1:L181"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A152" activeCellId="1" sqref="D152:D181 A152"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A33" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K59" activeCellId="0" sqref="K59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -4780,25 +4780,25 @@
         <v>0</v>
       </c>
       <c r="F122" s="0" t="n">
-        <v>0.0464912280701754</v>
+        <v>0.0421052631578947</v>
       </c>
       <c r="G122" s="0" t="n">
-        <v>0.0570175438596491</v>
+        <v>0.0526315789473684</v>
       </c>
       <c r="H122" s="0" t="n">
-        <v>0.0792606516290727</v>
+        <v>0.08170667052246</v>
       </c>
       <c r="I122" s="0" t="n">
-        <v>0.104326506958086</v>
+        <v>0.101302712205921</v>
       </c>
       <c r="J122" s="0" t="n">
-        <v>0.131576483162953</v>
+        <v>0.128048919496602</v>
       </c>
       <c r="K122" s="0" t="n">
-        <v>0.164256484895059</v>
+        <v>0.160248843799198</v>
       </c>
       <c r="L122" s="0" t="n">
-        <v>0.167575529155505</v>
+        <v>0.162684392222183</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4830,13 +4830,13 @@
         <v>0.0764411027568922</v>
       </c>
       <c r="J123" s="0" t="n">
-        <v>0.0886503534492006</v>
+        <v>0.088276273031264</v>
       </c>
       <c r="K123" s="0" t="n">
-        <v>0.0995949945992919</v>
+        <v>0.0992877917069703</v>
       </c>
       <c r="L123" s="0" t="n">
-        <v>0.100751732598135</v>
+        <v>0.100446652160857</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4856,25 +4856,25 @@
         <v>0.0175438596491228</v>
       </c>
       <c r="F124" s="0" t="n">
-        <v>0.0666666666666667</v>
+        <v>0.062280701754386</v>
       </c>
       <c r="G124" s="0" t="n">
-        <v>0.0897243107769424</v>
+        <v>0.0853383458646616</v>
       </c>
       <c r="H124" s="0" t="n">
-        <v>0.1187552213868</v>
+        <v>0.120891973523552</v>
       </c>
       <c r="I124" s="0" t="n">
-        <v>0.141534952872672</v>
+        <v>0.138392984817362</v>
       </c>
       <c r="J124" s="0" t="n">
-        <v>0.180229030481187</v>
+        <v>0.17617534956463</v>
       </c>
       <c r="K124" s="0" t="n">
-        <v>0.222671994244305</v>
+        <v>0.218243509063759</v>
       </c>
       <c r="L124" s="0" t="n">
-        <v>0.227059399940755</v>
+        <v>0.221815520452381</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4891,28 +4891,28 @@
         <v>9</v>
       </c>
       <c r="E125" s="0" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F125" s="0" t="n">
-        <v>0.0466666666666667</v>
+        <v>0.0906666666666667</v>
       </c>
       <c r="G125" s="0" t="n">
-        <v>0.0638095238095238</v>
+        <v>0.135746031746032</v>
       </c>
       <c r="H125" s="0" t="n">
-        <v>0.0638095238095238</v>
+        <v>0.171555555555555</v>
       </c>
       <c r="I125" s="0" t="n">
-        <v>0.0792394040068459</v>
+        <v>0.22455439154294</v>
       </c>
       <c r="J125" s="0" t="n">
-        <v>0.0825727373401792</v>
+        <v>0.255259873195791</v>
       </c>
       <c r="K125" s="0" t="n">
-        <v>0.0954196928497268</v>
+        <v>0.286402562487254</v>
       </c>
       <c r="L125" s="0" t="n">
-        <v>0.0971466769767109</v>
+        <v>0.288292326266781</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4929,28 +4929,28 @@
         <v>9</v>
       </c>
       <c r="E126" s="0" t="n">
-        <v>0.0294117647058823</v>
+        <v>0</v>
       </c>
       <c r="F126" s="0" t="n">
-        <v>0.0411764705882353</v>
+        <v>0</v>
       </c>
       <c r="G126" s="0" t="n">
-        <v>0.0652777777777778</v>
+        <v>0.00490196078431373</v>
       </c>
       <c r="H126" s="0" t="n">
-        <v>0.0652777777777778</v>
+        <v>0.0187405731523379</v>
       </c>
       <c r="I126" s="0" t="n">
-        <v>0.0707244008714597</v>
+        <v>0.0225113122171946</v>
       </c>
       <c r="J126" s="0" t="n">
-        <v>0.0741846084839164</v>
+        <v>0.0385583522296185</v>
       </c>
       <c r="K126" s="0" t="n">
-        <v>0.0802237324665654</v>
+        <v>0.0654102428568329</v>
       </c>
       <c r="L126" s="0" t="n">
-        <v>0.0820043845009522</v>
+        <v>0.067876250762193</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4970,25 +4970,25 @@
         <v>0.0169491525423729</v>
       </c>
       <c r="F127" s="0" t="n">
-        <v>0.064406779661017</v>
+        <v>0.0384180790960452</v>
       </c>
       <c r="G127" s="0" t="n">
-        <v>0.102407855797686</v>
+        <v>0.0731234866828087</v>
       </c>
       <c r="H127" s="0" t="n">
-        <v>0.102407855797686</v>
+        <v>0.118347612839138</v>
       </c>
       <c r="I127" s="0" t="n">
-        <v>0.120625440925007</v>
+        <v>0.157299401233734</v>
       </c>
       <c r="J127" s="0" t="n">
-        <v>0.127236559948888</v>
+        <v>0.202611014471808</v>
       </c>
       <c r="K127" s="0" t="n">
-        <v>0.144335221274823</v>
+        <v>0.260123630288215</v>
       </c>
       <c r="L127" s="0" t="n">
-        <v>0.147844562323314</v>
+        <v>0.264532736252176</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5011,22 +5011,22 @@
         <v>0.0733333333333333</v>
       </c>
       <c r="G128" s="0" t="n">
-        <v>0.106666666666667</v>
+        <v>0.0733333333333333</v>
       </c>
       <c r="H128" s="0" t="n">
-        <v>0.204583333333333</v>
+        <v>0.195844155844156</v>
       </c>
       <c r="I128" s="0" t="n">
-        <v>0.239854651162791</v>
+        <v>0.228420987995456</v>
       </c>
       <c r="J128" s="0" t="n">
-        <v>0.250081923890063</v>
+        <v>0.238311097885566</v>
       </c>
       <c r="K128" s="0" t="n">
-        <v>0.252713502837432</v>
+        <v>0.240855627147652</v>
       </c>
       <c r="L128" s="0" t="n">
-        <v>0.252713502837432</v>
+        <v>0.240855627147652</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5049,22 +5049,22 @@
         <v>0.0714285714285714</v>
       </c>
       <c r="G129" s="0" t="n">
-        <v>0.103571428571429</v>
+        <v>0.132015306122449</v>
       </c>
       <c r="H129" s="0" t="n">
-        <v>0.141389045736872</v>
+        <v>0.153088952972493</v>
       </c>
       <c r="I129" s="0" t="n">
-        <v>0.167121758969585</v>
+        <v>0.187858453658143</v>
       </c>
       <c r="J129" s="0" t="n">
-        <v>0.186536915884742</v>
+        <v>0.211486195661534</v>
       </c>
       <c r="K129" s="0" t="n">
-        <v>0.227447907025612</v>
+        <v>0.242043730479743</v>
       </c>
       <c r="L129" s="0" t="n">
-        <v>0.232080588100601</v>
+        <v>0.246360906606891</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5087,22 +5087,22 @@
         <v>0.1</v>
       </c>
       <c r="G130" s="0" t="n">
-        <v>0.157894736842105</v>
+        <v>0.167512531328321</v>
       </c>
       <c r="H130" s="0" t="n">
-        <v>0.259963190254952</v>
+        <v>0.267106047397809</v>
       </c>
       <c r="I130" s="0" t="n">
-        <v>0.313339441114373</v>
+        <v>0.330344079949404</v>
       </c>
       <c r="J130" s="0" t="n">
-        <v>0.34381688211813</v>
+        <v>0.365111934693474</v>
       </c>
       <c r="K130" s="0" t="n">
-        <v>0.391647906190832</v>
+        <v>0.400551716968894</v>
       </c>
       <c r="L130" s="0" t="n">
-        <v>0.396380652016696</v>
+        <v>0.4049620384982</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5128,19 +5128,19 @@
         <v>0.0166666666666667</v>
       </c>
       <c r="H131" s="0" t="n">
-        <v>0.0305555555555556</v>
+        <v>0.0294871794871795</v>
       </c>
       <c r="I131" s="0" t="n">
-        <v>0.039176245210728</v>
+        <v>0.0391025641025641</v>
       </c>
       <c r="J131" s="0" t="n">
-        <v>0.0538471515970494</v>
+        <v>0.0541548729048729</v>
       </c>
       <c r="K131" s="0" t="n">
-        <v>0.0757864693921648</v>
+        <v>0.0754802747440111</v>
       </c>
       <c r="L131" s="0" t="n">
-        <v>0.0757864693921648</v>
+        <v>0.0754802747440111</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5163,22 +5163,22 @@
         <v>0.0732323232323232</v>
       </c>
       <c r="G132" s="0" t="n">
-        <v>0.0934343434343434</v>
+        <v>0.0905483405483406</v>
       </c>
       <c r="H132" s="0" t="n">
-        <v>0.0934343434343434</v>
+        <v>0.0905483405483406</v>
       </c>
       <c r="I132" s="0" t="n">
-        <v>0.0934343434343434</v>
+        <v>0.0905483405483406</v>
       </c>
       <c r="J132" s="0" t="n">
-        <v>0.10370360719745</v>
+        <v>0.100786649875027</v>
       </c>
       <c r="K132" s="0" t="n">
-        <v>0.115904149823802</v>
+        <v>0.112782871452734</v>
       </c>
       <c r="L132" s="0" t="n">
-        <v>0.116643248123876</v>
+        <v>0.113539186684922</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5201,22 +5201,22 @@
         <v>0.0714814814814815</v>
       </c>
       <c r="G133" s="0" t="n">
-        <v>0.09</v>
+        <v>0.0873544973544974</v>
       </c>
       <c r="H133" s="0" t="n">
-        <v>0.101111111111111</v>
+        <v>0.0976109076109076</v>
       </c>
       <c r="I133" s="0" t="n">
-        <v>0.106475095785441</v>
+        <v>0.103593813593814</v>
       </c>
       <c r="J133" s="0" t="n">
-        <v>0.127722455462228</v>
+        <v>0.125048908990492</v>
       </c>
       <c r="K133" s="0" t="n">
-        <v>0.156139936619551</v>
+        <v>0.15287634092619</v>
       </c>
       <c r="L133" s="0" t="n">
-        <v>0.157079412680978</v>
+        <v>0.153837701621328</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5233,28 +5233,28 @@
         <v>9</v>
       </c>
       <c r="E134" s="0" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F134" s="0" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G134" s="0" t="n">
-        <v>0.125</v>
+        <v>0.0166666666666667</v>
       </c>
       <c r="H134" s="0" t="n">
-        <v>0.125</v>
+        <v>0.0261904761904762</v>
       </c>
       <c r="I134" s="0" t="n">
-        <v>0.141581196581197</v>
+        <v>0.0261904761904762</v>
       </c>
       <c r="J134" s="0" t="n">
-        <v>0.141581196581197</v>
+        <v>0.0370270711024136</v>
       </c>
       <c r="K134" s="0" t="n">
-        <v>0.143153523625222</v>
+        <v>0.0386827002414864</v>
       </c>
       <c r="L134" s="0" t="n">
-        <v>0.143991512452037</v>
+        <v>0.0396305675400646</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5271,28 +5271,28 @@
         <v>9</v>
       </c>
       <c r="E135" s="0" t="n">
-        <v>0</v>
+        <v>0.0526315789473684</v>
       </c>
       <c r="F135" s="0" t="n">
-        <v>0</v>
+        <v>0.087719298245614</v>
       </c>
       <c r="G135" s="0" t="n">
-        <v>0.0204678362573099</v>
+        <v>0.087719298245614</v>
       </c>
       <c r="H135" s="0" t="n">
-        <v>0.027046783625731</v>
+        <v>0.0998650472334683</v>
       </c>
       <c r="I135" s="0" t="n">
-        <v>0.0325869498307171</v>
+        <v>0.111507790455159</v>
       </c>
       <c r="J135" s="0" t="n">
-        <v>0.0411023904791218</v>
+        <v>0.122748238930486</v>
       </c>
       <c r="K135" s="0" t="n">
-        <v>0.0464103299975876</v>
+        <v>0.124180390738577</v>
       </c>
       <c r="L135" s="0" t="n">
-        <v>0.0485443909709062</v>
+        <v>0.126178682558158</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5312,25 +5312,25 @@
         <v>0.0344827586206897</v>
       </c>
       <c r="F136" s="0" t="n">
-        <v>0.0344827586206897</v>
+        <v>0.0574712643678161</v>
       </c>
       <c r="G136" s="0" t="n">
-        <v>0.0742337164750958</v>
+        <v>0.0747126436781609</v>
       </c>
       <c r="H136" s="0" t="n">
-        <v>0.0814176245210728</v>
+        <v>0.0935329038777315</v>
       </c>
       <c r="I136" s="0" t="n">
-        <v>0.099181751904075</v>
+        <v>0.104630082561117</v>
       </c>
       <c r="J136" s="0" t="n">
-        <v>0.108883528695991</v>
+        <v>0.125530340975564</v>
       </c>
       <c r="K136" s="0" t="n">
-        <v>0.115669266939114</v>
+        <v>0.128422157670271</v>
       </c>
       <c r="L136" s="0" t="n">
-        <v>0.118581096443144</v>
+        <v>0.131289817443832</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5356,19 +5356,19 @@
         <v>0</v>
       </c>
       <c r="H137" s="0" t="n">
-        <v>0.00324675324675325</v>
+        <v>0.0031055900621118</v>
       </c>
       <c r="I137" s="0" t="n">
-        <v>0.00324675324675325</v>
+        <v>0.0031055900621118</v>
       </c>
       <c r="J137" s="0" t="n">
-        <v>0.00501042167708834</v>
+        <v>0.00484775034085745</v>
       </c>
       <c r="K137" s="0" t="n">
-        <v>0.014687510988303</v>
+        <v>0.0143322774216591</v>
       </c>
       <c r="L137" s="0" t="n">
-        <v>0.015698292659462</v>
+        <v>0.0153478495272786</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5394,19 +5394,19 @@
         <v>0</v>
       </c>
       <c r="H138" s="0" t="n">
-        <v>0.0198848115097432</v>
+        <v>0.0200980392156863</v>
       </c>
       <c r="I138" s="0" t="n">
-        <v>0.0274749443370677</v>
+        <v>0.0288126361655773</v>
       </c>
       <c r="J138" s="0" t="n">
-        <v>0.0274749443370677</v>
+        <v>0.0288126361655773</v>
       </c>
       <c r="K138" s="0" t="n">
-        <v>0.029183254940345</v>
+        <v>0.0305280801457397</v>
       </c>
       <c r="L138" s="0" t="n">
-        <v>0.0301565817624033</v>
+        <v>0.0315486923083954</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5432,19 +5432,19 @@
         <v>0</v>
       </c>
       <c r="H139" s="0" t="n">
-        <v>0.0167696766930263</v>
+        <v>0.0166316035530622</v>
       </c>
       <c r="I139" s="0" t="n">
-        <v>0.0219725903246601</v>
+        <v>0.0226053192041972</v>
       </c>
       <c r="J139" s="0" t="n">
-        <v>0.024362076585114</v>
+        <v>0.0249656653883042</v>
       </c>
       <c r="K139" s="0" t="n">
-        <v>0.0346315174720308</v>
+        <v>0.0350475399212945</v>
       </c>
       <c r="L139" s="0" t="n">
-        <v>0.0365666161482094</v>
+        <v>0.0370432941204469</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5479,10 +5479,10 @@
         <v>0.0582222222222222</v>
       </c>
       <c r="K140" s="0" t="n">
-        <v>0.0655851856682717</v>
+        <v>0.0654940249173659</v>
       </c>
       <c r="L140" s="0" t="n">
-        <v>0.0655851856682717</v>
+        <v>0.0654940249173659</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5502,25 +5502,25 @@
         <v>0.05</v>
       </c>
       <c r="F141" s="0" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="G141" s="0" t="n">
-        <v>0.314166666666667</v>
+        <v>0.304166666666667</v>
       </c>
       <c r="H141" s="0" t="n">
-        <v>0.522703962703963</v>
+        <v>0.512998325092147</v>
       </c>
       <c r="I141" s="0" t="n">
-        <v>0.64791209048949</v>
+        <v>0.637922921355485</v>
       </c>
       <c r="J141" s="0" t="n">
-        <v>0.672924436168502</v>
+        <v>0.662606262705493</v>
       </c>
       <c r="K141" s="0" t="n">
-        <v>0.672924436168502</v>
+        <v>0.662606262705493</v>
       </c>
       <c r="L141" s="0" t="n">
-        <v>0.672924436168502</v>
+        <v>0.662606262705493</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5540,25 +5540,25 @@
         <v>0.04</v>
       </c>
       <c r="F142" s="0" t="n">
-        <v>0.16</v>
+        <v>0.152</v>
       </c>
       <c r="G142" s="0" t="n">
-        <v>0.286444444444444</v>
+        <v>0.278444444444444</v>
       </c>
       <c r="H142" s="0" t="n">
-        <v>0.49380574980575</v>
+        <v>0.486067451490793</v>
       </c>
       <c r="I142" s="0" t="n">
-        <v>0.634022195898357</v>
+        <v>0.626043898704562</v>
       </c>
       <c r="J142" s="0" t="n">
-        <v>0.657113553923048</v>
+        <v>0.648830494824492</v>
       </c>
       <c r="K142" s="0" t="n">
-        <v>0.665355638248219</v>
+        <v>0.656971862737027</v>
       </c>
       <c r="L142" s="0" t="n">
-        <v>0.665355638248219</v>
+        <v>0.656971862737027</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5596,7 +5596,7 @@
         <v>0.0625</v>
       </c>
       <c r="L143" s="0" t="n">
-        <v>0.0627930832356389</v>
+        <v>0.0628090234857849</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5619,22 +5619,22 @@
         <v>0.0765873015873016</v>
       </c>
       <c r="G144" s="0" t="n">
-        <v>0.151851851851852</v>
+        <v>0.132804232804233</v>
       </c>
       <c r="H144" s="0" t="n">
-        <v>0.193153021442495</v>
+        <v>0.179135094924569</v>
       </c>
       <c r="I144" s="0" t="n">
-        <v>0.212989877208161</v>
+        <v>0.208733190794216</v>
       </c>
       <c r="J144" s="0" t="n">
-        <v>0.216693580911864</v>
+        <v>0.212609159786464</v>
       </c>
       <c r="K144" s="0" t="n">
-        <v>0.218677707895991</v>
+        <v>0.214638380565685</v>
       </c>
       <c r="L144" s="0" t="n">
-        <v>0.218677707895991</v>
+        <v>0.214638380565685</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5657,22 +5657,22 @@
         <v>0.1</v>
       </c>
       <c r="G145" s="0" t="n">
-        <v>0.173277777777778</v>
+        <v>0.155277777777778</v>
       </c>
       <c r="H145" s="0" t="n">
-        <v>0.211523391812865</v>
+        <v>0.198604976894451</v>
       </c>
       <c r="I145" s="0" t="n">
-        <v>0.229521167118761</v>
+        <v>0.225551263366599</v>
       </c>
       <c r="J145" s="0" t="n">
-        <v>0.232854500452094</v>
+        <v>0.229039635459622</v>
       </c>
       <c r="K145" s="0" t="n">
-        <v>0.234632278229872</v>
+        <v>0.230857817277804</v>
       </c>
       <c r="L145" s="0" t="n">
-        <v>0.235030871430341</v>
+        <v>0.231278089218472</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5692,25 +5692,25 @@
         <v>0</v>
       </c>
       <c r="F146" s="0" t="n">
-        <v>0.104761904761905</v>
+        <v>0.128571428571429</v>
       </c>
       <c r="G146" s="0" t="n">
-        <v>0.152380952380952</v>
+        <v>0.176190476190476</v>
       </c>
       <c r="H146" s="0" t="n">
-        <v>0.152380952380952</v>
+        <v>0.176190476190476</v>
       </c>
       <c r="I146" s="0" t="n">
-        <v>0.165986394557823</v>
+        <v>0.176190476190476</v>
       </c>
       <c r="J146" s="0" t="n">
-        <v>0.173750369713103</v>
+        <v>0.195566502463054</v>
       </c>
       <c r="K146" s="0" t="n">
-        <v>0.176213423900295</v>
+        <v>0.197927777551602</v>
       </c>
       <c r="L146" s="0" t="n">
-        <v>0.176213423900295</v>
+        <v>0.197927777551602</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5730,25 +5730,25 @@
         <v>0.0303030303030303</v>
       </c>
       <c r="F147" s="0" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.0732323232323232</v>
       </c>
       <c r="G147" s="0" t="n">
-        <v>0.122474747474748</v>
+        <v>0.108585858585859</v>
       </c>
       <c r="H147" s="0" t="n">
-        <v>0.154155188246097</v>
+        <v>0.13475665748393</v>
       </c>
       <c r="I147" s="0" t="n">
-        <v>0.189042043842832</v>
+        <v>0.167912895185622</v>
       </c>
       <c r="J147" s="0" t="n">
-        <v>0.22194735402087</v>
+        <v>0.194296486528101</v>
       </c>
       <c r="K147" s="0" t="n">
-        <v>0.229786586967483</v>
+        <v>0.208373555292669</v>
       </c>
       <c r="L147" s="0" t="n">
-        <v>0.229786586967483</v>
+        <v>0.208373555292669</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5771,22 +5771,22 @@
         <v>0.125</v>
       </c>
       <c r="G148" s="0" t="n">
-        <v>0.194097222222222</v>
+        <v>0.189444444444444</v>
       </c>
       <c r="H148" s="0" t="n">
-        <v>0.23240891053391</v>
+        <v>0.221262626262626</v>
       </c>
       <c r="I148" s="0" t="n">
-        <v>0.279320503760854</v>
+        <v>0.257415223665224</v>
       </c>
       <c r="J148" s="0" t="n">
-        <v>0.320037524260483</v>
+        <v>0.298712835875353</v>
       </c>
       <c r="K148" s="0" t="n">
-        <v>0.33012220216869</v>
+        <v>0.315439132530253</v>
       </c>
       <c r="L148" s="0" t="n">
-        <v>0.33012220216869</v>
+        <v>0.315439132530253</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5850,19 +5850,19 @@
         <v>0.282142857142857</v>
       </c>
       <c r="H150" s="0" t="n">
-        <v>0.518584595551507</v>
+        <v>0.487870309837222</v>
       </c>
       <c r="I150" s="0" t="n">
-        <v>0.557553143192581</v>
+        <v>0.558543822371199</v>
       </c>
       <c r="J150" s="0" t="n">
-        <v>0.557553143192581</v>
+        <v>0.558543822371199</v>
       </c>
       <c r="K150" s="0" t="n">
-        <v>0.557553143192581</v>
+        <v>0.558543822371199</v>
       </c>
       <c r="L150" s="0" t="n">
-        <v>0.558618105918885</v>
+        <v>0.558543822371199</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5888,19 +5888,19 @@
         <v>0.488271604938272</v>
       </c>
       <c r="H151" s="0" t="n">
-        <v>0.740305899619625</v>
+        <v>0.708824418138144</v>
       </c>
       <c r="I151" s="0" t="n">
-        <v>0.779724133764964</v>
+        <v>0.780722803990018</v>
       </c>
       <c r="J151" s="0" t="n">
-        <v>0.779724133764964</v>
+        <v>0.780722803990018</v>
       </c>
       <c r="K151" s="0" t="n">
-        <v>0.779724133764964</v>
+        <v>0.780722803990018</v>
       </c>
       <c r="L151" s="0" t="n">
-        <v>0.780789096491268</v>
+        <v>0.780722803990018</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5920,25 +5920,25 @@
         <v>0.0263157894736842</v>
       </c>
       <c r="F152" s="0" t="n">
-        <v>0.0723684210526316</v>
+        <v>0.105263157894737</v>
       </c>
       <c r="G152" s="0" t="n">
-        <v>0.0828947368421053</v>
+        <v>0.12406015037594</v>
       </c>
       <c r="H152" s="0" t="n">
-        <v>0.105137844611529</v>
+        <v>0.171894657592598</v>
       </c>
       <c r="I152" s="0" t="n">
-        <v>0.130203699940542</v>
+        <v>0.234134192664125</v>
       </c>
       <c r="J152" s="0" t="n">
-        <v>0.157722475696465</v>
+        <v>0.258569463848622</v>
       </c>
       <c r="K152" s="0" t="n">
-        <v>0.185010473510306</v>
+        <v>0.297683200480716</v>
       </c>
       <c r="L152" s="0" t="n">
-        <v>0.18778603653649</v>
+        <v>0.30005538151413</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5961,22 +5961,22 @@
         <v>0.0105263157894737</v>
       </c>
       <c r="G153" s="0" t="n">
-        <v>0.0255639097744361</v>
+        <v>0.0280701754385965</v>
       </c>
       <c r="H153" s="0" t="n">
-        <v>0.0343358395989975</v>
+        <v>0.112913458230796</v>
       </c>
       <c r="I153" s="0" t="n">
-        <v>0.0343358395989975</v>
+        <v>0.112913458230796</v>
       </c>
       <c r="J153" s="0" t="n">
-        <v>0.0463362348192924</v>
+        <v>0.127477379996934</v>
       </c>
       <c r="K153" s="0" t="n">
-        <v>0.0573103197961342</v>
+        <v>0.14841255197891</v>
       </c>
       <c r="L153" s="0" t="n">
-        <v>0.0584713105082085</v>
+        <v>0.149556716738636</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5996,25 +5996,25 @@
         <v>0.0175438596491228</v>
       </c>
       <c r="F154" s="0" t="n">
-        <v>0.062280701754386</v>
+        <v>0.087719298245614</v>
       </c>
       <c r="G154" s="0" t="n">
-        <v>0.0853383458646616</v>
+        <v>0.12280701754386</v>
       </c>
       <c r="H154" s="0" t="n">
-        <v>0.11436925647452</v>
+        <v>0.240958584746443</v>
       </c>
       <c r="I154" s="0" t="n">
-        <v>0.137148987960391</v>
+        <v>0.306176468559704</v>
       </c>
       <c r="J154" s="0" t="n">
-        <v>0.175841786281759</v>
+        <v>0.344359724178188</v>
       </c>
       <c r="K154" s="0" t="n">
-        <v>0.213251063451022</v>
+        <v>0.403409361348568</v>
       </c>
       <c r="L154" s="0" t="n">
-        <v>0.217124601861133</v>
+        <v>0.406894275691084</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6031,28 +6031,28 @@
         <v>10</v>
       </c>
       <c r="E155" s="0" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F155" s="0" t="n">
-        <v>0.0466666666666667</v>
+        <v>0.0906666666666667</v>
       </c>
       <c r="G155" s="0" t="n">
-        <v>0.0638095238095238</v>
+        <v>0.137333333333333</v>
       </c>
       <c r="H155" s="0" t="n">
-        <v>0.0638095238095238</v>
+        <v>0.188746376811594</v>
       </c>
       <c r="I155" s="0" t="n">
-        <v>0.0791125541125541</v>
+        <v>0.25695927492181</v>
       </c>
       <c r="J155" s="0" t="n">
-        <v>0.0824066717596129</v>
+        <v>0.284047548966605</v>
       </c>
       <c r="K155" s="0" t="n">
-        <v>0.0950848231078242</v>
+        <v>0.305617069524806</v>
       </c>
       <c r="L155" s="0" t="n">
-        <v>0.096818647550888</v>
+        <v>0.308240760905847</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6069,28 +6069,28 @@
         <v>10</v>
       </c>
       <c r="E156" s="0" t="n">
-        <v>0.0294117647058823</v>
+        <v>0</v>
       </c>
       <c r="F156" s="0" t="n">
-        <v>0.0411764705882353</v>
+        <v>0</v>
       </c>
       <c r="G156" s="0" t="n">
-        <v>0.0652777777777778</v>
+        <v>0.0115546218487395</v>
       </c>
       <c r="H156" s="0" t="n">
-        <v>0.0652777777777778</v>
+        <v>0.0167449332674246</v>
       </c>
       <c r="I156" s="0" t="n">
-        <v>0.0705298786181139</v>
+        <v>0.0240807347208731</v>
       </c>
       <c r="J156" s="0" t="n">
-        <v>0.0738595123584025</v>
+        <v>0.0403638746841762</v>
       </c>
       <c r="K156" s="0" t="n">
-        <v>0.0798159881666025</v>
+        <v>0.0690203387480835</v>
       </c>
       <c r="L156" s="0" t="n">
-        <v>0.0816024073697994</v>
+        <v>0.072738549338466</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6110,25 +6110,25 @@
         <v>0.0169491525423729</v>
       </c>
       <c r="F157" s="0" t="n">
-        <v>0.064406779661017</v>
+        <v>0.0384180790960452</v>
       </c>
       <c r="G157" s="0" t="n">
-        <v>0.102407855797686</v>
+        <v>0.0864003228410008</v>
       </c>
       <c r="H157" s="0" t="n">
-        <v>0.102407855797686</v>
+        <v>0.12530986233845</v>
       </c>
       <c r="I157" s="0" t="n">
-        <v>0.120347543228899</v>
+        <v>0.178656053015782</v>
       </c>
       <c r="J157" s="0" t="n">
-        <v>0.126777310530767</v>
+        <v>0.223377452409455</v>
       </c>
       <c r="K157" s="0" t="n">
-        <v>0.143642164871488</v>
+        <v>0.276549016152586</v>
       </c>
       <c r="L157" s="0" t="n">
-        <v>0.147163125715828</v>
+        <v>0.283001168818856</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6145,28 +6145,28 @@
         <v>10</v>
       </c>
       <c r="E158" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F158" s="0" t="n">
         <v>0.1</v>
       </c>
-      <c r="F158" s="0" t="n">
-        <v>0.166666666666667</v>
-      </c>
       <c r="G158" s="0" t="n">
-        <v>0.204166666666667</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="H158" s="0" t="n">
-        <v>0.311255656108597</v>
+        <v>0.224411027568922</v>
       </c>
       <c r="I158" s="0" t="n">
-        <v>0.348251993104934</v>
+        <v>0.273866365259554</v>
       </c>
       <c r="J158" s="0" t="n">
-        <v>0.358034601800586</v>
+        <v>0.282957274350463</v>
       </c>
       <c r="K158" s="0" t="n">
-        <v>0.360632004397989</v>
+        <v>0.285554676947866</v>
       </c>
       <c r="L158" s="0" t="n">
-        <v>0.360632004397989</v>
+        <v>0.285554676947866</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6183,28 +6183,28 @@
         <v>10</v>
       </c>
       <c r="E159" s="0" t="n">
-        <v>0</v>
+        <v>0.0357142857142857</v>
       </c>
       <c r="F159" s="0" t="n">
-        <v>0.0232142857142857</v>
+        <v>0.0595238095238095</v>
       </c>
       <c r="G159" s="0" t="n">
-        <v>0.0351190476190476</v>
+        <v>0.0952380952380952</v>
       </c>
       <c r="H159" s="0" t="n">
-        <v>0.0677086384793152</v>
+        <v>0.124076903488668</v>
       </c>
       <c r="I159" s="0" t="n">
-        <v>0.0998089335284059</v>
+        <v>0.199262413665488</v>
       </c>
       <c r="J159" s="0" t="n">
-        <v>0.120214443910696</v>
+        <v>0.223869243239422</v>
       </c>
       <c r="K159" s="0" t="n">
-        <v>0.156828212140568</v>
+        <v>0.251391179480726</v>
       </c>
       <c r="L159" s="0" t="n">
-        <v>0.160007789562351</v>
+        <v>0.252441599648794</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6224,25 +6224,25 @@
         <v>0.0263157894736842</v>
       </c>
       <c r="F160" s="0" t="n">
-        <v>0.0846491228070175</v>
+        <v>0.105263157894737</v>
       </c>
       <c r="G160" s="0" t="n">
-        <v>0.118640350877193</v>
+        <v>0.172775689223058</v>
       </c>
       <c r="H160" s="0" t="n">
-        <v>0.216902172701016</v>
+        <v>0.253456846097794</v>
       </c>
       <c r="I160" s="0" t="n">
-        <v>0.280172143042483</v>
+        <v>0.376083933630762</v>
       </c>
       <c r="J160" s="0" t="n">
-        <v>0.311637604925547</v>
+        <v>0.410258539803291</v>
       </c>
       <c r="K160" s="0" t="n">
-        <v>0.354927691258496</v>
+        <v>0.441767879981511</v>
       </c>
       <c r="L160" s="0" t="n">
-        <v>0.358228479383966</v>
+        <v>0.442828538162912</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6262,25 +6262,25 @@
         <v>0</v>
       </c>
       <c r="F161" s="0" t="n">
-        <v>0.0166666666666667</v>
+        <v>0</v>
       </c>
       <c r="G161" s="0" t="n">
-        <v>0.0166666666666667</v>
+        <v>0.0119047619047619</v>
       </c>
       <c r="H161" s="0" t="n">
-        <v>0.0305555555555556</v>
+        <v>0.0325782486907807</v>
       </c>
       <c r="I161" s="0" t="n">
-        <v>0.039176245210728</v>
+        <v>0.067849023667438</v>
       </c>
       <c r="J161" s="0" t="n">
-        <v>0.0538948142219255</v>
+        <v>0.0772576258179756</v>
       </c>
       <c r="K161" s="0" t="n">
-        <v>0.0756052813625829</v>
+        <v>0.0896649052916943</v>
       </c>
       <c r="L161" s="0" t="n">
-        <v>0.0756052813625829</v>
+        <v>0.0925416952525805</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6300,25 +6300,25 @@
         <v>0.0303030303030303</v>
       </c>
       <c r="F162" s="0" t="n">
-        <v>0.0732323232323232</v>
+        <v>0.0909090909090909</v>
       </c>
       <c r="G162" s="0" t="n">
-        <v>0.0934343434343434</v>
+        <v>0.130050505050505</v>
       </c>
       <c r="H162" s="0" t="n">
-        <v>0.0934343434343434</v>
+        <v>0.166322314049587</v>
       </c>
       <c r="I162" s="0" t="n">
-        <v>0.0934343434343434</v>
+        <v>0.191674030890665</v>
       </c>
       <c r="J162" s="0" t="n">
-        <v>0.103742397558821</v>
+        <v>0.198408037624672</v>
       </c>
       <c r="K162" s="0" t="n">
-        <v>0.115711963616131</v>
+        <v>0.204452947370864</v>
       </c>
       <c r="L162" s="0" t="n">
-        <v>0.116452265659364</v>
+        <v>0.207806687407838</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6338,25 +6338,25 @@
         <v>0.0222222222222222</v>
       </c>
       <c r="F163" s="0" t="n">
-        <v>0.0714814814814815</v>
+        <v>0.0666666666666667</v>
       </c>
       <c r="G163" s="0" t="n">
-        <v>0.09</v>
+        <v>0.114021164021164</v>
       </c>
       <c r="H163" s="0" t="n">
-        <v>0.101111111111111</v>
+        <v>0.167694482272487</v>
       </c>
       <c r="I163" s="0" t="n">
-        <v>0.106475095785441</v>
+        <v>0.221781291027632</v>
       </c>
       <c r="J163" s="0" t="n">
-        <v>0.127801015572818</v>
+        <v>0.235998734277333</v>
       </c>
       <c r="K163" s="0" t="n">
-        <v>0.155793875741393</v>
+        <v>0.251357234208212</v>
       </c>
       <c r="L163" s="0" t="n">
-        <v>0.156734881894126</v>
+        <v>0.257260983275326</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6373,28 +6373,28 @@
         <v>10</v>
       </c>
       <c r="E164" s="0" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F164" s="0" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G164" s="0" t="n">
-        <v>0.125</v>
+        <v>0.0166666666666667</v>
       </c>
       <c r="H164" s="0" t="n">
-        <v>0.125</v>
+        <v>0.0333333333333333</v>
       </c>
       <c r="I164" s="0" t="n">
-        <v>0.141388888888889</v>
+        <v>0.040650406504065</v>
       </c>
       <c r="J164" s="0" t="n">
-        <v>0.141388888888889</v>
+        <v>0.045650406504065</v>
       </c>
       <c r="K164" s="0" t="n">
-        <v>0.143113026819923</v>
+        <v>0.0468352406272878</v>
       </c>
       <c r="L164" s="0" t="n">
-        <v>0.143946360153257</v>
+        <v>0.0475193911404007</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6411,28 +6411,28 @@
         <v>10</v>
       </c>
       <c r="E165" s="0" t="n">
-        <v>0</v>
+        <v>0.0526315789473684</v>
       </c>
       <c r="F165" s="0" t="n">
-        <v>0</v>
+        <v>0.105263157894737</v>
       </c>
       <c r="G165" s="0" t="n">
-        <v>0.0204678362573099</v>
+        <v>0.105263157894737</v>
       </c>
       <c r="H165" s="0" t="n">
-        <v>0.0204678362573099</v>
+        <v>0.125657894736842</v>
       </c>
       <c r="I165" s="0" t="n">
-        <v>0.0317139001349528</v>
+        <v>0.13277027027027</v>
       </c>
       <c r="J165" s="0" t="n">
-        <v>0.0401353977598012</v>
+        <v>0.141945106094007</v>
       </c>
       <c r="K165" s="0" t="n">
-        <v>0.045443337278267</v>
+        <v>0.144910265471323</v>
       </c>
       <c r="L165" s="0" t="n">
-        <v>0.0475907596032685</v>
+        <v>0.14618446003961</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6452,25 +6452,25 @@
         <v>0.0344827586206897</v>
       </c>
       <c r="F166" s="0" t="n">
-        <v>0.0344827586206897</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="G166" s="0" t="n">
-        <v>0.0742337164750958</v>
+        <v>0.0862068965517241</v>
       </c>
       <c r="H166" s="0" t="n">
-        <v>0.0742337164750958</v>
+        <v>0.11882183908046</v>
       </c>
       <c r="I166" s="0" t="n">
-        <v>0.098089203261617</v>
+        <v>0.132073947370415</v>
       </c>
       <c r="J166" s="0" t="n">
-        <v>0.107688398591029</v>
+        <v>0.145613730372223</v>
       </c>
       <c r="K166" s="0" t="n">
-        <v>0.114610243146643</v>
+        <v>0.149590031387993</v>
       </c>
       <c r="L166" s="0" t="n">
-        <v>0.117531676610498</v>
+        <v>0.151495299230745</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6493,22 +6493,22 @@
         <v>0</v>
       </c>
       <c r="G167" s="0" t="n">
-        <v>0</v>
+        <v>0.0261904761904762</v>
       </c>
       <c r="H167" s="0" t="n">
-        <v>0.00324675324675325</v>
+        <v>0.0414965986394558</v>
       </c>
       <c r="I167" s="0" t="n">
-        <v>0.00324675324675325</v>
+        <v>0.099942535201133</v>
       </c>
       <c r="J167" s="0" t="n">
-        <v>0.00494743351886209</v>
+        <v>0.132323349550145</v>
       </c>
       <c r="K167" s="0" t="n">
-        <v>0.0145929198210848</v>
+        <v>0.140565107791903</v>
       </c>
       <c r="L167" s="0" t="n">
-        <v>0.0156068900779573</v>
+        <v>0.143230430440823</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6525,28 +6525,28 @@
         <v>10</v>
       </c>
       <c r="E168" s="0" t="n">
-        <v>0</v>
+        <v>0.0588235294117647</v>
       </c>
       <c r="F168" s="0" t="n">
-        <v>0</v>
+        <v>0.161764705882353</v>
       </c>
       <c r="G168" s="0" t="n">
-        <v>0</v>
+        <v>0.161764705882353</v>
       </c>
       <c r="H168" s="0" t="n">
-        <v>0.0198848115097432</v>
+        <v>0.248347093223254</v>
       </c>
       <c r="I168" s="0" t="n">
-        <v>0.0274749443370677</v>
+        <v>0.248347093223254</v>
       </c>
       <c r="J168" s="0" t="n">
-        <v>0.0274749443370677</v>
+        <v>0.25833599444412</v>
       </c>
       <c r="K168" s="0" t="n">
-        <v>0.0291610317269088</v>
+        <v>0.263545500824272</v>
       </c>
       <c r="L168" s="0" t="n">
-        <v>0.0301485194717306</v>
+        <v>0.263545500824272</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6563,28 +6563,28 @@
         <v>10</v>
       </c>
       <c r="E169" s="0" t="n">
-        <v>0</v>
+        <v>0.032258064516129</v>
       </c>
       <c r="F169" s="0" t="n">
-        <v>0</v>
+        <v>0.0887096774193548</v>
       </c>
       <c r="G169" s="0" t="n">
-        <v>0</v>
+        <v>0.126344086021505</v>
       </c>
       <c r="H169" s="0" t="n">
-        <v>0.0167696766930263</v>
+        <v>0.212474196243296</v>
       </c>
       <c r="I169" s="0" t="n">
-        <v>0.0219725903246601</v>
+        <v>0.275879062987748</v>
       </c>
       <c r="J169" s="0" t="n">
-        <v>0.0242767377900978</v>
+        <v>0.314166103071392</v>
       </c>
       <c r="K169" s="0" t="n">
-        <v>0.0344917631965489</v>
+        <v>0.326804147020706</v>
       </c>
       <c r="L169" s="0" t="n">
-        <v>0.0364463470419562</v>
+        <v>0.328990764438633</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6601,28 +6601,28 @@
         <v>10</v>
       </c>
       <c r="E170" s="0" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F170" s="0" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G170" s="0" t="n">
-        <v>0.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="H170" s="0" t="n">
-        <v>0.333333333333333</v>
+        <v>0.0340579710144928</v>
       </c>
       <c r="I170" s="0" t="n">
-        <v>0.333333333333333</v>
+        <v>0.0522397891963109</v>
       </c>
       <c r="J170" s="0" t="n">
-        <v>0.333333333333333</v>
+        <v>0.0522397891963109</v>
       </c>
       <c r="K170" s="0" t="n">
-        <v>0.342195056317995</v>
+        <v>0.0581811042530683</v>
       </c>
       <c r="L170" s="0" t="n">
-        <v>0.342195056317995</v>
+        <v>0.0581811042530683</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6639,28 +6639,28 @@
         <v>10</v>
       </c>
       <c r="E171" s="0" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F171" s="0" t="n">
-        <v>0.0958333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="G171" s="0" t="n">
-        <v>0.120833333333333</v>
+        <v>0.328273809523809</v>
       </c>
       <c r="H171" s="0" t="n">
-        <v>0.168560606060606</v>
+        <v>0.532758184797658</v>
       </c>
       <c r="I171" s="0" t="n">
-        <v>0.184678416821274</v>
+        <v>0.639748807763362</v>
       </c>
       <c r="J171" s="0" t="n">
-        <v>0.184678416821274</v>
+        <v>0.663714377077769</v>
       </c>
       <c r="K171" s="0" t="n">
-        <v>0.188306927845134</v>
+        <v>0.663714377077769</v>
       </c>
       <c r="L171" s="0" t="n">
-        <v>0.189364620152826</v>
+        <v>0.663714377077769</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6683,22 +6683,22 @@
         <v>0.16</v>
       </c>
       <c r="G172" s="0" t="n">
-        <v>0.254444444444444</v>
+        <v>0.262619047619048</v>
       </c>
       <c r="H172" s="0" t="n">
-        <v>0.313535353535354</v>
+        <v>0.494817681936675</v>
       </c>
       <c r="I172" s="0" t="n">
-        <v>0.331605854462997</v>
+        <v>0.615853212231919</v>
       </c>
       <c r="J172" s="0" t="n">
-        <v>0.331605854462997</v>
+        <v>0.637979458079095</v>
       </c>
       <c r="K172" s="0" t="n">
-        <v>0.341029036503926</v>
+        <v>0.644616425309765</v>
       </c>
       <c r="L172" s="0" t="n">
-        <v>0.342259805734695</v>
+        <v>0.644616425309765</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6715,28 +6715,28 @@
         <v>10</v>
       </c>
       <c r="E173" s="0" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="F173" s="0" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="G173" s="0" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="H173" s="0" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="I173" s="0" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="J173" s="0" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="K173" s="0" t="n">
-        <v>0</v>
+        <v>0.131363102232668</v>
       </c>
       <c r="L173" s="0" t="n">
-        <v>0.000151883353584447</v>
+        <v>0.132050670989543</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6756,25 +6756,25 @@
         <v>0</v>
       </c>
       <c r="F174" s="0" t="n">
-        <v>0</v>
+        <v>0.0646825396825397</v>
       </c>
       <c r="G174" s="0" t="n">
-        <v>0</v>
+        <v>0.13994708994709</v>
       </c>
       <c r="H174" s="0" t="n">
-        <v>0</v>
+        <v>0.193637566137566</v>
       </c>
       <c r="I174" s="0" t="n">
-        <v>0</v>
+        <v>0.220075002814364</v>
       </c>
       <c r="J174" s="0" t="n">
-        <v>0.000350140056022409</v>
+        <v>0.224504681662648</v>
       </c>
       <c r="K174" s="0" t="n">
-        <v>0.000663423264042459</v>
+        <v>0.228862784706725</v>
       </c>
       <c r="L174" s="0" t="n">
-        <v>0.00084892981589713</v>
+        <v>0.228862784706725</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6791,28 +6791,28 @@
         <v>10</v>
       </c>
       <c r="E175" s="0" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F175" s="0" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G175" s="0" t="n">
-        <v>0</v>
+        <v>0.173277777777778</v>
       </c>
       <c r="H175" s="0" t="n">
-        <v>0</v>
+        <v>0.222761111111111</v>
       </c>
       <c r="I175" s="0" t="n">
-        <v>0</v>
+        <v>0.246579987270413</v>
       </c>
       <c r="J175" s="0" t="n">
-        <v>0.000294117647058823</v>
+        <v>0.250533475642506</v>
       </c>
       <c r="K175" s="0" t="n">
-        <v>0.000557275541795666</v>
+        <v>0.261714095406331</v>
       </c>
       <c r="L175" s="0" t="n">
-        <v>0.00083089967324389</v>
+        <v>0.262242148211611</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6829,28 +6829,28 @@
         <v>10</v>
       </c>
       <c r="E176" s="0" t="n">
-        <v>0</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="F176" s="0" t="n">
-        <v>0.104761904761905</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="G176" s="0" t="n">
-        <v>0.147619047619048</v>
+        <v>0.233333333333333</v>
       </c>
       <c r="H176" s="0" t="n">
-        <v>0.147619047619048</v>
+        <v>0.233333333333333</v>
       </c>
       <c r="I176" s="0" t="n">
-        <v>0.160606060606061</v>
+        <v>0.250140056022409</v>
       </c>
       <c r="J176" s="0" t="n">
-        <v>0.168046536796537</v>
+        <v>0.250140056022409</v>
       </c>
       <c r="K176" s="0" t="n">
-        <v>0.170509590983729</v>
+        <v>0.262174439711524</v>
       </c>
       <c r="L176" s="0" t="n">
-        <v>0.170509590983729</v>
+        <v>0.262174439711524</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6867,28 +6867,28 @@
         <v>10</v>
       </c>
       <c r="E177" s="0" t="n">
-        <v>0.0303030303030303</v>
+        <v>0</v>
       </c>
       <c r="F177" s="0" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.0580808080808081</v>
       </c>
       <c r="G177" s="0" t="n">
-        <v>0.122474747474748</v>
+        <v>0.0900673400673401</v>
       </c>
       <c r="H177" s="0" t="n">
-        <v>0.154155188246097</v>
+        <v>0.145600025085671</v>
       </c>
       <c r="I177" s="0" t="n">
-        <v>0.188080109426436</v>
+        <v>0.164179427180632</v>
       </c>
       <c r="J177" s="0" t="n">
-        <v>0.221196173762596</v>
+        <v>0.188750053809578</v>
       </c>
       <c r="K177" s="0" t="n">
-        <v>0.228965683982756</v>
+        <v>0.202911722496852</v>
       </c>
       <c r="L177" s="0" t="n">
-        <v>0.228965683982756</v>
+        <v>0.202911722496852</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6908,25 +6908,25 @@
         <v>0.025</v>
       </c>
       <c r="F178" s="0" t="n">
-        <v>0.125</v>
+        <v>0.1</v>
       </c>
       <c r="G178" s="0" t="n">
-        <v>0.191875</v>
+        <v>0.179027777777778</v>
       </c>
       <c r="H178" s="0" t="n">
-        <v>0.230186688311688</v>
+        <v>0.243866721728564</v>
       </c>
       <c r="I178" s="0" t="n">
-        <v>0.275662583100371</v>
+        <v>0.274514077390761</v>
       </c>
       <c r="J178" s="0" t="n">
-        <v>0.316365259748771</v>
+        <v>0.300892416033251</v>
       </c>
       <c r="K178" s="0" t="n">
-        <v>0.326375668633159</v>
+        <v>0.324301661014965</v>
       </c>
       <c r="L178" s="0" t="n">
-        <v>0.326375668633159</v>
+        <v>0.324301661014965</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6946,25 +6946,25 @@
         <v>0.5</v>
       </c>
       <c r="F179" s="0" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="G179" s="0" t="n">
-        <v>0.75</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="H179" s="0" t="n">
-        <v>0.75</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="I179" s="0" t="n">
-        <v>0.75</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="J179" s="0" t="n">
-        <v>0.75</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="K179" s="0" t="n">
-        <v>0.75</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="L179" s="0" t="n">
-        <v>0.75</v>
+        <v>0.666666666666667</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6984,25 +6984,25 @@
         <v>0</v>
       </c>
       <c r="F180" s="0" t="n">
-        <v>0.110416666666667</v>
+        <v>0.169791666666667</v>
       </c>
       <c r="G180" s="0" t="n">
-        <v>0.282142857142857</v>
+        <v>0.299851190476191</v>
       </c>
       <c r="H180" s="0" t="n">
-        <v>0.518584595551507</v>
+        <v>0.566463744588745</v>
       </c>
       <c r="I180" s="0" t="n">
-        <v>0.560240250942628</v>
+        <v>0.610126636574807</v>
       </c>
       <c r="J180" s="0" t="n">
-        <v>0.560240250942628</v>
+        <v>0.610126636574807</v>
       </c>
       <c r="K180" s="0" t="n">
-        <v>0.560240250942628</v>
+        <v>0.614474462661764</v>
       </c>
       <c r="L180" s="0" t="n">
-        <v>0.561345223318319</v>
+        <v>0.614474462661764</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7028,19 +7028,19 @@
         <v>0.488271604938272</v>
       </c>
       <c r="H181" s="0" t="n">
-        <v>0.740305899619625</v>
+        <v>0.771959676126343</v>
       </c>
       <c r="I181" s="0" t="n">
-        <v>0.782442380709595</v>
+        <v>0.816126665415283</v>
       </c>
       <c r="J181" s="0" t="n">
-        <v>0.782442380709595</v>
+        <v>0.816126665415283</v>
       </c>
       <c r="K181" s="0" t="n">
-        <v>0.782442380709595</v>
+        <v>0.82047449150224</v>
       </c>
       <c r="L181" s="0" t="n">
-        <v>0.783547353085285</v>
+        <v>0.82047449150224</v>
       </c>
     </row>
   </sheetData>

--- a/all_BM25.xlsx
+++ b/all_BM25.xlsx
@@ -37,12 +37,6 @@
     <t xml:space="preserve">AP</t>
   </si>
   <si>
-    <t xml:space="preserve">pure50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pure100</t>
-  </si>
-  <si>
     <t xml:space="preserve">lem_orig</t>
   </si>
   <si>
@@ -53,6 +47,12 @@
   </si>
   <si>
     <t xml:space="preserve">stem_voc_split</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lem_voc_split</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lem_voc</t>
   </si>
 </sst>
 </file>
@@ -151,8 +151,8 @@
   </sheetPr>
   <dimension ref="A1:L181"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A33" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K59" activeCellId="0" sqref="K59"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A166" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A152" activeCellId="1" sqref="D152:D181 A152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -220,25 +220,25 @@
         <v>0.0263157894736842</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>0.1</v>
+        <v>0.0526315789473684</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>0.136340852130326</v>
+        <v>0.0605263157894737</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>0.244480969169335</v>
+        <v>0.118985853962971</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>0.300470586056577</v>
+        <v>0.153397036345832</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>0.331589886276445</v>
+        <v>0.201510145804018</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>0.354087868202131</v>
+        <v>0.221242939018103</v>
       </c>
       <c r="L2" s="0" t="n">
-        <v>0.356872401952512</v>
+        <v>0.227258303357559</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -261,22 +261,22 @@
         <v>0.0131578947368421</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>0.0307017543859649</v>
+        <v>0.108813700918964</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>0.0382205513784461</v>
+        <v>0.15477702552006</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>0.0612225607121251</v>
+        <v>0.163369936368609</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>0.0741555341714144</v>
+        <v>0.178422902723616</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>0.0894550763211093</v>
+        <v>0.194904983671433</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>0.0894550763211093</v>
+        <v>0.196480224590633</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -296,25 +296,25 @@
         <v>0.0175438596491228</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>0.087719298245614</v>
+        <v>0.0482456140350877</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>0.138401559454191</v>
+        <v>0.113311055416319</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>0.238997347169092</v>
+        <v>0.218946414358987</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>0.318232980344244</v>
+        <v>0.263582770749849</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>0.3618282320072</v>
+        <v>0.326155912037952</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>0.399697174491885</v>
+        <v>0.361606447237629</v>
       </c>
       <c r="L4" s="0" t="n">
-        <v>0.402346484611759</v>
+        <v>0.36921834538233</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -331,28 +331,28 @@
         <v>5</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>0.11</v>
+        <v>0.008</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>0.127777777777778</v>
+        <v>0.0213333333333333</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>0.158063492063492</v>
+        <v>0.0213333333333333</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>0.158063492063492</v>
+        <v>0.0257777777777778</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>0.177044739671605</v>
+        <v>0.0311870948288859</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>0.19387020271955</v>
+        <v>0.0386172844624697</v>
       </c>
       <c r="L5" s="0" t="n">
-        <v>0.196431740496537</v>
+        <v>0.0417328911607581</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -369,28 +369,28 @@
         <v>5</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>0</v>
+        <v>0.0294117647058823</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>0</v>
+        <v>0.0588235294117647</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>0.00367647058823529</v>
+        <v>0.0588235294117647</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>0.00661764705882353</v>
+        <v>0.0637254901960784</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>0.00966024340770791</v>
+        <v>0.0682503770739065</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>0.0161283085808475</v>
+        <v>0.0796854864839436</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>0.0196052378862763</v>
+        <v>0.0836744073231939</v>
       </c>
       <c r="L6" s="0" t="n">
-        <v>0.0209789985071025</v>
+        <v>0.0847204188859882</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -410,25 +410,25 @@
         <v>0.0169491525423729</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>0.0466101694915254</v>
+        <v>0.0440677966101695</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>0.0645009416195857</v>
+        <v>0.0553672316384181</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>0.0864541296744687</v>
+        <v>0.060075329566855</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>0.0917142114979637</v>
+        <v>0.0683808971944565</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>0.113651665013321</v>
+        <v>0.0843546794113494</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>0.129958226604393</v>
+        <v>0.0951853696523113</v>
       </c>
       <c r="L7" s="0" t="n">
-        <v>0.13369314991384</v>
+        <v>0.0989002868983551</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -445,28 +445,28 @@
         <v>5</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>0.05</v>
+        <v>0.275</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>0.05</v>
+        <v>0.341666666666667</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>0.216154507257448</v>
+        <v>0.399003623188406</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>0.216154507257448</v>
+        <v>0.48350097768576</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>0.216154507257448</v>
+        <v>0.48350097768576</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>0.228018421374847</v>
+        <v>0.489870404437353</v>
       </c>
       <c r="L8" s="0" t="n">
-        <v>0.228018421374847</v>
+        <v>0.489870404437353</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -486,25 +486,25 @@
         <v>0</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>0.00714285714285714</v>
+        <v>0.0261904761904762</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>0.0150793650793651</v>
+        <v>0.0369047619047619</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>0.0349969474969475</v>
+        <v>0.055952380952381</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>0.0391497714172133</v>
+        <v>0.0728233337738426</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>0.0541513889473422</v>
+        <v>0.101397745936704</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>0.0776025914782309</v>
+        <v>0.127853380553443</v>
       </c>
       <c r="L9" s="0" t="n">
-        <v>0.081688159825107</v>
+        <v>0.130550372471917</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -521,28 +521,28 @@
         <v>5</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>0</v>
+        <v>0.0263157894736842</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>0.0236842105263158</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>0.0324561403508772</v>
+        <v>0.176315789473684</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>0.136396130958824</v>
+        <v>0.231682875667429</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>0.143740072207294</v>
+        <v>0.296417745141454</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>0.165479533542068</v>
+        <v>0.335144481814525</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>0.201122078318033</v>
+        <v>0.369905815498866</v>
       </c>
       <c r="L10" s="0" t="n">
-        <v>0.20569622870078</v>
+        <v>0.372741902821734</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -559,28 +559,28 @@
         <v>5</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>0.0381313131313131</v>
+        <v>0.151284801678108</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>0.0859511008704557</v>
+        <v>0.180218326307472</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>0.126473236911881</v>
+        <v>0.180218326307472</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>0.135168889085794</v>
+        <v>0.212375684783527</v>
       </c>
       <c r="L11" s="0" t="n">
-        <v>0.135168889085794</v>
+        <v>0.212375684783527</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -600,25 +600,25 @@
         <v>0</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>0.0580808080808081</v>
+        <v>0.0272727272727273</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>0.0934343434343434</v>
+        <v>0.0786796536796537</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>0.111363636363636</v>
+        <v>0.111525595616505</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>0.138816639401009</v>
+        <v>0.133290849353273</v>
       </c>
       <c r="J12" s="0" t="n">
-        <v>0.154550474425309</v>
+        <v>0.146834000596959</v>
       </c>
       <c r="K12" s="0" t="n">
-        <v>0.183744119605302</v>
+        <v>0.162667656246008</v>
       </c>
       <c r="L12" s="0" t="n">
-        <v>0.184677144634712</v>
+        <v>0.16656889141483</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -635,28 +635,28 @@
         <v>5</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>0</v>
+        <v>0.0222222222222222</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>0.0425925925925926</v>
+        <v>0.0577777777777778</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>0.0685185185185185</v>
+        <v>0.120687830687831</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>0.124713804713805</v>
+        <v>0.190582651097525</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>0.189027082257193</v>
+        <v>0.23491264415934</v>
       </c>
       <c r="J13" s="0" t="n">
-        <v>0.233592221786254</v>
+        <v>0.250697440336293</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>0.274503488122754</v>
+        <v>0.290835586040226</v>
       </c>
       <c r="L13" s="0" t="n">
-        <v>0.275544689967169</v>
+        <v>0.295307633798955</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -676,25 +676,25 @@
         <v>0.1</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>0.149162210338681</v>
+        <v>0.15</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>0.149162210338681</v>
+        <v>0.156818181818182</v>
       </c>
       <c r="J14" s="0" t="n">
-        <v>0.161991157707102</v>
+        <v>0.164510489510489</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>0.161991157707102</v>
+        <v>0.170454900343844</v>
       </c>
       <c r="L14" s="0" t="n">
-        <v>0.161991157707102</v>
+        <v>0.170454900343844</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -714,25 +714,25 @@
         <v>0</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>0.0526315789473684</v>
+        <v>0.0175438596491228</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>0.0723684210526316</v>
+        <v>0.0711779448621554</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>0.108709273182957</v>
+        <v>0.0711779448621554</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>0.11588630667578</v>
+        <v>0.0796669092085052</v>
       </c>
       <c r="J15" s="0" t="n">
-        <v>0.11588630667578</v>
+        <v>0.0843801849351352</v>
       </c>
       <c r="K15" s="0" t="n">
-        <v>0.1219412441711</v>
+        <v>0.0876501791604973</v>
       </c>
       <c r="L15" s="0" t="n">
-        <v>0.122768784720587</v>
+        <v>0.0886841983932551</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -752,25 +752,25 @@
         <v>0.0344827586206897</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.0948275862068966</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.112068965517241</v>
+        <v>0.142884510125889</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>0.18764082435482</v>
+        <v>0.142884510125889</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>0.195477814950432</v>
+        <v>0.156940531968341</v>
       </c>
       <c r="J16" s="0" t="n">
-        <v>0.204779085367854</v>
+        <v>0.168055382120761</v>
       </c>
       <c r="K16" s="0" t="n">
-        <v>0.211777883627187</v>
+        <v>0.176252361760139</v>
       </c>
       <c r="L16" s="0" t="n">
-        <v>0.212645374410098</v>
+        <v>0.177404045250417</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -787,28 +787,28 @@
         <v>5</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>0.0714285714285714</v>
+        <v>0</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>0.185714285714286</v>
+        <v>0</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>0.284353741496599</v>
+        <v>0.0261904761904762</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>0.304761904761905</v>
+        <v>0.0404761904761905</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>0.356460206460206</v>
+        <v>0.059608843537415</v>
       </c>
       <c r="J17" s="0" t="n">
-        <v>0.369937295408993</v>
+        <v>0.104954363390729</v>
       </c>
       <c r="K17" s="0" t="n">
-        <v>0.377774207951788</v>
+        <v>0.111600983733935</v>
       </c>
       <c r="L17" s="0" t="n">
-        <v>0.377774207951788</v>
+        <v>0.111600983733935</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -828,25 +828,25 @@
         <v>0</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>0</v>
+        <v>0.0686274509803921</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>0</v>
+        <v>0.0686274509803921</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>0.0323271413828689</v>
+        <v>0.0779153766769866</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>0.0432203875702328</v>
+        <v>0.0866299736268777</v>
       </c>
       <c r="J18" s="0" t="n">
-        <v>0.0432203875702328</v>
+        <v>0.0951333749874219</v>
       </c>
       <c r="K18" s="0" t="n">
-        <v>0.0500299485339592</v>
+        <v>0.104096123228241</v>
       </c>
       <c r="L18" s="0" t="n">
-        <v>0.0500299485339592</v>
+        <v>0.105810746777342</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -863,28 +863,28 @@
         <v>5</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>0.032258064516129</v>
+        <v>0</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>0.0838709677419355</v>
+        <v>0.0376344086021505</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>0.128417818740399</v>
+        <v>0.0666666666666667</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>0.198893402861994</v>
+        <v>0.0876061120543294</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>0.250246731433064</v>
+        <v>0.112443968343799</v>
       </c>
       <c r="J19" s="0" t="n">
-        <v>0.259376372333855</v>
+        <v>0.156523100089375</v>
       </c>
       <c r="K19" s="0" t="n">
-        <v>0.274512930547987</v>
+        <v>0.173022730517764</v>
       </c>
       <c r="L19" s="0" t="n">
-        <v>0.274512930547987</v>
+        <v>0.175033645158793</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -901,28 +901,28 @@
         <v>5</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>0.25</v>
+        <v>0.037719298245614</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>0.273076923076923</v>
+        <v>0.0559011164274322</v>
       </c>
       <c r="J20" s="0" t="n">
-        <v>0.273076923076923</v>
+        <v>0.0559011164274322</v>
       </c>
       <c r="K20" s="0" t="n">
-        <v>0.283876580230664</v>
+        <v>0.0717875745157252</v>
       </c>
       <c r="L20" s="0" t="n">
-        <v>0.283876580230664</v>
+        <v>0.0717875745157252</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -939,28 +939,28 @@
         <v>5</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>0.0958333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>0.129166666666667</v>
+        <v>0.358055555555555</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>0.157833333333333</v>
+        <v>0.518496156621157</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>0.157833333333333</v>
+        <v>0.613054777742278</v>
       </c>
       <c r="J21" s="0" t="n">
-        <v>0.157833333333333</v>
+        <v>0.64632758192866</v>
       </c>
       <c r="K21" s="0" t="n">
-        <v>0.16286302997076</v>
+        <v>0.64632758192866</v>
       </c>
       <c r="L21" s="0" t="n">
-        <v>0.164383348511692</v>
+        <v>0.64632758192866</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -983,22 +983,22 @@
         <v>0.16</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>0.223333333333333</v>
+        <v>0.286444444444444</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>0.2548</v>
+        <v>0.487854823539034</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>0.268646153846154</v>
+        <v>0.597359441793652</v>
       </c>
       <c r="J22" s="0" t="n">
-        <v>0.268646153846154</v>
+        <v>0.628205680003786</v>
       </c>
       <c r="K22" s="0" t="n">
-        <v>0.280332406925746</v>
+        <v>0.645560028000336</v>
       </c>
       <c r="L22" s="0" t="n">
-        <v>0.282129011397086</v>
+        <v>0.645560028000336</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1015,28 +1015,28 @@
         <v>5</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="J23" s="0" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="K23" s="0" t="n">
-        <v>0.00135644963472511</v>
+        <v>0.128209728867624</v>
       </c>
       <c r="L23" s="0" t="n">
-        <v>0.00135644963472511</v>
+        <v>0.128814323789026</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1056,25 +1056,25 @@
         <v>0</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>0</v>
+        <v>0.0646825396825397</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>0</v>
+        <v>0.118065003779289</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>0.00198412698412698</v>
+        <v>0.17385030035406</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>0.00198412698412698</v>
+        <v>0.183702517102828</v>
       </c>
       <c r="J24" s="0" t="n">
-        <v>0.00198412698412698</v>
+        <v>0.197954874334637</v>
       </c>
       <c r="K24" s="0" t="n">
-        <v>0.00198412698412698</v>
+        <v>0.197954874334637</v>
       </c>
       <c r="L24" s="0" t="n">
-        <v>0.00198412698412698</v>
+        <v>0.198410014574724</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1091,28 +1091,28 @@
         <v>5</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>0</v>
+        <v>0.152420634920635</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>0.00166666666666667</v>
+        <v>0.204332915622389</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>0.00166666666666667</v>
+        <v>0.213298432863769</v>
       </c>
       <c r="J25" s="0" t="n">
-        <v>0.00166666666666667</v>
+        <v>0.226135294632137</v>
       </c>
       <c r="K25" s="0" t="n">
-        <v>0.0020298085639631</v>
+        <v>0.22974295013453</v>
       </c>
       <c r="L25" s="0" t="n">
-        <v>0.0020298085639631</v>
+        <v>0.230680339526886</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1129,28 +1129,28 @@
         <v>5</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>0</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>0</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>0</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>0</v>
+        <v>0.157894736842105</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>0</v>
+        <v>0.196281520126848</v>
       </c>
       <c r="J26" s="0" t="n">
-        <v>0</v>
+        <v>0.196281520126848</v>
       </c>
       <c r="K26" s="0" t="n">
-        <v>0.000580720092915215</v>
+        <v>0.199101068999028</v>
       </c>
       <c r="L26" s="0" t="n">
-        <v>0.000903561093722318</v>
+        <v>0.199101068999028</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1167,28 +1167,28 @@
         <v>5</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>0.0303030303030303</v>
+        <v>0</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>0.121212121212121</v>
+        <v>0.0484848484848485</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>0.121212121212121</v>
+        <v>0.0804713804713805</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>0.127799736495389</v>
+        <v>0.0804713804713805</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>0.131436100131752</v>
+        <v>0.0978512063986372</v>
       </c>
       <c r="J27" s="0" t="n">
-        <v>0.142394605158602</v>
+        <v>0.115975158948819</v>
       </c>
       <c r="K27" s="0" t="n">
-        <v>0.148863336037567</v>
+        <v>0.132234896536949</v>
       </c>
       <c r="L27" s="0" t="n">
-        <v>0.151501617184795</v>
+        <v>0.133910361200683</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1208,25 +1208,25 @@
         <v>0.025</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>0.1</v>
+        <v>0.08875</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>0.1</v>
+        <v>0.121041666666667</v>
       </c>
       <c r="H28" s="0" t="n">
-        <v>0.105434782608696</v>
+        <v>0.130252192982456</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>0.108434782608696</v>
+        <v>0.169125733175872</v>
       </c>
       <c r="J28" s="0" t="n">
-        <v>0.117475549255847</v>
+        <v>0.191276192006659</v>
       </c>
       <c r="K28" s="0" t="n">
-        <v>0.124133390442375</v>
+        <v>0.211151663328536</v>
       </c>
       <c r="L28" s="0" t="n">
-        <v>0.126970784901856</v>
+        <v>0.212961036991336</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1246,25 +1246,25 @@
         <v>0.5</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>0.642857142857143</v>
+        <v>0.7</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>0.642857142857143</v>
+        <v>0.7</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>0.642857142857143</v>
+        <v>0.7</v>
       </c>
       <c r="J29" s="0" t="n">
-        <v>0.642857142857143</v>
+        <v>0.7</v>
       </c>
       <c r="K29" s="0" t="n">
-        <v>0.642857142857143</v>
+        <v>0.7</v>
       </c>
       <c r="L29" s="0" t="n">
-        <v>0.642857142857143</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1284,25 +1284,25 @@
         <v>0</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>0.169791666666667</v>
+        <v>0.119791666666667</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>0.317361111111111</v>
+        <v>0.351587301587302</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>0.537691822066822</v>
+        <v>0.588598207348207</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>0.615322390423197</v>
+        <v>0.588598207348207</v>
       </c>
       <c r="J30" s="0" t="n">
-        <v>0.615322390423197</v>
+        <v>0.640450582913818</v>
       </c>
       <c r="K30" s="0" t="n">
-        <v>0.615322390423197</v>
+        <v>0.640450582913818</v>
       </c>
       <c r="L30" s="0" t="n">
-        <v>0.615322390423197</v>
+        <v>0.640450582913818</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1325,22 +1325,22 @@
         <v>0.277777777777778</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>0.5</v>
+        <v>0.555555555555556</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>0.736214711214711</v>
+        <v>0.805514855514855</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>0.815153096604709</v>
+        <v>0.805514855514855</v>
       </c>
       <c r="J31" s="0" t="n">
-        <v>0.815153096604709</v>
+        <v>0.857773109243697</v>
       </c>
       <c r="K31" s="0" t="n">
-        <v>0.815153096604709</v>
+        <v>0.857773109243697</v>
       </c>
       <c r="L31" s="0" t="n">
-        <v>0.815153096604709</v>
+        <v>0.857773109243697</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1360,25 +1360,25 @@
         <v>0.0263157894736842</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>0.1</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>0.136340852130326</v>
+        <v>0.204312865497076</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>0.245100725080853</v>
+        <v>0.24078861369109</v>
       </c>
       <c r="I32" s="0" t="n">
-        <v>0.301090341968094</v>
+        <v>0.300823192437017</v>
       </c>
       <c r="J32" s="0" t="n">
-        <v>0.331839109311289</v>
+        <v>0.330219241170353</v>
       </c>
       <c r="K32" s="0" t="n">
-        <v>0.354257423356105</v>
+        <v>0.358144299211103</v>
       </c>
       <c r="L32" s="0" t="n">
-        <v>0.357003192746135</v>
+        <v>0.362712940806316</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1398,25 +1398,25 @@
         <v>0</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>0.0131578947368421</v>
+        <v>0</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>0.0307017543859649</v>
+        <v>0.0180451127819549</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>0.0382205513784461</v>
+        <v>0.0741598313966735</v>
       </c>
       <c r="I33" s="0" t="n">
-        <v>0.0617603035366193</v>
+        <v>0.101387398522373</v>
       </c>
       <c r="J33" s="0" t="n">
-        <v>0.0746131680477391</v>
+        <v>0.129880774998706</v>
       </c>
       <c r="K33" s="0" t="n">
-        <v>0.0897379906517296</v>
+        <v>0.139669494964417</v>
       </c>
       <c r="L33" s="0" t="n">
-        <v>0.0897379906517296</v>
+        <v>0.140572072952797</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1439,22 +1439,22 @@
         <v>0.087719298245614</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>0.138401559454191</v>
+        <v>0.175438596491228</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>0.239505864840081</v>
+        <v>0.267547869227436</v>
       </c>
       <c r="I34" s="0" t="n">
-        <v>0.319503300349933</v>
+        <v>0.35246906971069</v>
       </c>
       <c r="J34" s="0" t="n">
-        <v>0.362668567002978</v>
+        <v>0.408725722790584</v>
       </c>
       <c r="K34" s="0" t="n">
-        <v>0.400276298984656</v>
+        <v>0.44625792913088</v>
       </c>
       <c r="L34" s="0" t="n">
-        <v>0.402888704314921</v>
+        <v>0.451713999282267</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1474,25 +1474,25 @@
         <v>0.04</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>0.11</v>
+        <v>0.0966666666666667</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>0.127777777777778</v>
+        <v>0.175904761904762</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>0.16030525030525</v>
+        <v>0.228971428571429</v>
       </c>
       <c r="I35" s="0" t="n">
-        <v>0.16030525030525</v>
+        <v>0.265207987711213</v>
       </c>
       <c r="J35" s="0" t="n">
-        <v>0.179027846753505</v>
+        <v>0.325069906516461</v>
       </c>
       <c r="K35" s="0" t="n">
-        <v>0.193175195731609</v>
+        <v>0.35625650855551</v>
       </c>
       <c r="L35" s="0" t="n">
-        <v>0.194309053999326</v>
+        <v>0.35625650855551</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1515,22 +1515,22 @@
         <v>0</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>0.00367647058823529</v>
+        <v>0.00326797385620915</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>0.00677244582043344</v>
+        <v>0.0118464052287582</v>
       </c>
       <c r="I36" s="0" t="n">
-        <v>0.00981504216931782</v>
+        <v>0.031063093882787</v>
       </c>
       <c r="J36" s="0" t="n">
-        <v>0.0162331868227566</v>
+        <v>0.0517297691178123</v>
       </c>
       <c r="K36" s="0" t="n">
-        <v>0.0196583727067041</v>
+        <v>0.0808152308728481</v>
       </c>
       <c r="L36" s="0" t="n">
-        <v>0.0206731765339942</v>
+        <v>0.0820239335319939</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1550,25 +1550,25 @@
         <v>0.0169491525423729</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>0.0466101694915254</v>
+        <v>0.0409604519774011</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>0.0645009416195857</v>
+        <v>0.0875302663438257</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>0.0879346889605587</v>
+        <v>0.135496368038741</v>
       </c>
       <c r="I37" s="0" t="n">
-        <v>0.0931947707840538</v>
+        <v>0.190307132644297</v>
       </c>
       <c r="J37" s="0" t="n">
-        <v>0.114890882269676</v>
+        <v>0.261009018128681</v>
       </c>
       <c r="K37" s="0" t="n">
-        <v>0.129378849352117</v>
+        <v>0.321820765127655</v>
       </c>
       <c r="L37" s="0" t="n">
-        <v>0.131629700487833</v>
+        <v>0.323242868680012</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1585,28 +1585,28 @@
         <v>6</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>0.05</v>
+        <v>0.275</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>0.05</v>
+        <v>0.275</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>0.211675407925408</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="I38" s="0" t="n">
-        <v>0.211675407925408</v>
+        <v>0.372222222222222</v>
       </c>
       <c r="J38" s="0" t="n">
-        <v>0.211675407925408</v>
+        <v>0.372222222222222</v>
       </c>
       <c r="K38" s="0" t="n">
-        <v>0.223430710089119</v>
+        <v>0.375762045231072</v>
       </c>
       <c r="L38" s="0" t="n">
-        <v>0.223430710089119</v>
+        <v>0.378803905504932</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1626,25 +1626,25 @@
         <v>0</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>0.00714285714285714</v>
+        <v>0.0119047619047619</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>0.0150793650793651</v>
+        <v>0.051374716553288</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>0.0342120181405896</v>
+        <v>0.10579377978915</v>
       </c>
       <c r="I39" s="0" t="n">
-        <v>0.0383648420608554</v>
+        <v>0.133595581500876</v>
       </c>
       <c r="J39" s="0" t="n">
-        <v>0.0536945985306523</v>
+        <v>0.133595581500876</v>
       </c>
       <c r="K39" s="0" t="n">
-        <v>0.0774792552444161</v>
+        <v>0.168522301662735</v>
       </c>
       <c r="L39" s="0" t="n">
-        <v>0.0815448065614353</v>
+        <v>0.170725571918022</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1661,28 +1661,28 @@
         <v>6</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>0</v>
+        <v>0.0263157894736842</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>0.0236842105263158</v>
+        <v>0.105263157894737</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>0.0324561403508772</v>
+        <v>0.164264828738513</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>0.133813080194659</v>
+        <v>0.264519375609981</v>
       </c>
       <c r="I40" s="0" t="n">
-        <v>0.141157021443129</v>
+        <v>0.322310475037971</v>
       </c>
       <c r="J40" s="0" t="n">
-        <v>0.163357491006698</v>
+        <v>0.322310475037971</v>
       </c>
       <c r="K40" s="0" t="n">
-        <v>0.199309964305454</v>
+        <v>0.363003455439188</v>
       </c>
       <c r="L40" s="0" t="n">
-        <v>0.203859164745522</v>
+        <v>0.367978989121783</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1702,25 +1702,25 @@
         <v>0</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>0</v>
+        <v>0.0694444444444444</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>0</v>
+        <v>0.0694444444444444</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>0.0370629370629371</v>
+        <v>0.107193732193732</v>
       </c>
       <c r="I41" s="0" t="n">
-        <v>0.0855494634564402</v>
+        <v>0.130631232193732</v>
       </c>
       <c r="J41" s="0" t="n">
-        <v>0.125363451240604</v>
+        <v>0.130631232193732</v>
       </c>
       <c r="K41" s="0" t="n">
-        <v>0.133766812585142</v>
+        <v>0.163748905977501</v>
       </c>
       <c r="L41" s="0" t="n">
-        <v>0.133766812585142</v>
+        <v>0.163748905977501</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1737,28 +1737,28 @@
         <v>6</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>0</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>0.0580808080808081</v>
+        <v>0.0606060606060606</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>0.0934343434343434</v>
+        <v>0.102212602212602</v>
       </c>
       <c r="H42" s="0" t="n">
-        <v>0.113352191996693</v>
+        <v>0.153565416065416</v>
       </c>
       <c r="I42" s="0" t="n">
-        <v>0.140877111814103</v>
+        <v>0.176283013495657</v>
       </c>
       <c r="J42" s="0" t="n">
-        <v>0.16179154386946</v>
+        <v>0.200562375813297</v>
       </c>
       <c r="K42" s="0" t="n">
-        <v>0.186668996367855</v>
+        <v>0.202815817804321</v>
       </c>
       <c r="L42" s="0" t="n">
-        <v>0.187607044412229</v>
+        <v>0.208936029599326</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1775,28 +1775,28 @@
         <v>6</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>0</v>
+        <v>0.0222222222222222</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>0.0425925925925926</v>
+        <v>0.0888888888888889</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>0.0685185185185185</v>
+        <v>0.135132275132275</v>
       </c>
       <c r="H43" s="0" t="n">
-        <v>0.12588393608854</v>
+        <v>0.217652285985619</v>
       </c>
       <c r="I43" s="0" t="n">
-        <v>0.190697727946484</v>
+        <v>0.25965065408552</v>
       </c>
       <c r="J43" s="0" t="n">
-        <v>0.241383781796318</v>
+        <v>0.285453486730458</v>
       </c>
       <c r="K43" s="0" t="n">
-        <v>0.276614474418711</v>
+        <v>0.311779228886375</v>
       </c>
       <c r="L43" s="0" t="n">
-        <v>0.277661281656636</v>
+        <v>0.318873865759793</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1813,28 +1813,28 @@
         <v>6</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G44" s="0" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H44" s="0" t="n">
-        <v>0.149162210338681</v>
+        <v>0.00909090909090909</v>
       </c>
       <c r="I44" s="0" t="n">
-        <v>0.149162210338681</v>
+        <v>0.0222903352028173</v>
       </c>
       <c r="J44" s="0" t="n">
-        <v>0.162211855728752</v>
+        <v>0.0274185403310224</v>
       </c>
       <c r="K44" s="0" t="n">
-        <v>0.162211855728752</v>
+        <v>0.0309150438275259</v>
       </c>
       <c r="L44" s="0" t="n">
-        <v>0.162211855728752</v>
+        <v>0.0326153801279498</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1851,28 +1851,28 @@
         <v>6</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>0</v>
+        <v>0.0526315789473684</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>0.0526315789473684</v>
+        <v>0.157894736842105</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>0.0723684210526316</v>
+        <v>0.157894736842105</v>
       </c>
       <c r="H45" s="0" t="n">
-        <v>0.108709273182957</v>
+        <v>0.167048054919908</v>
       </c>
       <c r="I45" s="0" t="n">
-        <v>0.116228070175439</v>
+        <v>0.182055167295442</v>
       </c>
       <c r="J45" s="0" t="n">
-        <v>0.116228070175439</v>
+        <v>0.187473123951789</v>
       </c>
       <c r="K45" s="0" t="n">
-        <v>0.122272452745771</v>
+        <v>0.190225101935965</v>
       </c>
       <c r="L45" s="0" t="n">
-        <v>0.123099993295258</v>
+        <v>0.190225101935965</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1892,25 +1892,25 @@
         <v>0.0344827586206897</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>0.0948275862068966</v>
+        <v>0.103448275862069</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>0.112068965517241</v>
+        <v>0.103448275862069</v>
       </c>
       <c r="H46" s="0" t="n">
-        <v>0.18764082435482</v>
+        <v>0.12348371268911</v>
       </c>
       <c r="I46" s="0" t="n">
-        <v>0.195851004978794</v>
+        <v>0.150558608294159</v>
       </c>
       <c r="J46" s="0" t="n">
-        <v>0.205310530535165</v>
+        <v>0.160492555347782</v>
       </c>
       <c r="K46" s="0" t="n">
-        <v>0.21229222699143</v>
+        <v>0.166316121009076</v>
       </c>
       <c r="L46" s="0" t="n">
-        <v>0.213159717774341</v>
+        <v>0.167634981765207</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1930,25 +1930,25 @@
         <v>0.0714285714285714</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>0.185714285714286</v>
+        <v>0.0714285714285714</v>
       </c>
       <c r="G47" s="0" t="n">
-        <v>0.27797619047619</v>
+        <v>0.115646258503401</v>
       </c>
       <c r="H47" s="0" t="n">
-        <v>0.298384353741497</v>
+        <v>0.226952319389294</v>
       </c>
       <c r="I47" s="0" t="n">
-        <v>0.3485520431949</v>
+        <v>0.25596506865376</v>
       </c>
       <c r="J47" s="0" t="n">
-        <v>0.362029132143687</v>
+        <v>0.25596506865376</v>
       </c>
       <c r="K47" s="0" t="n">
-        <v>0.369894924973681</v>
+        <v>0.274554886678303</v>
       </c>
       <c r="L47" s="0" t="n">
-        <v>0.369894924973681</v>
+        <v>0.274554886678303</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1968,25 +1968,25 @@
         <v>0</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>0</v>
+        <v>0.0686274509803921</v>
       </c>
       <c r="G48" s="0" t="n">
-        <v>0</v>
+        <v>0.0686274509803921</v>
       </c>
       <c r="H48" s="0" t="n">
-        <v>0.0334623323013416</v>
+        <v>0.0857118499573742</v>
       </c>
       <c r="I48" s="0" t="n">
-        <v>0.0443555784887054</v>
+        <v>0.0938817845978971</v>
       </c>
       <c r="J48" s="0" t="n">
-        <v>0.0443555784887054</v>
+        <v>0.106537756077398</v>
       </c>
       <c r="K48" s="0" t="n">
-        <v>0.0510332058399545</v>
+        <v>0.111621813033306</v>
       </c>
       <c r="L48" s="0" t="n">
-        <v>0.0510332058399545</v>
+        <v>0.114285569391729</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2006,25 +2006,25 @@
         <v>0.032258064516129</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>0.0838709677419355</v>
+        <v>0.0967741935483871</v>
       </c>
       <c r="G49" s="0" t="n">
-        <v>0.125537634408602</v>
+        <v>0.133128520225294</v>
       </c>
       <c r="H49" s="0" t="n">
-        <v>0.197531799929932</v>
+        <v>0.23035705194438</v>
       </c>
       <c r="I49" s="0" t="n">
-        <v>0.247761856611602</v>
+        <v>0.261963065575934</v>
       </c>
       <c r="J49" s="0" t="n">
-        <v>0.256891497512393</v>
+        <v>0.278580856387273</v>
       </c>
       <c r="K49" s="0" t="n">
-        <v>0.271852661726433</v>
+        <v>0.299122635339249</v>
       </c>
       <c r="L49" s="0" t="n">
-        <v>0.271852661726433</v>
+        <v>0.302182503245929</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2044,25 +2044,25 @@
         <v>0.2</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="G50" s="0" t="n">
-        <v>0.25</v>
+        <v>0.385714285714286</v>
       </c>
       <c r="H50" s="0" t="n">
-        <v>0.25</v>
+        <v>0.385714285714286</v>
       </c>
       <c r="I50" s="0" t="n">
-        <v>0.272222222222222</v>
+        <v>0.385714285714286</v>
       </c>
       <c r="J50" s="0" t="n">
-        <v>0.272222222222222</v>
+        <v>0.385714285714286</v>
       </c>
       <c r="K50" s="0" t="n">
-        <v>0.282986329297753</v>
+        <v>0.394007389839251</v>
       </c>
       <c r="L50" s="0" t="n">
-        <v>0.282986329297753</v>
+        <v>0.394007389839251</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2082,25 +2082,25 @@
         <v>0</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>0.0958333333333333</v>
+        <v>0.0883333333333333</v>
       </c>
       <c r="G51" s="0" t="n">
-        <v>0.129166666666667</v>
+        <v>0.135555555555556</v>
       </c>
       <c r="H51" s="0" t="n">
-        <v>0.158333333333333</v>
+        <v>0.158632478632479</v>
       </c>
       <c r="I51" s="0" t="n">
-        <v>0.158333333333333</v>
+        <v>0.174087410605268</v>
       </c>
       <c r="J51" s="0" t="n">
-        <v>0.158333333333333</v>
+        <v>0.174087410605268</v>
       </c>
       <c r="K51" s="0" t="n">
-        <v>0.163238091575655</v>
+        <v>0.177582497982452</v>
       </c>
       <c r="L51" s="0" t="n">
-        <v>0.164735264702533</v>
+        <v>0.178628125358878</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2120,25 +2120,25 @@
         <v>0.04</v>
       </c>
       <c r="F52" s="0" t="n">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="G52" s="0" t="n">
-        <v>0.223333333333333</v>
+        <v>0.297396825396825</v>
       </c>
       <c r="H52" s="0" t="n">
-        <v>0.255333333333333</v>
+        <v>0.325089133089133</v>
       </c>
       <c r="I52" s="0" t="n">
-        <v>0.268666666666667</v>
+        <v>0.342402058259201</v>
       </c>
       <c r="J52" s="0" t="n">
-        <v>0.268666666666667</v>
+        <v>0.342402058259201</v>
       </c>
       <c r="K52" s="0" t="n">
-        <v>0.280179324628479</v>
+        <v>0.351355564034912</v>
       </c>
       <c r="L52" s="0" t="n">
-        <v>0.281948346173837</v>
+        <v>0.352572294072935</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2164,19 +2164,19 @@
         <v>0</v>
       </c>
       <c r="H53" s="0" t="n">
-        <v>0</v>
+        <v>0.0152083333333333</v>
       </c>
       <c r="I53" s="0" t="n">
-        <v>0</v>
+        <v>0.0152083333333333</v>
       </c>
       <c r="J53" s="0" t="n">
-        <v>0</v>
+        <v>0.0152083333333333</v>
       </c>
       <c r="K53" s="0" t="n">
-        <v>0.00134981013659617</v>
+        <v>0.0189156164630689</v>
       </c>
       <c r="L53" s="0" t="n">
-        <v>0.00134981013659617</v>
+        <v>0.0189156164630689</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2193,28 +2193,28 @@
         <v>6</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>0</v>
+        <v>0.0238095238095238</v>
       </c>
       <c r="F54" s="0" t="n">
-        <v>0</v>
+        <v>0.0238095238095238</v>
       </c>
       <c r="G54" s="0" t="n">
-        <v>0</v>
+        <v>0.0238095238095238</v>
       </c>
       <c r="H54" s="0" t="n">
-        <v>0.00198412698412698</v>
+        <v>0.0274725274725275</v>
       </c>
       <c r="I54" s="0" t="n">
-        <v>0.00198412698412698</v>
+        <v>0.0295133437990581</v>
       </c>
       <c r="J54" s="0" t="n">
-        <v>0.00198412698412698</v>
+        <v>0.0306337919783298</v>
       </c>
       <c r="K54" s="0" t="n">
-        <v>0.00198412698412698</v>
+        <v>0.0342900194486208</v>
       </c>
       <c r="L54" s="0" t="n">
-        <v>0.00198412698412698</v>
+        <v>0.035661593066475</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2231,28 +2231,28 @@
         <v>6</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F55" s="0" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="G55" s="0" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="H55" s="0" t="n">
-        <v>0.00166666666666667</v>
+        <v>0.0287769230769231</v>
       </c>
       <c r="I55" s="0" t="n">
-        <v>0.00166666666666667</v>
+        <v>0.0316340659340659</v>
       </c>
       <c r="J55" s="0" t="n">
-        <v>0.00166666666666667</v>
+        <v>0.0330458306399483</v>
       </c>
       <c r="K55" s="0" t="n">
-        <v>0.00202793453228557</v>
+        <v>0.0390776413039935</v>
       </c>
       <c r="L55" s="0" t="n">
-        <v>0.00202793453228557</v>
+        <v>0.0406362761026308</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2272,25 +2272,25 @@
         <v>0</v>
       </c>
       <c r="F56" s="0" t="n">
-        <v>0</v>
+        <v>0.0714285714285714</v>
       </c>
       <c r="G56" s="0" t="n">
-        <v>0</v>
+        <v>0.159863945578231</v>
       </c>
       <c r="H56" s="0" t="n">
-        <v>0</v>
+        <v>0.159863945578231</v>
       </c>
       <c r="I56" s="0" t="n">
-        <v>0</v>
+        <v>0.159863945578231</v>
       </c>
       <c r="J56" s="0" t="n">
-        <v>0</v>
+        <v>0.179477665191951</v>
       </c>
       <c r="K56" s="0" t="n">
-        <v>0.000618429189857761</v>
+        <v>0.181794267508553</v>
       </c>
       <c r="L56" s="0" t="n">
-        <v>0.000941635395416908</v>
+        <v>0.181794267508553</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2310,25 +2310,25 @@
         <v>0.0303030303030303</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>0.121212121212121</v>
+        <v>0.0974747474747475</v>
       </c>
       <c r="G57" s="0" t="n">
-        <v>0.121212121212121</v>
+        <v>0.122727272727273</v>
       </c>
       <c r="H57" s="0" t="n">
-        <v>0.127799736495389</v>
+        <v>0.139830119375574</v>
       </c>
       <c r="I57" s="0" t="n">
-        <v>0.131510311634535</v>
+        <v>0.17136685099197</v>
       </c>
       <c r="J57" s="0" t="n">
-        <v>0.142499757918099</v>
+        <v>0.19836103962235</v>
       </c>
       <c r="K57" s="0" t="n">
-        <v>0.148767175386014</v>
+        <v>0.214033285194575</v>
       </c>
       <c r="L57" s="0" t="n">
-        <v>0.151442687976846</v>
+        <v>0.214033285194575</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2348,25 +2348,25 @@
         <v>0.025</v>
       </c>
       <c r="F58" s="0" t="n">
-        <v>0.1</v>
+        <v>0.125</v>
       </c>
       <c r="G58" s="0" t="n">
-        <v>0.1</v>
+        <v>0.197222222222222</v>
       </c>
       <c r="H58" s="0" t="n">
-        <v>0.105434782608696</v>
+        <v>0.217866161616162</v>
       </c>
       <c r="I58" s="0" t="n">
-        <v>0.108496007098492</v>
+        <v>0.252309091079313</v>
       </c>
       <c r="J58" s="0" t="n">
-        <v>0.117562300282432</v>
+        <v>0.294320558187448</v>
       </c>
       <c r="K58" s="0" t="n">
-        <v>0.124139846100388</v>
+        <v>0.312705850567419</v>
       </c>
       <c r="L58" s="0" t="n">
-        <v>0.127010656141706</v>
+        <v>0.312705850567419</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2430,19 +2430,19 @@
         <v>0.317361111111111</v>
       </c>
       <c r="H60" s="0" t="n">
-        <v>0.537691822066822</v>
+        <v>0.581041389166389</v>
       </c>
       <c r="I60" s="0" t="n">
-        <v>0.615322390423197</v>
+        <v>0.625782242824926</v>
       </c>
       <c r="J60" s="0" t="n">
-        <v>0.615322390423197</v>
+        <v>0.625782242824926</v>
       </c>
       <c r="K60" s="0" t="n">
-        <v>0.615322390423197</v>
+        <v>0.625782242824926</v>
       </c>
       <c r="L60" s="0" t="n">
-        <v>0.615322390423197</v>
+        <v>0.627564774019222</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2468,19 +2468,19 @@
         <v>0.5</v>
       </c>
       <c r="H61" s="0" t="n">
-        <v>0.736214711214711</v>
+        <v>0.780843539176872</v>
       </c>
       <c r="I61" s="0" t="n">
-        <v>0.815153096604709</v>
+        <v>0.826100991751398</v>
       </c>
       <c r="J61" s="0" t="n">
-        <v>0.815153096604709</v>
+        <v>0.826100991751398</v>
       </c>
       <c r="K61" s="0" t="n">
-        <v>0.815153096604709</v>
+        <v>0.826100991751398</v>
       </c>
       <c r="L61" s="0" t="n">
-        <v>0.815153096604709</v>
+        <v>0.827883522945694</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2497,28 +2497,28 @@
         <v>7</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>0.0263157894736842</v>
+        <v>0</v>
       </c>
       <c r="F62" s="0" t="n">
+        <v>0.0421052631578947</v>
+      </c>
+      <c r="G62" s="0" t="n">
         <v>0.0526315789473684</v>
       </c>
-      <c r="G62" s="0" t="n">
-        <v>0.0605263157894737</v>
-      </c>
       <c r="H62" s="0" t="n">
-        <v>0.118985853962971</v>
+        <v>0.08170667052246</v>
       </c>
       <c r="I62" s="0" t="n">
-        <v>0.153397036345832</v>
+        <v>0.101302712205921</v>
       </c>
       <c r="J62" s="0" t="n">
-        <v>0.201510145804018</v>
+        <v>0.128048919496602</v>
       </c>
       <c r="K62" s="0" t="n">
-        <v>0.221242939018103</v>
+        <v>0.160248843799198</v>
       </c>
       <c r="L62" s="0" t="n">
-        <v>0.227258303357559</v>
+        <v>0.162684392222183</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2535,28 +2535,28 @@
         <v>7</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>0</v>
+        <v>0.0526315789473684</v>
       </c>
       <c r="F63" s="0" t="n">
-        <v>0.0131578947368421</v>
+        <v>0.0526315789473684</v>
       </c>
       <c r="G63" s="0" t="n">
-        <v>0.108813700918964</v>
+        <v>0.0676691729323308</v>
       </c>
       <c r="H63" s="0" t="n">
-        <v>0.15477702552006</v>
+        <v>0.0764411027568922</v>
       </c>
       <c r="I63" s="0" t="n">
-        <v>0.163369936368609</v>
+        <v>0.0764411027568922</v>
       </c>
       <c r="J63" s="0" t="n">
-        <v>0.178422902723616</v>
+        <v>0.088276273031264</v>
       </c>
       <c r="K63" s="0" t="n">
-        <v>0.194904983671433</v>
+        <v>0.0992877917069703</v>
       </c>
       <c r="L63" s="0" t="n">
-        <v>0.196480224590633</v>
+        <v>0.100446652160857</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2576,25 +2576,25 @@
         <v>0.0175438596491228</v>
       </c>
       <c r="F64" s="0" t="n">
-        <v>0.0482456140350877</v>
+        <v>0.062280701754386</v>
       </c>
       <c r="G64" s="0" t="n">
-        <v>0.113311055416319</v>
+        <v>0.0853383458646616</v>
       </c>
       <c r="H64" s="0" t="n">
-        <v>0.218946414358987</v>
+        <v>0.120891973523552</v>
       </c>
       <c r="I64" s="0" t="n">
-        <v>0.263582770749849</v>
+        <v>0.138392984817362</v>
       </c>
       <c r="J64" s="0" t="n">
-        <v>0.326155912037952</v>
+        <v>0.17617534956463</v>
       </c>
       <c r="K64" s="0" t="n">
-        <v>0.361606447237629</v>
+        <v>0.218243509063759</v>
       </c>
       <c r="L64" s="0" t="n">
-        <v>0.36921834538233</v>
+        <v>0.221815520452381</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2611,28 +2611,28 @@
         <v>7</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F65" s="0" t="n">
-        <v>0.008</v>
+        <v>0.0906666666666667</v>
       </c>
       <c r="G65" s="0" t="n">
-        <v>0.0213333333333333</v>
+        <v>0.135746031746032</v>
       </c>
       <c r="H65" s="0" t="n">
-        <v>0.0213333333333333</v>
+        <v>0.171555555555555</v>
       </c>
       <c r="I65" s="0" t="n">
-        <v>0.0257777777777778</v>
+        <v>0.22455439154294</v>
       </c>
       <c r="J65" s="0" t="n">
-        <v>0.0311870948288859</v>
+        <v>0.255259873195791</v>
       </c>
       <c r="K65" s="0" t="n">
-        <v>0.0386172844624697</v>
+        <v>0.286402562487254</v>
       </c>
       <c r="L65" s="0" t="n">
-        <v>0.0417328911607581</v>
+        <v>0.288292326266781</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2649,28 +2649,28 @@
         <v>7</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>0.0294117647058823</v>
+        <v>0</v>
       </c>
       <c r="F66" s="0" t="n">
-        <v>0.0588235294117647</v>
+        <v>0</v>
       </c>
       <c r="G66" s="0" t="n">
-        <v>0.0588235294117647</v>
+        <v>0.00490196078431373</v>
       </c>
       <c r="H66" s="0" t="n">
-        <v>0.0637254901960784</v>
+        <v>0.0187405731523379</v>
       </c>
       <c r="I66" s="0" t="n">
-        <v>0.0682503770739065</v>
+        <v>0.0225113122171946</v>
       </c>
       <c r="J66" s="0" t="n">
-        <v>0.0796854864839436</v>
+        <v>0.0385583522296185</v>
       </c>
       <c r="K66" s="0" t="n">
-        <v>0.0836744073231939</v>
+        <v>0.0654102428568329</v>
       </c>
       <c r="L66" s="0" t="n">
-        <v>0.0847204188859882</v>
+        <v>0.067876250762193</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2690,25 +2690,25 @@
         <v>0.0169491525423729</v>
       </c>
       <c r="F67" s="0" t="n">
-        <v>0.0440677966101695</v>
+        <v>0.0384180790960452</v>
       </c>
       <c r="G67" s="0" t="n">
-        <v>0.0553672316384181</v>
+        <v>0.0731234866828087</v>
       </c>
       <c r="H67" s="0" t="n">
-        <v>0.060075329566855</v>
+        <v>0.118347612839138</v>
       </c>
       <c r="I67" s="0" t="n">
-        <v>0.0683808971944565</v>
+        <v>0.157299401233734</v>
       </c>
       <c r="J67" s="0" t="n">
-        <v>0.0843546794113494</v>
+        <v>0.202611014471808</v>
       </c>
       <c r="K67" s="0" t="n">
-        <v>0.0951853696523113</v>
+        <v>0.260123630288215</v>
       </c>
       <c r="L67" s="0" t="n">
-        <v>0.0989002868983551</v>
+        <v>0.264532736252176</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2725,28 +2725,28 @@
         <v>7</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F68" s="0" t="n">
-        <v>0.275</v>
+        <v>0.0733333333333333</v>
       </c>
       <c r="G68" s="0" t="n">
-        <v>0.341666666666667</v>
+        <v>0.0733333333333333</v>
       </c>
       <c r="H68" s="0" t="n">
-        <v>0.399003623188406</v>
+        <v>0.195844155844156</v>
       </c>
       <c r="I68" s="0" t="n">
-        <v>0.48350097768576</v>
+        <v>0.228420987995456</v>
       </c>
       <c r="J68" s="0" t="n">
-        <v>0.48350097768576</v>
+        <v>0.238311097885566</v>
       </c>
       <c r="K68" s="0" t="n">
-        <v>0.489870404437353</v>
+        <v>0.240855627147652</v>
       </c>
       <c r="L68" s="0" t="n">
-        <v>0.489870404437353</v>
+        <v>0.240855627147652</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2763,28 +2763,28 @@
         <v>7</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>0</v>
+        <v>0.0357142857142857</v>
       </c>
       <c r="F69" s="0" t="n">
-        <v>0.0261904761904762</v>
+        <v>0.0714285714285714</v>
       </c>
       <c r="G69" s="0" t="n">
-        <v>0.0369047619047619</v>
+        <v>0.132015306122449</v>
       </c>
       <c r="H69" s="0" t="n">
-        <v>0.055952380952381</v>
+        <v>0.153088952972493</v>
       </c>
       <c r="I69" s="0" t="n">
-        <v>0.0728233337738426</v>
+        <v>0.187858453658143</v>
       </c>
       <c r="J69" s="0" t="n">
-        <v>0.101397745936704</v>
+        <v>0.211486195661534</v>
       </c>
       <c r="K69" s="0" t="n">
-        <v>0.127853380553443</v>
+        <v>0.242043730479743</v>
       </c>
       <c r="L69" s="0" t="n">
-        <v>0.130550372471917</v>
+        <v>0.246360906606891</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2804,25 +2804,25 @@
         <v>0.0263157894736842</v>
       </c>
       <c r="F70" s="0" t="n">
-        <v>0.131578947368421</v>
+        <v>0.1</v>
       </c>
       <c r="G70" s="0" t="n">
-        <v>0.176315789473684</v>
+        <v>0.167512531328321</v>
       </c>
       <c r="H70" s="0" t="n">
-        <v>0.231682875667429</v>
+        <v>0.267106047397809</v>
       </c>
       <c r="I70" s="0" t="n">
-        <v>0.296417745141454</v>
+        <v>0.330344079949404</v>
       </c>
       <c r="J70" s="0" t="n">
-        <v>0.335144481814525</v>
+        <v>0.365111934693474</v>
       </c>
       <c r="K70" s="0" t="n">
-        <v>0.369905815498866</v>
+        <v>0.400551716968894</v>
       </c>
       <c r="L70" s="0" t="n">
-        <v>0.372741902821734</v>
+        <v>0.4049620384982</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2839,28 +2839,28 @@
         <v>7</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="F71" s="0" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.0166666666666667</v>
       </c>
       <c r="G71" s="0" t="n">
-        <v>0.1</v>
+        <v>0.0166666666666667</v>
       </c>
       <c r="H71" s="0" t="n">
-        <v>0.151284801678108</v>
+        <v>0.0294871794871795</v>
       </c>
       <c r="I71" s="0" t="n">
-        <v>0.180218326307472</v>
+        <v>0.0391025641025641</v>
       </c>
       <c r="J71" s="0" t="n">
-        <v>0.180218326307472</v>
+        <v>0.0541548729048729</v>
       </c>
       <c r="K71" s="0" t="n">
-        <v>0.212375684783527</v>
+        <v>0.0754802747440111</v>
       </c>
       <c r="L71" s="0" t="n">
-        <v>0.212375684783527</v>
+        <v>0.0754802747440111</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2877,28 +2877,28 @@
         <v>7</v>
       </c>
       <c r="E72" s="0" t="n">
-        <v>0</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="F72" s="0" t="n">
-        <v>0.0272727272727273</v>
+        <v>0.0732323232323232</v>
       </c>
       <c r="G72" s="0" t="n">
-        <v>0.0786796536796537</v>
+        <v>0.0905483405483406</v>
       </c>
       <c r="H72" s="0" t="n">
-        <v>0.111525595616505</v>
+        <v>0.0905483405483406</v>
       </c>
       <c r="I72" s="0" t="n">
-        <v>0.133290849353273</v>
+        <v>0.0905483405483406</v>
       </c>
       <c r="J72" s="0" t="n">
-        <v>0.146834000596959</v>
+        <v>0.100786649875027</v>
       </c>
       <c r="K72" s="0" t="n">
-        <v>0.162667656246008</v>
+        <v>0.112782871452734</v>
       </c>
       <c r="L72" s="0" t="n">
-        <v>0.16656889141483</v>
+        <v>0.113539186684922</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2918,25 +2918,25 @@
         <v>0.0222222222222222</v>
       </c>
       <c r="F73" s="0" t="n">
-        <v>0.0577777777777778</v>
+        <v>0.0714814814814815</v>
       </c>
       <c r="G73" s="0" t="n">
-        <v>0.120687830687831</v>
+        <v>0.0873544973544974</v>
       </c>
       <c r="H73" s="0" t="n">
-        <v>0.190582651097525</v>
+        <v>0.0976109076109076</v>
       </c>
       <c r="I73" s="0" t="n">
-        <v>0.23491264415934</v>
+        <v>0.103593813593814</v>
       </c>
       <c r="J73" s="0" t="n">
-        <v>0.250697440336293</v>
+        <v>0.125048908990492</v>
       </c>
       <c r="K73" s="0" t="n">
-        <v>0.290835586040226</v>
+        <v>0.15287634092619</v>
       </c>
       <c r="L73" s="0" t="n">
-        <v>0.295307633798955</v>
+        <v>0.153837701621328</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2953,28 +2953,28 @@
         <v>7</v>
       </c>
       <c r="E74" s="0" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F74" s="0" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="G74" s="0" t="n">
-        <v>0.15</v>
+        <v>0.0166666666666667</v>
       </c>
       <c r="H74" s="0" t="n">
-        <v>0.15</v>
+        <v>0.0261904761904762</v>
       </c>
       <c r="I74" s="0" t="n">
-        <v>0.156818181818182</v>
+        <v>0.0261904761904762</v>
       </c>
       <c r="J74" s="0" t="n">
-        <v>0.164510489510489</v>
+        <v>0.0370270711024136</v>
       </c>
       <c r="K74" s="0" t="n">
-        <v>0.170454900343844</v>
+        <v>0.0386827002414864</v>
       </c>
       <c r="L74" s="0" t="n">
-        <v>0.170454900343844</v>
+        <v>0.0396305675400646</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2991,28 +2991,28 @@
         <v>7</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>0</v>
+        <v>0.0526315789473684</v>
       </c>
       <c r="F75" s="0" t="n">
-        <v>0.0175438596491228</v>
+        <v>0.087719298245614</v>
       </c>
       <c r="G75" s="0" t="n">
-        <v>0.0711779448621554</v>
+        <v>0.087719298245614</v>
       </c>
       <c r="H75" s="0" t="n">
-        <v>0.0711779448621554</v>
+        <v>0.0998650472334683</v>
       </c>
       <c r="I75" s="0" t="n">
-        <v>0.0796669092085052</v>
+        <v>0.111507790455159</v>
       </c>
       <c r="J75" s="0" t="n">
-        <v>0.0843801849351352</v>
+        <v>0.122748238930486</v>
       </c>
       <c r="K75" s="0" t="n">
-        <v>0.0876501791604973</v>
+        <v>0.124180390738577</v>
       </c>
       <c r="L75" s="0" t="n">
-        <v>0.0886841983932551</v>
+        <v>0.126178682558158</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3032,25 +3032,25 @@
         <v>0.0344827586206897</v>
       </c>
       <c r="F76" s="0" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.0574712643678161</v>
       </c>
       <c r="G76" s="0" t="n">
-        <v>0.142884510125889</v>
+        <v>0.0747126436781609</v>
       </c>
       <c r="H76" s="0" t="n">
-        <v>0.142884510125889</v>
+        <v>0.0935329038777315</v>
       </c>
       <c r="I76" s="0" t="n">
-        <v>0.156940531968341</v>
+        <v>0.104630082561117</v>
       </c>
       <c r="J76" s="0" t="n">
-        <v>0.168055382120761</v>
+        <v>0.125530340975564</v>
       </c>
       <c r="K76" s="0" t="n">
-        <v>0.176252361760139</v>
+        <v>0.128422157670271</v>
       </c>
       <c r="L76" s="0" t="n">
-        <v>0.177404045250417</v>
+        <v>0.131289817443832</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3073,22 +3073,22 @@
         <v>0</v>
       </c>
       <c r="G77" s="0" t="n">
-        <v>0.0261904761904762</v>
+        <v>0</v>
       </c>
       <c r="H77" s="0" t="n">
-        <v>0.0404761904761905</v>
+        <v>0.0031055900621118</v>
       </c>
       <c r="I77" s="0" t="n">
-        <v>0.059608843537415</v>
+        <v>0.0031055900621118</v>
       </c>
       <c r="J77" s="0" t="n">
-        <v>0.104954363390729</v>
+        <v>0.00484775034085745</v>
       </c>
       <c r="K77" s="0" t="n">
-        <v>0.111600983733935</v>
+        <v>0.0143322774216591</v>
       </c>
       <c r="L77" s="0" t="n">
-        <v>0.111600983733935</v>
+        <v>0.0153478495272786</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3108,25 +3108,25 @@
         <v>0</v>
       </c>
       <c r="F78" s="0" t="n">
-        <v>0.0686274509803921</v>
+        <v>0</v>
       </c>
       <c r="G78" s="0" t="n">
-        <v>0.0686274509803921</v>
+        <v>0</v>
       </c>
       <c r="H78" s="0" t="n">
-        <v>0.0779153766769866</v>
+        <v>0.0200980392156863</v>
       </c>
       <c r="I78" s="0" t="n">
-        <v>0.0866299736268777</v>
+        <v>0.0288126361655773</v>
       </c>
       <c r="J78" s="0" t="n">
-        <v>0.0951333749874219</v>
+        <v>0.0288126361655773</v>
       </c>
       <c r="K78" s="0" t="n">
-        <v>0.104096123228241</v>
+        <v>0.0305280801457397</v>
       </c>
       <c r="L78" s="0" t="n">
-        <v>0.105810746777342</v>
+        <v>0.0315486923083954</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3146,25 +3146,25 @@
         <v>0</v>
       </c>
       <c r="F79" s="0" t="n">
-        <v>0.0376344086021505</v>
+        <v>0</v>
       </c>
       <c r="G79" s="0" t="n">
-        <v>0.0666666666666667</v>
+        <v>0</v>
       </c>
       <c r="H79" s="0" t="n">
-        <v>0.0876061120543294</v>
+        <v>0.0166316035530622</v>
       </c>
       <c r="I79" s="0" t="n">
-        <v>0.112443968343799</v>
+        <v>0.0226053192041972</v>
       </c>
       <c r="J79" s="0" t="n">
-        <v>0.156523100089375</v>
+        <v>0.0249656653883042</v>
       </c>
       <c r="K79" s="0" t="n">
-        <v>0.173022730517764</v>
+        <v>0.0350475399212945</v>
       </c>
       <c r="L79" s="0" t="n">
-        <v>0.175033645158793</v>
+        <v>0.0370432941204469</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3187,22 +3187,22 @@
         <v>0</v>
       </c>
       <c r="G80" s="0" t="n">
-        <v>0</v>
+        <v>0.0222222222222222</v>
       </c>
       <c r="H80" s="0" t="n">
-        <v>0.037719298245614</v>
+        <v>0.0382222222222222</v>
       </c>
       <c r="I80" s="0" t="n">
-        <v>0.0559011164274322</v>
+        <v>0.0582222222222222</v>
       </c>
       <c r="J80" s="0" t="n">
-        <v>0.0559011164274322</v>
+        <v>0.0582222222222222</v>
       </c>
       <c r="K80" s="0" t="n">
-        <v>0.0717875745157252</v>
+        <v>0.0654940249173659</v>
       </c>
       <c r="L80" s="0" t="n">
-        <v>0.0717875745157252</v>
+        <v>0.0654940249173659</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3222,25 +3222,25 @@
         <v>0.05</v>
       </c>
       <c r="F81" s="0" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="G81" s="0" t="n">
-        <v>0.358055555555555</v>
+        <v>0.304166666666667</v>
       </c>
       <c r="H81" s="0" t="n">
-        <v>0.518496156621157</v>
+        <v>0.512998325092147</v>
       </c>
       <c r="I81" s="0" t="n">
-        <v>0.613054777742278</v>
+        <v>0.637922921355485</v>
       </c>
       <c r="J81" s="0" t="n">
-        <v>0.64632758192866</v>
+        <v>0.662606262705493</v>
       </c>
       <c r="K81" s="0" t="n">
-        <v>0.64632758192866</v>
+        <v>0.662606262705493</v>
       </c>
       <c r="L81" s="0" t="n">
-        <v>0.64632758192866</v>
+        <v>0.662606262705493</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3260,25 +3260,25 @@
         <v>0.04</v>
       </c>
       <c r="F82" s="0" t="n">
-        <v>0.16</v>
+        <v>0.152</v>
       </c>
       <c r="G82" s="0" t="n">
-        <v>0.286444444444444</v>
+        <v>0.278444444444444</v>
       </c>
       <c r="H82" s="0" t="n">
-        <v>0.487854823539034</v>
+        <v>0.486067451490793</v>
       </c>
       <c r="I82" s="0" t="n">
-        <v>0.597359441793652</v>
+        <v>0.626043898704562</v>
       </c>
       <c r="J82" s="0" t="n">
-        <v>0.628205680003786</v>
+        <v>0.648830494824492</v>
       </c>
       <c r="K82" s="0" t="n">
-        <v>0.645560028000336</v>
+        <v>0.656971862737027</v>
       </c>
       <c r="L82" s="0" t="n">
-        <v>0.645560028000336</v>
+        <v>0.656971862737027</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3295,28 +3295,28 @@
         <v>7</v>
       </c>
       <c r="E83" s="0" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="F83" s="0" t="n">
-        <v>0.125</v>
+        <v>0.0625</v>
       </c>
       <c r="G83" s="0" t="n">
-        <v>0.125</v>
+        <v>0.0625</v>
       </c>
       <c r="H83" s="0" t="n">
-        <v>0.125</v>
+        <v>0.0625</v>
       </c>
       <c r="I83" s="0" t="n">
-        <v>0.125</v>
+        <v>0.0625</v>
       </c>
       <c r="J83" s="0" t="n">
-        <v>0.125</v>
+        <v>0.0625</v>
       </c>
       <c r="K83" s="0" t="n">
-        <v>0.128209728867624</v>
+        <v>0.0625</v>
       </c>
       <c r="L83" s="0" t="n">
-        <v>0.128814323789026</v>
+        <v>0.0628090234857849</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3333,28 +3333,28 @@
         <v>7</v>
       </c>
       <c r="E84" s="0" t="n">
-        <v>0</v>
+        <v>0.0238095238095238</v>
       </c>
       <c r="F84" s="0" t="n">
-        <v>0.0646825396825397</v>
+        <v>0.0765873015873016</v>
       </c>
       <c r="G84" s="0" t="n">
-        <v>0.118065003779289</v>
+        <v>0.132804232804233</v>
       </c>
       <c r="H84" s="0" t="n">
-        <v>0.17385030035406</v>
+        <v>0.179135094924569</v>
       </c>
       <c r="I84" s="0" t="n">
-        <v>0.183702517102828</v>
+        <v>0.208733190794216</v>
       </c>
       <c r="J84" s="0" t="n">
-        <v>0.197954874334637</v>
+        <v>0.212609159786464</v>
       </c>
       <c r="K84" s="0" t="n">
-        <v>0.197954874334637</v>
+        <v>0.214638380565685</v>
       </c>
       <c r="L84" s="0" t="n">
-        <v>0.198410014574724</v>
+        <v>0.214638380565685</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3377,22 +3377,22 @@
         <v>0.1</v>
       </c>
       <c r="G85" s="0" t="n">
-        <v>0.152420634920635</v>
+        <v>0.155277777777778</v>
       </c>
       <c r="H85" s="0" t="n">
-        <v>0.204332915622389</v>
+        <v>0.198604976894451</v>
       </c>
       <c r="I85" s="0" t="n">
-        <v>0.213298432863769</v>
+        <v>0.225551263366599</v>
       </c>
       <c r="J85" s="0" t="n">
-        <v>0.226135294632137</v>
+        <v>0.229039635459622</v>
       </c>
       <c r="K85" s="0" t="n">
-        <v>0.22974295013453</v>
+        <v>0.230857817277804</v>
       </c>
       <c r="L85" s="0" t="n">
-        <v>0.230680339526886</v>
+        <v>0.231278089218472</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3409,28 +3409,28 @@
         <v>7</v>
       </c>
       <c r="E86" s="0" t="n">
-        <v>0.142857142857143</v>
+        <v>0</v>
       </c>
       <c r="F86" s="0" t="n">
-        <v>0.142857142857143</v>
+        <v>0.128571428571429</v>
       </c>
       <c r="G86" s="0" t="n">
-        <v>0.142857142857143</v>
+        <v>0.176190476190476</v>
       </c>
       <c r="H86" s="0" t="n">
-        <v>0.157894736842105</v>
+        <v>0.176190476190476</v>
       </c>
       <c r="I86" s="0" t="n">
-        <v>0.196281520126848</v>
+        <v>0.176190476190476</v>
       </c>
       <c r="J86" s="0" t="n">
-        <v>0.196281520126848</v>
+        <v>0.195566502463054</v>
       </c>
       <c r="K86" s="0" t="n">
-        <v>0.199101068999028</v>
+        <v>0.197927777551602</v>
       </c>
       <c r="L86" s="0" t="n">
-        <v>0.199101068999028</v>
+        <v>0.197927777551602</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3447,28 +3447,28 @@
         <v>7</v>
       </c>
       <c r="E87" s="0" t="n">
-        <v>0</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="F87" s="0" t="n">
-        <v>0.0484848484848485</v>
+        <v>0.0732323232323232</v>
       </c>
       <c r="G87" s="0" t="n">
-        <v>0.0804713804713805</v>
+        <v>0.108585858585859</v>
       </c>
       <c r="H87" s="0" t="n">
-        <v>0.0804713804713805</v>
+        <v>0.13475665748393</v>
       </c>
       <c r="I87" s="0" t="n">
-        <v>0.0978512063986372</v>
+        <v>0.167912895185622</v>
       </c>
       <c r="J87" s="0" t="n">
-        <v>0.115975158948819</v>
+        <v>0.194296486528101</v>
       </c>
       <c r="K87" s="0" t="n">
-        <v>0.132234896536949</v>
+        <v>0.208373555292669</v>
       </c>
       <c r="L87" s="0" t="n">
-        <v>0.133910361200683</v>
+        <v>0.208373555292669</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3488,25 +3488,25 @@
         <v>0.025</v>
       </c>
       <c r="F88" s="0" t="n">
-        <v>0.08875</v>
+        <v>0.125</v>
       </c>
       <c r="G88" s="0" t="n">
-        <v>0.121041666666667</v>
+        <v>0.189444444444444</v>
       </c>
       <c r="H88" s="0" t="n">
-        <v>0.130252192982456</v>
+        <v>0.221262626262626</v>
       </c>
       <c r="I88" s="0" t="n">
-        <v>0.169125733175872</v>
+        <v>0.257415223665224</v>
       </c>
       <c r="J88" s="0" t="n">
-        <v>0.191276192006659</v>
+        <v>0.298712835875353</v>
       </c>
       <c r="K88" s="0" t="n">
-        <v>0.211151663328536</v>
+        <v>0.315439132530253</v>
       </c>
       <c r="L88" s="0" t="n">
-        <v>0.212961036991336</v>
+        <v>0.315439132530253</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3526,25 +3526,25 @@
         <v>0.5</v>
       </c>
       <c r="F89" s="0" t="n">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="G89" s="0" t="n">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="H89" s="0" t="n">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="I89" s="0" t="n">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="J89" s="0" t="n">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="K89" s="0" t="n">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="L89" s="0" t="n">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3564,25 +3564,25 @@
         <v>0</v>
       </c>
       <c r="F90" s="0" t="n">
-        <v>0.119791666666667</v>
+        <v>0.110416666666667</v>
       </c>
       <c r="G90" s="0" t="n">
-        <v>0.351587301587302</v>
+        <v>0.282142857142857</v>
       </c>
       <c r="H90" s="0" t="n">
-        <v>0.588598207348207</v>
+        <v>0.487870309837222</v>
       </c>
       <c r="I90" s="0" t="n">
-        <v>0.588598207348207</v>
+        <v>0.558543822371199</v>
       </c>
       <c r="J90" s="0" t="n">
-        <v>0.640450582913818</v>
+        <v>0.558543822371199</v>
       </c>
       <c r="K90" s="0" t="n">
-        <v>0.640450582913818</v>
+        <v>0.558543822371199</v>
       </c>
       <c r="L90" s="0" t="n">
-        <v>0.640450582913818</v>
+        <v>0.558543822371199</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3605,22 +3605,22 @@
         <v>0.277777777777778</v>
       </c>
       <c r="G91" s="0" t="n">
-        <v>0.555555555555556</v>
+        <v>0.488271604938272</v>
       </c>
       <c r="H91" s="0" t="n">
-        <v>0.805514855514855</v>
+        <v>0.708824418138144</v>
       </c>
       <c r="I91" s="0" t="n">
-        <v>0.805514855514855</v>
+        <v>0.780722803990018</v>
       </c>
       <c r="J91" s="0" t="n">
-        <v>0.857773109243697</v>
+        <v>0.780722803990018</v>
       </c>
       <c r="K91" s="0" t="n">
-        <v>0.857773109243697</v>
+        <v>0.780722803990018</v>
       </c>
       <c r="L91" s="0" t="n">
-        <v>0.857773109243697</v>
+        <v>0.780722803990018</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3640,25 +3640,25 @@
         <v>0.0263157894736842</v>
       </c>
       <c r="F92" s="0" t="n">
-        <v>0.131578947368421</v>
+        <v>0.105263157894737</v>
       </c>
       <c r="G92" s="0" t="n">
-        <v>0.204312865497076</v>
+        <v>0.12406015037594</v>
       </c>
       <c r="H92" s="0" t="n">
-        <v>0.24078861369109</v>
+        <v>0.171894657592598</v>
       </c>
       <c r="I92" s="0" t="n">
-        <v>0.300823192437017</v>
+        <v>0.234134192664125</v>
       </c>
       <c r="J92" s="0" t="n">
-        <v>0.330219241170353</v>
+        <v>0.258569463848622</v>
       </c>
       <c r="K92" s="0" t="n">
-        <v>0.358144299211103</v>
+        <v>0.297683200480716</v>
       </c>
       <c r="L92" s="0" t="n">
-        <v>0.362712940806316</v>
+        <v>0.30005538151413</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3678,25 +3678,25 @@
         <v>0</v>
       </c>
       <c r="F93" s="0" t="n">
-        <v>0</v>
+        <v>0.0105263157894737</v>
       </c>
       <c r="G93" s="0" t="n">
-        <v>0.0180451127819549</v>
+        <v>0.0280701754385965</v>
       </c>
       <c r="H93" s="0" t="n">
-        <v>0.0741598313966735</v>
+        <v>0.112913458230796</v>
       </c>
       <c r="I93" s="0" t="n">
-        <v>0.101387398522373</v>
+        <v>0.112913458230796</v>
       </c>
       <c r="J93" s="0" t="n">
-        <v>0.129880774998706</v>
+        <v>0.127477379996934</v>
       </c>
       <c r="K93" s="0" t="n">
-        <v>0.139669494964417</v>
+        <v>0.14841255197891</v>
       </c>
       <c r="L93" s="0" t="n">
-        <v>0.140572072952797</v>
+        <v>0.149556716738636</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3719,22 +3719,22 @@
         <v>0.087719298245614</v>
       </c>
       <c r="G94" s="0" t="n">
-        <v>0.175438596491228</v>
+        <v>0.12280701754386</v>
       </c>
       <c r="H94" s="0" t="n">
-        <v>0.267547869227436</v>
+        <v>0.240958584746443</v>
       </c>
       <c r="I94" s="0" t="n">
-        <v>0.35246906971069</v>
+        <v>0.306176468559704</v>
       </c>
       <c r="J94" s="0" t="n">
-        <v>0.408725722790584</v>
+        <v>0.344359724178188</v>
       </c>
       <c r="K94" s="0" t="n">
-        <v>0.44625792913088</v>
+        <v>0.403409361348568</v>
       </c>
       <c r="L94" s="0" t="n">
-        <v>0.451713999282267</v>
+        <v>0.406894275691084</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3754,25 +3754,25 @@
         <v>0.04</v>
       </c>
       <c r="F95" s="0" t="n">
-        <v>0.0966666666666667</v>
+        <v>0.0906666666666667</v>
       </c>
       <c r="G95" s="0" t="n">
-        <v>0.175904761904762</v>
+        <v>0.137333333333333</v>
       </c>
       <c r="H95" s="0" t="n">
-        <v>0.228971428571429</v>
+        <v>0.188746376811594</v>
       </c>
       <c r="I95" s="0" t="n">
-        <v>0.265207987711213</v>
+        <v>0.25695927492181</v>
       </c>
       <c r="J95" s="0" t="n">
-        <v>0.325069906516461</v>
+        <v>0.284047548966605</v>
       </c>
       <c r="K95" s="0" t="n">
-        <v>0.35625650855551</v>
+        <v>0.305617069524806</v>
       </c>
       <c r="L95" s="0" t="n">
-        <v>0.35625650855551</v>
+        <v>0.308240760905847</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3795,22 +3795,22 @@
         <v>0</v>
       </c>
       <c r="G96" s="0" t="n">
-        <v>0.00326797385620915</v>
+        <v>0.0115546218487395</v>
       </c>
       <c r="H96" s="0" t="n">
-        <v>0.0118464052287582</v>
+        <v>0.0167449332674246</v>
       </c>
       <c r="I96" s="0" t="n">
-        <v>0.031063093882787</v>
+        <v>0.0240807347208731</v>
       </c>
       <c r="J96" s="0" t="n">
-        <v>0.0517297691178123</v>
+        <v>0.0403638746841762</v>
       </c>
       <c r="K96" s="0" t="n">
-        <v>0.0808152308728481</v>
+        <v>0.0690203387480835</v>
       </c>
       <c r="L96" s="0" t="n">
-        <v>0.0820239335319939</v>
+        <v>0.072738549338466</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3830,25 +3830,25 @@
         <v>0.0169491525423729</v>
       </c>
       <c r="F97" s="0" t="n">
-        <v>0.0409604519774011</v>
+        <v>0.0384180790960452</v>
       </c>
       <c r="G97" s="0" t="n">
-        <v>0.0875302663438257</v>
+        <v>0.0864003228410008</v>
       </c>
       <c r="H97" s="0" t="n">
-        <v>0.135496368038741</v>
+        <v>0.12530986233845</v>
       </c>
       <c r="I97" s="0" t="n">
-        <v>0.190307132644297</v>
+        <v>0.178656053015782</v>
       </c>
       <c r="J97" s="0" t="n">
-        <v>0.261009018128681</v>
+        <v>0.223377452409455</v>
       </c>
       <c r="K97" s="0" t="n">
-        <v>0.321820765127655</v>
+        <v>0.276549016152586</v>
       </c>
       <c r="L97" s="0" t="n">
-        <v>0.323242868680012</v>
+        <v>0.283001168818856</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3865,28 +3865,28 @@
         <v>8</v>
       </c>
       <c r="E98" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F98" s="0" t="n">
         <v>0.1</v>
       </c>
-      <c r="F98" s="0" t="n">
-        <v>0.275</v>
-      </c>
       <c r="G98" s="0" t="n">
-        <v>0.275</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="H98" s="0" t="n">
-        <v>0.333333333333333</v>
+        <v>0.224411027568922</v>
       </c>
       <c r="I98" s="0" t="n">
-        <v>0.372222222222222</v>
+        <v>0.273866365259554</v>
       </c>
       <c r="J98" s="0" t="n">
-        <v>0.372222222222222</v>
+        <v>0.282957274350463</v>
       </c>
       <c r="K98" s="0" t="n">
-        <v>0.375762045231072</v>
+        <v>0.285554676947866</v>
       </c>
       <c r="L98" s="0" t="n">
-        <v>0.378803905504932</v>
+        <v>0.285554676947866</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3903,28 +3903,28 @@
         <v>8</v>
       </c>
       <c r="E99" s="0" t="n">
-        <v>0</v>
+        <v>0.0357142857142857</v>
       </c>
       <c r="F99" s="0" t="n">
-        <v>0.0119047619047619</v>
+        <v>0.0595238095238095</v>
       </c>
       <c r="G99" s="0" t="n">
-        <v>0.051374716553288</v>
+        <v>0.0952380952380952</v>
       </c>
       <c r="H99" s="0" t="n">
-        <v>0.10579377978915</v>
+        <v>0.124076903488668</v>
       </c>
       <c r="I99" s="0" t="n">
-        <v>0.133595581500876</v>
+        <v>0.199262413665488</v>
       </c>
       <c r="J99" s="0" t="n">
-        <v>0.133595581500876</v>
+        <v>0.223869243239422</v>
       </c>
       <c r="K99" s="0" t="n">
-        <v>0.168522301662735</v>
+        <v>0.251391179480726</v>
       </c>
       <c r="L99" s="0" t="n">
-        <v>0.170725571918022</v>
+        <v>0.252441599648794</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3947,22 +3947,22 @@
         <v>0.105263157894737</v>
       </c>
       <c r="G100" s="0" t="n">
-        <v>0.164264828738513</v>
+        <v>0.172775689223058</v>
       </c>
       <c r="H100" s="0" t="n">
-        <v>0.264519375609981</v>
+        <v>0.253456846097794</v>
       </c>
       <c r="I100" s="0" t="n">
-        <v>0.322310475037971</v>
+        <v>0.376083933630762</v>
       </c>
       <c r="J100" s="0" t="n">
-        <v>0.322310475037971</v>
+        <v>0.410258539803291</v>
       </c>
       <c r="K100" s="0" t="n">
-        <v>0.363003455439188</v>
+        <v>0.441767879981511</v>
       </c>
       <c r="L100" s="0" t="n">
-        <v>0.367978989121783</v>
+        <v>0.442828538162912</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3982,25 +3982,25 @@
         <v>0</v>
       </c>
       <c r="F101" s="0" t="n">
-        <v>0.0694444444444444</v>
+        <v>0</v>
       </c>
       <c r="G101" s="0" t="n">
-        <v>0.0694444444444444</v>
+        <v>0.0119047619047619</v>
       </c>
       <c r="H101" s="0" t="n">
-        <v>0.107193732193732</v>
+        <v>0.0325782486907807</v>
       </c>
       <c r="I101" s="0" t="n">
-        <v>0.130631232193732</v>
+        <v>0.067849023667438</v>
       </c>
       <c r="J101" s="0" t="n">
-        <v>0.130631232193732</v>
+        <v>0.0772576258179756</v>
       </c>
       <c r="K101" s="0" t="n">
-        <v>0.163748905977501</v>
+        <v>0.0896649052916943</v>
       </c>
       <c r="L101" s="0" t="n">
-        <v>0.163748905977501</v>
+        <v>0.0925416952525805</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4020,25 +4020,25 @@
         <v>0.0303030303030303</v>
       </c>
       <c r="F102" s="0" t="n">
-        <v>0.0606060606060606</v>
+        <v>0.0909090909090909</v>
       </c>
       <c r="G102" s="0" t="n">
-        <v>0.102212602212602</v>
+        <v>0.130050505050505</v>
       </c>
       <c r="H102" s="0" t="n">
-        <v>0.153565416065416</v>
+        <v>0.166322314049587</v>
       </c>
       <c r="I102" s="0" t="n">
-        <v>0.176283013495657</v>
+        <v>0.191674030890665</v>
       </c>
       <c r="J102" s="0" t="n">
-        <v>0.200562375813297</v>
+        <v>0.198408037624672</v>
       </c>
       <c r="K102" s="0" t="n">
-        <v>0.202815817804321</v>
+        <v>0.204452947370864</v>
       </c>
       <c r="L102" s="0" t="n">
-        <v>0.208936029599326</v>
+        <v>0.207806687407838</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4058,25 +4058,25 @@
         <v>0.0222222222222222</v>
       </c>
       <c r="F103" s="0" t="n">
-        <v>0.0888888888888889</v>
+        <v>0.0666666666666667</v>
       </c>
       <c r="G103" s="0" t="n">
-        <v>0.135132275132275</v>
+        <v>0.114021164021164</v>
       </c>
       <c r="H103" s="0" t="n">
-        <v>0.217652285985619</v>
+        <v>0.167694482272487</v>
       </c>
       <c r="I103" s="0" t="n">
-        <v>0.25965065408552</v>
+        <v>0.221781291027632</v>
       </c>
       <c r="J103" s="0" t="n">
-        <v>0.285453486730458</v>
+        <v>0.235998734277333</v>
       </c>
       <c r="K103" s="0" t="n">
-        <v>0.311779228886375</v>
+        <v>0.251357234208212</v>
       </c>
       <c r="L103" s="0" t="n">
-        <v>0.318873865759793</v>
+        <v>0.257260983275326</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4099,22 +4099,22 @@
         <v>0</v>
       </c>
       <c r="G104" s="0" t="n">
-        <v>0</v>
+        <v>0.0166666666666667</v>
       </c>
       <c r="H104" s="0" t="n">
-        <v>0.00909090909090909</v>
+        <v>0.0333333333333333</v>
       </c>
       <c r="I104" s="0" t="n">
-        <v>0.0222903352028173</v>
+        <v>0.040650406504065</v>
       </c>
       <c r="J104" s="0" t="n">
-        <v>0.0274185403310224</v>
+        <v>0.045650406504065</v>
       </c>
       <c r="K104" s="0" t="n">
-        <v>0.0309150438275259</v>
+        <v>0.0468352406272878</v>
       </c>
       <c r="L104" s="0" t="n">
-        <v>0.0326153801279498</v>
+        <v>0.0475193911404007</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4134,25 +4134,25 @@
         <v>0.0526315789473684</v>
       </c>
       <c r="F105" s="0" t="n">
-        <v>0.157894736842105</v>
+        <v>0.105263157894737</v>
       </c>
       <c r="G105" s="0" t="n">
-        <v>0.157894736842105</v>
+        <v>0.105263157894737</v>
       </c>
       <c r="H105" s="0" t="n">
-        <v>0.167048054919908</v>
+        <v>0.125657894736842</v>
       </c>
       <c r="I105" s="0" t="n">
-        <v>0.182055167295442</v>
+        <v>0.13277027027027</v>
       </c>
       <c r="J105" s="0" t="n">
-        <v>0.187473123951789</v>
+        <v>0.141945106094007</v>
       </c>
       <c r="K105" s="0" t="n">
-        <v>0.190225101935965</v>
+        <v>0.144910265471323</v>
       </c>
       <c r="L105" s="0" t="n">
-        <v>0.190225101935965</v>
+        <v>0.14618446003961</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4172,25 +4172,25 @@
         <v>0.0344827586206897</v>
       </c>
       <c r="F106" s="0" t="n">
-        <v>0.103448275862069</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="G106" s="0" t="n">
-        <v>0.103448275862069</v>
+        <v>0.0862068965517241</v>
       </c>
       <c r="H106" s="0" t="n">
-        <v>0.12348371268911</v>
+        <v>0.11882183908046</v>
       </c>
       <c r="I106" s="0" t="n">
-        <v>0.150558608294159</v>
+        <v>0.132073947370415</v>
       </c>
       <c r="J106" s="0" t="n">
-        <v>0.160492555347782</v>
+        <v>0.145613730372223</v>
       </c>
       <c r="K106" s="0" t="n">
-        <v>0.166316121009076</v>
+        <v>0.149590031387993</v>
       </c>
       <c r="L106" s="0" t="n">
-        <v>0.167634981765207</v>
+        <v>0.151495299230745</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4207,28 +4207,28 @@
         <v>8</v>
       </c>
       <c r="E107" s="0" t="n">
-        <v>0.0714285714285714</v>
+        <v>0</v>
       </c>
       <c r="F107" s="0" t="n">
-        <v>0.0714285714285714</v>
+        <v>0</v>
       </c>
       <c r="G107" s="0" t="n">
-        <v>0.115646258503401</v>
+        <v>0.0261904761904762</v>
       </c>
       <c r="H107" s="0" t="n">
-        <v>0.226952319389294</v>
+        <v>0.0414965986394558</v>
       </c>
       <c r="I107" s="0" t="n">
-        <v>0.25596506865376</v>
+        <v>0.099942535201133</v>
       </c>
       <c r="J107" s="0" t="n">
-        <v>0.25596506865376</v>
+        <v>0.132323349550145</v>
       </c>
       <c r="K107" s="0" t="n">
-        <v>0.274554886678303</v>
+        <v>0.140565107791903</v>
       </c>
       <c r="L107" s="0" t="n">
-        <v>0.274554886678303</v>
+        <v>0.143230430440823</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4245,28 +4245,28 @@
         <v>8</v>
       </c>
       <c r="E108" s="0" t="n">
-        <v>0</v>
+        <v>0.0588235294117647</v>
       </c>
       <c r="F108" s="0" t="n">
-        <v>0.0686274509803921</v>
+        <v>0.161764705882353</v>
       </c>
       <c r="G108" s="0" t="n">
-        <v>0.0686274509803921</v>
+        <v>0.161764705882353</v>
       </c>
       <c r="H108" s="0" t="n">
-        <v>0.0857118499573742</v>
+        <v>0.248347093223254</v>
       </c>
       <c r="I108" s="0" t="n">
-        <v>0.0938817845978971</v>
+        <v>0.248347093223254</v>
       </c>
       <c r="J108" s="0" t="n">
-        <v>0.106537756077398</v>
+        <v>0.25833599444412</v>
       </c>
       <c r="K108" s="0" t="n">
-        <v>0.111621813033306</v>
+        <v>0.263545500824272</v>
       </c>
       <c r="L108" s="0" t="n">
-        <v>0.114285569391729</v>
+        <v>0.263545500824272</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4286,25 +4286,25 @@
         <v>0.032258064516129</v>
       </c>
       <c r="F109" s="0" t="n">
-        <v>0.0967741935483871</v>
+        <v>0.0887096774193548</v>
       </c>
       <c r="G109" s="0" t="n">
-        <v>0.133128520225294</v>
+        <v>0.126344086021505</v>
       </c>
       <c r="H109" s="0" t="n">
-        <v>0.23035705194438</v>
+        <v>0.212474196243296</v>
       </c>
       <c r="I109" s="0" t="n">
-        <v>0.261963065575934</v>
+        <v>0.275879062987748</v>
       </c>
       <c r="J109" s="0" t="n">
-        <v>0.278580856387273</v>
+        <v>0.314166103071392</v>
       </c>
       <c r="K109" s="0" t="n">
-        <v>0.299122635339249</v>
+        <v>0.326804147020706</v>
       </c>
       <c r="L109" s="0" t="n">
-        <v>0.302182503245929</v>
+        <v>0.328990764438633</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4321,28 +4321,28 @@
         <v>8</v>
       </c>
       <c r="E110" s="0" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F110" s="0" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G110" s="0" t="n">
-        <v>0.385714285714286</v>
+        <v>0</v>
       </c>
       <c r="H110" s="0" t="n">
-        <v>0.385714285714286</v>
+        <v>0.0340579710144928</v>
       </c>
       <c r="I110" s="0" t="n">
-        <v>0.385714285714286</v>
+        <v>0.0522397891963109</v>
       </c>
       <c r="J110" s="0" t="n">
-        <v>0.385714285714286</v>
+        <v>0.0522397891963109</v>
       </c>
       <c r="K110" s="0" t="n">
-        <v>0.394007389839251</v>
+        <v>0.0581811042530683</v>
       </c>
       <c r="L110" s="0" t="n">
-        <v>0.394007389839251</v>
+        <v>0.0581811042530683</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4359,28 +4359,28 @@
         <v>8</v>
       </c>
       <c r="E111" s="0" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F111" s="0" t="n">
-        <v>0.0883333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="G111" s="0" t="n">
-        <v>0.135555555555556</v>
+        <v>0.328273809523809</v>
       </c>
       <c r="H111" s="0" t="n">
-        <v>0.158632478632479</v>
+        <v>0.532758184797658</v>
       </c>
       <c r="I111" s="0" t="n">
-        <v>0.174087410605268</v>
+        <v>0.639748807763362</v>
       </c>
       <c r="J111" s="0" t="n">
-        <v>0.174087410605268</v>
+        <v>0.663714377077769</v>
       </c>
       <c r="K111" s="0" t="n">
-        <v>0.177582497982452</v>
+        <v>0.663714377077769</v>
       </c>
       <c r="L111" s="0" t="n">
-        <v>0.178628125358878</v>
+        <v>0.663714377077769</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4400,25 +4400,25 @@
         <v>0.04</v>
       </c>
       <c r="F112" s="0" t="n">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="G112" s="0" t="n">
-        <v>0.297396825396825</v>
+        <v>0.262619047619048</v>
       </c>
       <c r="H112" s="0" t="n">
-        <v>0.325089133089133</v>
+        <v>0.494817681936675</v>
       </c>
       <c r="I112" s="0" t="n">
-        <v>0.342402058259201</v>
+        <v>0.615853212231919</v>
       </c>
       <c r="J112" s="0" t="n">
-        <v>0.342402058259201</v>
+        <v>0.637979458079095</v>
       </c>
       <c r="K112" s="0" t="n">
-        <v>0.351355564034912</v>
+        <v>0.644616425309765</v>
       </c>
       <c r="L112" s="0" t="n">
-        <v>0.352572294072935</v>
+        <v>0.644616425309765</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4435,28 +4435,28 @@
         <v>8</v>
       </c>
       <c r="E113" s="0" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="F113" s="0" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="G113" s="0" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="H113" s="0" t="n">
-        <v>0.0152083333333333</v>
+        <v>0.125</v>
       </c>
       <c r="I113" s="0" t="n">
-        <v>0.0152083333333333</v>
+        <v>0.125</v>
       </c>
       <c r="J113" s="0" t="n">
-        <v>0.0152083333333333</v>
+        <v>0.125</v>
       </c>
       <c r="K113" s="0" t="n">
-        <v>0.0189156164630689</v>
+        <v>0.131363102232668</v>
       </c>
       <c r="L113" s="0" t="n">
-        <v>0.0189156164630689</v>
+        <v>0.132050670989543</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4473,28 +4473,28 @@
         <v>8</v>
       </c>
       <c r="E114" s="0" t="n">
-        <v>0.0238095238095238</v>
+        <v>0</v>
       </c>
       <c r="F114" s="0" t="n">
-        <v>0.0238095238095238</v>
+        <v>0.0646825396825397</v>
       </c>
       <c r="G114" s="0" t="n">
-        <v>0.0238095238095238</v>
+        <v>0.13994708994709</v>
       </c>
       <c r="H114" s="0" t="n">
-        <v>0.0274725274725275</v>
+        <v>0.193637566137566</v>
       </c>
       <c r="I114" s="0" t="n">
-        <v>0.0295133437990581</v>
+        <v>0.220075002814364</v>
       </c>
       <c r="J114" s="0" t="n">
-        <v>0.0306337919783298</v>
+        <v>0.224504681662648</v>
       </c>
       <c r="K114" s="0" t="n">
-        <v>0.0342900194486208</v>
+        <v>0.228862784706725</v>
       </c>
       <c r="L114" s="0" t="n">
-        <v>0.035661593066475</v>
+        <v>0.228862784706725</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4514,25 +4514,25 @@
         <v>0.02</v>
       </c>
       <c r="F115" s="0" t="n">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="G115" s="0" t="n">
-        <v>0.02</v>
+        <v>0.173277777777778</v>
       </c>
       <c r="H115" s="0" t="n">
-        <v>0.0287769230769231</v>
+        <v>0.222761111111111</v>
       </c>
       <c r="I115" s="0" t="n">
-        <v>0.0316340659340659</v>
+        <v>0.246579987270413</v>
       </c>
       <c r="J115" s="0" t="n">
-        <v>0.0330458306399483</v>
+        <v>0.250533475642506</v>
       </c>
       <c r="K115" s="0" t="n">
-        <v>0.0390776413039935</v>
+        <v>0.261714095406331</v>
       </c>
       <c r="L115" s="0" t="n">
-        <v>0.0406362761026308</v>
+        <v>0.262242148211611</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4549,28 +4549,28 @@
         <v>8</v>
       </c>
       <c r="E116" s="0" t="n">
-        <v>0</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="F116" s="0" t="n">
-        <v>0.0714285714285714</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="G116" s="0" t="n">
-        <v>0.159863945578231</v>
+        <v>0.233333333333333</v>
       </c>
       <c r="H116" s="0" t="n">
-        <v>0.159863945578231</v>
+        <v>0.233333333333333</v>
       </c>
       <c r="I116" s="0" t="n">
-        <v>0.159863945578231</v>
+        <v>0.250140056022409</v>
       </c>
       <c r="J116" s="0" t="n">
-        <v>0.179477665191951</v>
+        <v>0.250140056022409</v>
       </c>
       <c r="K116" s="0" t="n">
-        <v>0.181794267508553</v>
+        <v>0.262174439711524</v>
       </c>
       <c r="L116" s="0" t="n">
-        <v>0.181794267508553</v>
+        <v>0.262174439711524</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4587,28 +4587,28 @@
         <v>8</v>
       </c>
       <c r="E117" s="0" t="n">
-        <v>0.0303030303030303</v>
+        <v>0</v>
       </c>
       <c r="F117" s="0" t="n">
-        <v>0.0974747474747475</v>
+        <v>0.0580808080808081</v>
       </c>
       <c r="G117" s="0" t="n">
-        <v>0.122727272727273</v>
+        <v>0.0900673400673401</v>
       </c>
       <c r="H117" s="0" t="n">
-        <v>0.139830119375574</v>
+        <v>0.145600025085671</v>
       </c>
       <c r="I117" s="0" t="n">
-        <v>0.17136685099197</v>
+        <v>0.164179427180632</v>
       </c>
       <c r="J117" s="0" t="n">
-        <v>0.19836103962235</v>
+        <v>0.188750053809578</v>
       </c>
       <c r="K117" s="0" t="n">
-        <v>0.214033285194575</v>
+        <v>0.202911722496852</v>
       </c>
       <c r="L117" s="0" t="n">
-        <v>0.214033285194575</v>
+        <v>0.202911722496852</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4628,25 +4628,25 @@
         <v>0.025</v>
       </c>
       <c r="F118" s="0" t="n">
-        <v>0.125</v>
+        <v>0.1</v>
       </c>
       <c r="G118" s="0" t="n">
-        <v>0.197222222222222</v>
+        <v>0.179027777777778</v>
       </c>
       <c r="H118" s="0" t="n">
-        <v>0.217866161616162</v>
+        <v>0.243866721728564</v>
       </c>
       <c r="I118" s="0" t="n">
-        <v>0.252309091079313</v>
+        <v>0.274514077390761</v>
       </c>
       <c r="J118" s="0" t="n">
-        <v>0.294320558187448</v>
+        <v>0.300892416033251</v>
       </c>
       <c r="K118" s="0" t="n">
-        <v>0.312705850567419</v>
+        <v>0.324301661014965</v>
       </c>
       <c r="L118" s="0" t="n">
-        <v>0.312705850567419</v>
+        <v>0.324301661014965</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4669,22 +4669,22 @@
         <v>0.5</v>
       </c>
       <c r="G119" s="0" t="n">
-        <v>0.642857142857143</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="H119" s="0" t="n">
-        <v>0.642857142857143</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="I119" s="0" t="n">
-        <v>0.642857142857143</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="J119" s="0" t="n">
-        <v>0.642857142857143</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="K119" s="0" t="n">
-        <v>0.642857142857143</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="L119" s="0" t="n">
-        <v>0.642857142857143</v>
+        <v>0.666666666666667</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4707,22 +4707,22 @@
         <v>0.169791666666667</v>
       </c>
       <c r="G120" s="0" t="n">
-        <v>0.317361111111111</v>
+        <v>0.299851190476191</v>
       </c>
       <c r="H120" s="0" t="n">
-        <v>0.581041389166389</v>
+        <v>0.566463744588745</v>
       </c>
       <c r="I120" s="0" t="n">
-        <v>0.625782242824926</v>
+        <v>0.610126636574807</v>
       </c>
       <c r="J120" s="0" t="n">
-        <v>0.625782242824926</v>
+        <v>0.610126636574807</v>
       </c>
       <c r="K120" s="0" t="n">
-        <v>0.625782242824926</v>
+        <v>0.614474462661764</v>
       </c>
       <c r="L120" s="0" t="n">
-        <v>0.627564774019222</v>
+        <v>0.614474462661764</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4745,22 +4745,22 @@
         <v>0.277777777777778</v>
       </c>
       <c r="G121" s="0" t="n">
-        <v>0.5</v>
+        <v>0.488271604938272</v>
       </c>
       <c r="H121" s="0" t="n">
-        <v>0.780843539176872</v>
+        <v>0.771959676126343</v>
       </c>
       <c r="I121" s="0" t="n">
-        <v>0.826100991751398</v>
+        <v>0.816126665415283</v>
       </c>
       <c r="J121" s="0" t="n">
-        <v>0.826100991751398</v>
+        <v>0.816126665415283</v>
       </c>
       <c r="K121" s="0" t="n">
-        <v>0.826100991751398</v>
+        <v>0.82047449150224</v>
       </c>
       <c r="L121" s="0" t="n">
-        <v>0.827883522945694</v>
+        <v>0.82047449150224</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4777,28 +4777,28 @@
         <v>9</v>
       </c>
       <c r="E122" s="0" t="n">
-        <v>0</v>
+        <v>0.0263157894736842</v>
       </c>
       <c r="F122" s="0" t="n">
-        <v>0.0421052631578947</v>
+        <v>0.0552631578947369</v>
       </c>
       <c r="G122" s="0" t="n">
-        <v>0.0526315789473684</v>
+        <v>0.0552631578947369</v>
       </c>
       <c r="H122" s="0" t="n">
-        <v>0.08170667052246</v>
+        <v>0.120147529314397</v>
       </c>
       <c r="I122" s="0" t="n">
-        <v>0.101302712205921</v>
+        <v>0.167560422178742</v>
       </c>
       <c r="J122" s="0" t="n">
-        <v>0.128048919496602</v>
+        <v>0.210303989099159</v>
       </c>
       <c r="K122" s="0" t="n">
-        <v>0.160248843799198</v>
+        <v>0.231196837998385</v>
       </c>
       <c r="L122" s="0" t="n">
-        <v>0.162684392222183</v>
+        <v>0.237007364504387</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4815,28 +4815,28 @@
         <v>9</v>
       </c>
       <c r="E123" s="0" t="n">
-        <v>0.0526315789473684</v>
+        <v>0</v>
       </c>
       <c r="F123" s="0" t="n">
-        <v>0.0526315789473684</v>
+        <v>0.0263157894736842</v>
       </c>
       <c r="G123" s="0" t="n">
-        <v>0.0676691729323308</v>
+        <v>0.116123642439432</v>
       </c>
       <c r="H123" s="0" t="n">
-        <v>0.0764411027568922</v>
+        <v>0.16546574770259</v>
       </c>
       <c r="I123" s="0" t="n">
-        <v>0.0764411027568922</v>
+        <v>0.16546574770259</v>
       </c>
       <c r="J123" s="0" t="n">
-        <v>0.088276273031264</v>
+        <v>0.187132749335108</v>
       </c>
       <c r="K123" s="0" t="n">
-        <v>0.0992877917069703</v>
+        <v>0.204807532043288</v>
       </c>
       <c r="L123" s="0" t="n">
-        <v>0.100446652160857</v>
+        <v>0.206458338025032</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4859,22 +4859,22 @@
         <v>0.062280701754386</v>
       </c>
       <c r="G124" s="0" t="n">
-        <v>0.0853383458646616</v>
+        <v>0.119618490671122</v>
       </c>
       <c r="H124" s="0" t="n">
-        <v>0.120891973523552</v>
+        <v>0.232960052245852</v>
       </c>
       <c r="I124" s="0" t="n">
-        <v>0.138392984817362</v>
+        <v>0.281985633440218</v>
       </c>
       <c r="J124" s="0" t="n">
-        <v>0.17617534956463</v>
+        <v>0.345061673923439</v>
       </c>
       <c r="K124" s="0" t="n">
-        <v>0.218243509063759</v>
+        <v>0.382980158762614</v>
       </c>
       <c r="L124" s="0" t="n">
-        <v>0.221815520452381</v>
+        <v>0.390419259887038</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4894,25 +4894,25 @@
         <v>0.04</v>
       </c>
       <c r="F125" s="0" t="n">
-        <v>0.0906666666666667</v>
+        <v>0.11</v>
       </c>
       <c r="G125" s="0" t="n">
-        <v>0.135746031746032</v>
+        <v>0.11</v>
       </c>
       <c r="H125" s="0" t="n">
-        <v>0.171555555555555</v>
+        <v>0.177712121212121</v>
       </c>
       <c r="I125" s="0" t="n">
-        <v>0.22455439154294</v>
+        <v>0.250339419541547</v>
       </c>
       <c r="J125" s="0" t="n">
-        <v>0.255259873195791</v>
+        <v>0.279356346886648</v>
       </c>
       <c r="K125" s="0" t="n">
-        <v>0.286402562487254</v>
+        <v>0.300523230322725</v>
       </c>
       <c r="L125" s="0" t="n">
-        <v>0.288292326266781</v>
+        <v>0.305363815304671</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4932,25 +4932,25 @@
         <v>0</v>
       </c>
       <c r="F126" s="0" t="n">
-        <v>0</v>
+        <v>0.00588235294117647</v>
       </c>
       <c r="G126" s="0" t="n">
-        <v>0.00490196078431373</v>
+        <v>0.0282913165266106</v>
       </c>
       <c r="H126" s="0" t="n">
-        <v>0.0187405731523379</v>
+        <v>0.0282913165266106</v>
       </c>
       <c r="I126" s="0" t="n">
-        <v>0.0225113122171946</v>
+        <v>0.0450691064614639</v>
       </c>
       <c r="J126" s="0" t="n">
-        <v>0.0385583522296185</v>
+        <v>0.0567308350349572</v>
       </c>
       <c r="K126" s="0" t="n">
-        <v>0.0654102428568329</v>
+        <v>0.0822653406710935</v>
       </c>
       <c r="L126" s="0" t="n">
-        <v>0.067876250762193</v>
+        <v>0.083209033656309</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4970,25 +4970,25 @@
         <v>0.0169491525423729</v>
       </c>
       <c r="F127" s="0" t="n">
-        <v>0.0384180790960452</v>
+        <v>0.0601694915254237</v>
       </c>
       <c r="G127" s="0" t="n">
-        <v>0.0731234866828087</v>
+        <v>0.0888216303470541</v>
       </c>
       <c r="H127" s="0" t="n">
-        <v>0.118347612839138</v>
+        <v>0.132606941081517</v>
       </c>
       <c r="I127" s="0" t="n">
-        <v>0.157299401233734</v>
+        <v>0.20559088070716</v>
       </c>
       <c r="J127" s="0" t="n">
-        <v>0.202611014471808</v>
+        <v>0.242624378407178</v>
       </c>
       <c r="K127" s="0" t="n">
-        <v>0.260123630288215</v>
+        <v>0.29067963326116</v>
       </c>
       <c r="L127" s="0" t="n">
-        <v>0.264532736252176</v>
+        <v>0.295814105192862</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5005,28 +5005,28 @@
         <v>9</v>
       </c>
       <c r="E128" s="0" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F128" s="0" t="n">
-        <v>0.0733333333333333</v>
+        <v>0.241666666666667</v>
       </c>
       <c r="G128" s="0" t="n">
-        <v>0.0733333333333333</v>
+        <v>0.363888888888889</v>
       </c>
       <c r="H128" s="0" t="n">
-        <v>0.195844155844156</v>
+        <v>0.43406432748538</v>
       </c>
       <c r="I128" s="0" t="n">
-        <v>0.228420987995456</v>
+        <v>0.489408242829296</v>
       </c>
       <c r="J128" s="0" t="n">
-        <v>0.238311097885566</v>
+        <v>0.489408242829296</v>
       </c>
       <c r="K128" s="0" t="n">
-        <v>0.240855627147652</v>
+        <v>0.497041830615555</v>
       </c>
       <c r="L128" s="0" t="n">
-        <v>0.240855627147652</v>
+        <v>0.497041830615555</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5043,28 +5043,28 @@
         <v>9</v>
       </c>
       <c r="E129" s="0" t="n">
-        <v>0.0357142857142857</v>
+        <v>0</v>
       </c>
       <c r="F129" s="0" t="n">
-        <v>0.0714285714285714</v>
+        <v>0.0321428571428572</v>
       </c>
       <c r="G129" s="0" t="n">
-        <v>0.132015306122449</v>
+        <v>0.0321428571428572</v>
       </c>
       <c r="H129" s="0" t="n">
-        <v>0.153088952972493</v>
+        <v>0.0470238095238095</v>
       </c>
       <c r="I129" s="0" t="n">
-        <v>0.187858453658143</v>
+        <v>0.0712154287749034</v>
       </c>
       <c r="J129" s="0" t="n">
-        <v>0.211486195661534</v>
+        <v>0.0938735565421393</v>
       </c>
       <c r="K129" s="0" t="n">
-        <v>0.242043730479743</v>
+        <v>0.12070383672756</v>
       </c>
       <c r="L129" s="0" t="n">
-        <v>0.246360906606891</v>
+        <v>0.124054966643972</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5084,25 +5084,25 @@
         <v>0.0263157894736842</v>
       </c>
       <c r="F130" s="0" t="n">
-        <v>0.1</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="G130" s="0" t="n">
-        <v>0.167512531328321</v>
+        <v>0.178362573099415</v>
       </c>
       <c r="H130" s="0" t="n">
-        <v>0.267106047397809</v>
+        <v>0.234976146506617</v>
       </c>
       <c r="I130" s="0" t="n">
-        <v>0.330344079949404</v>
+        <v>0.299471928052106</v>
       </c>
       <c r="J130" s="0" t="n">
-        <v>0.365111934693474</v>
+        <v>0.330749808474224</v>
       </c>
       <c r="K130" s="0" t="n">
-        <v>0.400551716968894</v>
+        <v>0.367559454115258</v>
       </c>
       <c r="L130" s="0" t="n">
-        <v>0.4049620384982</v>
+        <v>0.371160396059984</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5122,25 +5122,25 @@
         <v>0</v>
       </c>
       <c r="F131" s="0" t="n">
-        <v>0.0166666666666667</v>
+        <v>0</v>
       </c>
       <c r="G131" s="0" t="n">
-        <v>0.0166666666666667</v>
+        <v>0</v>
       </c>
       <c r="H131" s="0" t="n">
-        <v>0.0294871794871795</v>
+        <v>0.0232007575757576</v>
       </c>
       <c r="I131" s="0" t="n">
-        <v>0.0391025641025641</v>
+        <v>0.0588790409858958</v>
       </c>
       <c r="J131" s="0" t="n">
-        <v>0.0541548729048729</v>
+        <v>0.0687660466356134</v>
       </c>
       <c r="K131" s="0" t="n">
-        <v>0.0754802747440111</v>
+        <v>0.0827587579966747</v>
       </c>
       <c r="L131" s="0" t="n">
-        <v>0.0754802747440111</v>
+        <v>0.0842358628711209</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5160,25 +5160,25 @@
         <v>0.0303030303030303</v>
       </c>
       <c r="F132" s="0" t="n">
-        <v>0.0732323232323232</v>
+        <v>0.0787878787878788</v>
       </c>
       <c r="G132" s="0" t="n">
-        <v>0.0905483405483406</v>
+        <v>0.0961038961038961</v>
       </c>
       <c r="H132" s="0" t="n">
-        <v>0.0905483405483406</v>
+        <v>0.105016552075376</v>
       </c>
       <c r="I132" s="0" t="n">
-        <v>0.0905483405483406</v>
+        <v>0.131909237524211</v>
       </c>
       <c r="J132" s="0" t="n">
-        <v>0.100786649875027</v>
+        <v>0.136500605751943</v>
       </c>
       <c r="K132" s="0" t="n">
-        <v>0.112782871452734</v>
+        <v>0.147296485866134</v>
       </c>
       <c r="L132" s="0" t="n">
-        <v>0.113539186684922</v>
+        <v>0.14963858759523</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5198,25 +5198,25 @@
         <v>0.0222222222222222</v>
       </c>
       <c r="F133" s="0" t="n">
-        <v>0.0714814814814815</v>
+        <v>0.0577777777777778</v>
       </c>
       <c r="G133" s="0" t="n">
-        <v>0.0873544973544974</v>
+        <v>0.0704761904761905</v>
       </c>
       <c r="H133" s="0" t="n">
-        <v>0.0976109076109076</v>
+        <v>0.0997418866536514</v>
       </c>
       <c r="I133" s="0" t="n">
-        <v>0.103593813593814</v>
+        <v>0.153990686206056</v>
       </c>
       <c r="J133" s="0" t="n">
-        <v>0.125048908990492</v>
+        <v>0.165740957278361</v>
       </c>
       <c r="K133" s="0" t="n">
-        <v>0.15287634092619</v>
+        <v>0.187722467462192</v>
       </c>
       <c r="L133" s="0" t="n">
-        <v>0.153837701621328</v>
+        <v>0.191507780875476</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5233,28 +5233,28 @@
         <v>9</v>
       </c>
       <c r="E134" s="0" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F134" s="0" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G134" s="0" t="n">
-        <v>0.0166666666666667</v>
+        <v>0.1</v>
       </c>
       <c r="H134" s="0" t="n">
-        <v>0.0261904761904762</v>
+        <v>0.118181818181818</v>
       </c>
       <c r="I134" s="0" t="n">
-        <v>0.0261904761904762</v>
+        <v>0.118181818181818</v>
       </c>
       <c r="J134" s="0" t="n">
-        <v>0.0370270711024136</v>
+        <v>0.122467532467533</v>
       </c>
       <c r="K134" s="0" t="n">
-        <v>0.0386827002414864</v>
+        <v>0.129928721472991</v>
       </c>
       <c r="L134" s="0" t="n">
-        <v>0.0396305675400646</v>
+        <v>0.129928721472991</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5271,28 +5271,28 @@
         <v>9</v>
       </c>
       <c r="E135" s="0" t="n">
-        <v>0.0526315789473684</v>
+        <v>0</v>
       </c>
       <c r="F135" s="0" t="n">
-        <v>0.087719298245614</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="G135" s="0" t="n">
-        <v>0.087719298245614</v>
+        <v>0.0421052631578947</v>
       </c>
       <c r="H135" s="0" t="n">
-        <v>0.0998650472334683</v>
+        <v>0.0737794713026911</v>
       </c>
       <c r="I135" s="0" t="n">
-        <v>0.111507790455159</v>
+        <v>0.0828020276936686</v>
       </c>
       <c r="J135" s="0" t="n">
-        <v>0.122748238930486</v>
+        <v>0.0828020276936686</v>
       </c>
       <c r="K135" s="0" t="n">
-        <v>0.124180390738577</v>
+        <v>0.0876016849556088</v>
       </c>
       <c r="L135" s="0" t="n">
-        <v>0.126178682558158</v>
+        <v>0.0888129164299981</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5312,25 +5312,25 @@
         <v>0.0344827586206897</v>
       </c>
       <c r="F136" s="0" t="n">
-        <v>0.0574712643678161</v>
+        <v>0.0517241379310345</v>
       </c>
       <c r="G136" s="0" t="n">
-        <v>0.0747126436781609</v>
+        <v>0.078448275862069</v>
       </c>
       <c r="H136" s="0" t="n">
-        <v>0.0935329038777315</v>
+        <v>0.124236159378147</v>
       </c>
       <c r="I136" s="0" t="n">
-        <v>0.104630082561117</v>
+        <v>0.132117932777162</v>
       </c>
       <c r="J136" s="0" t="n">
-        <v>0.125530340975564</v>
+        <v>0.136551430314108</v>
       </c>
       <c r="K136" s="0" t="n">
-        <v>0.128422157670271</v>
+        <v>0.147852756173755</v>
       </c>
       <c r="L136" s="0" t="n">
-        <v>0.131289817443832</v>
+        <v>0.149100356559286</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5350,25 +5350,25 @@
         <v>0</v>
       </c>
       <c r="F137" s="0" t="n">
-        <v>0</v>
+        <v>0.0142857142857143</v>
       </c>
       <c r="G137" s="0" t="n">
-        <v>0</v>
+        <v>0.0301587301587302</v>
       </c>
       <c r="H137" s="0" t="n">
-        <v>0.0031055900621118</v>
+        <v>0.0557507851625499</v>
       </c>
       <c r="I137" s="0" t="n">
-        <v>0.0031055900621118</v>
+        <v>0.143852844234306</v>
       </c>
       <c r="J137" s="0" t="n">
-        <v>0.00484775034085745</v>
+        <v>0.143852844234306</v>
       </c>
       <c r="K137" s="0" t="n">
-        <v>0.0143322774216591</v>
+        <v>0.156913601277035</v>
       </c>
       <c r="L137" s="0" t="n">
-        <v>0.0153478495272786</v>
+        <v>0.156913601277035</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5385,28 +5385,28 @@
         <v>9</v>
       </c>
       <c r="E138" s="0" t="n">
-        <v>0</v>
+        <v>0.0588235294117647</v>
       </c>
       <c r="F138" s="0" t="n">
-        <v>0</v>
+        <v>0.117647058823529</v>
       </c>
       <c r="G138" s="0" t="n">
-        <v>0</v>
+        <v>0.147058823529412</v>
       </c>
       <c r="H138" s="0" t="n">
-        <v>0.0200980392156863</v>
+        <v>0.198781266892722</v>
       </c>
       <c r="I138" s="0" t="n">
-        <v>0.0288126361655773</v>
+        <v>0.211258985252793</v>
       </c>
       <c r="J138" s="0" t="n">
-        <v>0.0288126361655773</v>
+        <v>0.221618799281498</v>
       </c>
       <c r="K138" s="0" t="n">
-        <v>0.0305280801457397</v>
+        <v>0.230974950968023</v>
       </c>
       <c r="L138" s="0" t="n">
-        <v>0.0315486923083954</v>
+        <v>0.230974950968023</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5423,28 +5423,28 @@
         <v>9</v>
       </c>
       <c r="E139" s="0" t="n">
-        <v>0</v>
+        <v>0.032258064516129</v>
       </c>
       <c r="F139" s="0" t="n">
-        <v>0</v>
+        <v>0.0838709677419355</v>
       </c>
       <c r="G139" s="0" t="n">
-        <v>0</v>
+        <v>0.123297491039426</v>
       </c>
       <c r="H139" s="0" t="n">
-        <v>0.0166316035530622</v>
+        <v>0.194684918264265</v>
       </c>
       <c r="I139" s="0" t="n">
-        <v>0.0226053192041972</v>
+        <v>0.283878321622117</v>
       </c>
       <c r="J139" s="0" t="n">
-        <v>0.0249656653883042</v>
+        <v>0.296245298675658</v>
       </c>
       <c r="K139" s="0" t="n">
-        <v>0.0350475399212945</v>
+        <v>0.317701108668805</v>
       </c>
       <c r="L139" s="0" t="n">
-        <v>0.0370432941204469</v>
+        <v>0.317701108668805</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5467,22 +5467,22 @@
         <v>0</v>
       </c>
       <c r="G140" s="0" t="n">
-        <v>0.0222222222222222</v>
+        <v>0</v>
       </c>
       <c r="H140" s="0" t="n">
-        <v>0.0382222222222222</v>
+        <v>0.0311111111111111</v>
       </c>
       <c r="I140" s="0" t="n">
-        <v>0.0582222222222222</v>
+        <v>0.0482539682539683</v>
       </c>
       <c r="J140" s="0" t="n">
-        <v>0.0582222222222222</v>
+        <v>0.0577777777777778</v>
       </c>
       <c r="K140" s="0" t="n">
-        <v>0.0654940249173659</v>
+        <v>0.0647707847707848</v>
       </c>
       <c r="L140" s="0" t="n">
-        <v>0.0654940249173659</v>
+        <v>0.0647707847707848</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5502,25 +5502,25 @@
         <v>0.05</v>
       </c>
       <c r="F141" s="0" t="n">
-        <v>0.19</v>
+        <v>0.25</v>
       </c>
       <c r="G141" s="0" t="n">
-        <v>0.304166666666667</v>
+        <v>0.3225</v>
       </c>
       <c r="H141" s="0" t="n">
-        <v>0.512998325092147</v>
+        <v>0.554984375273849</v>
       </c>
       <c r="I141" s="0" t="n">
-        <v>0.637922921355485</v>
+        <v>0.630846444239366</v>
       </c>
       <c r="J141" s="0" t="n">
-        <v>0.662606262705493</v>
+        <v>0.658250923817759</v>
       </c>
       <c r="K141" s="0" t="n">
-        <v>0.662606262705493</v>
+        <v>0.668151913916769</v>
       </c>
       <c r="L141" s="0" t="n">
-        <v>0.662606262705493</v>
+        <v>0.668151913916769</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5540,25 +5540,25 @@
         <v>0.04</v>
       </c>
       <c r="F142" s="0" t="n">
-        <v>0.152</v>
+        <v>0.2</v>
       </c>
       <c r="G142" s="0" t="n">
-        <v>0.278444444444444</v>
+        <v>0.258</v>
       </c>
       <c r="H142" s="0" t="n">
-        <v>0.486067451490793</v>
+        <v>0.507595793680004</v>
       </c>
       <c r="I142" s="0" t="n">
-        <v>0.626043898704562</v>
+        <v>0.598754153575687</v>
       </c>
       <c r="J142" s="0" t="n">
-        <v>0.648830494824492</v>
+        <v>0.635187430443746</v>
       </c>
       <c r="K142" s="0" t="n">
-        <v>0.656971862737027</v>
+        <v>0.651685387931802</v>
       </c>
       <c r="L142" s="0" t="n">
-        <v>0.656971862737027</v>
+        <v>0.651685387931802</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5575,28 +5575,28 @@
         <v>9</v>
       </c>
       <c r="E143" s="0" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="F143" s="0" t="n">
-        <v>0.0625</v>
+        <v>0.125</v>
       </c>
       <c r="G143" s="0" t="n">
-        <v>0.0625</v>
+        <v>0.125</v>
       </c>
       <c r="H143" s="0" t="n">
-        <v>0.0625</v>
+        <v>0.125</v>
       </c>
       <c r="I143" s="0" t="n">
-        <v>0.0625</v>
+        <v>0.125</v>
       </c>
       <c r="J143" s="0" t="n">
-        <v>0.0625</v>
+        <v>0.125</v>
       </c>
       <c r="K143" s="0" t="n">
-        <v>0.0625</v>
+        <v>0.129267197886235</v>
       </c>
       <c r="L143" s="0" t="n">
-        <v>0.0628090234857849</v>
+        <v>0.129267197886235</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5613,28 +5613,28 @@
         <v>9</v>
       </c>
       <c r="E144" s="0" t="n">
-        <v>0.0238095238095238</v>
+        <v>0</v>
       </c>
       <c r="F144" s="0" t="n">
-        <v>0.0765873015873016</v>
+        <v>0.0420634920634921</v>
       </c>
       <c r="G144" s="0" t="n">
-        <v>0.132804232804233</v>
+        <v>0.130366591080877</v>
       </c>
       <c r="H144" s="0" t="n">
-        <v>0.179135094924569</v>
+        <v>0.235598660598661</v>
       </c>
       <c r="I144" s="0" t="n">
-        <v>0.208733190794216</v>
+        <v>0.243715543715544</v>
       </c>
       <c r="J144" s="0" t="n">
-        <v>0.212609159786464</v>
+        <v>0.277691495514424</v>
       </c>
       <c r="K144" s="0" t="n">
-        <v>0.214638380565685</v>
+        <v>0.281893176186693</v>
       </c>
       <c r="L144" s="0" t="n">
-        <v>0.214638380565685</v>
+        <v>0.283244483448932</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5654,25 +5654,25 @@
         <v>0.02</v>
       </c>
       <c r="F145" s="0" t="n">
-        <v>0.1</v>
+        <v>0.076</v>
       </c>
       <c r="G145" s="0" t="n">
-        <v>0.155277777777778</v>
+        <v>0.163087301587302</v>
       </c>
       <c r="H145" s="0" t="n">
-        <v>0.198604976894451</v>
+        <v>0.259478132978133</v>
       </c>
       <c r="I145" s="0" t="n">
-        <v>0.225551263366599</v>
+        <v>0.26675086025086</v>
       </c>
       <c r="J145" s="0" t="n">
-        <v>0.229039635459622</v>
+        <v>0.296887751853485</v>
       </c>
       <c r="K145" s="0" t="n">
-        <v>0.230857817277804</v>
+        <v>0.306465205988424</v>
       </c>
       <c r="L145" s="0" t="n">
-        <v>0.231278089218472</v>
+        <v>0.307802857810286</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5689,28 +5689,28 @@
         <v>9</v>
       </c>
       <c r="E146" s="0" t="n">
-        <v>0</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="F146" s="0" t="n">
-        <v>0.128571428571429</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="G146" s="0" t="n">
-        <v>0.176190476190476</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="H146" s="0" t="n">
-        <v>0.176190476190476</v>
+        <v>0.158730158730159</v>
       </c>
       <c r="I146" s="0" t="n">
-        <v>0.176190476190476</v>
+        <v>0.186419072133358</v>
       </c>
       <c r="J146" s="0" t="n">
-        <v>0.195566502463054</v>
+        <v>0.194822433477896</v>
       </c>
       <c r="K146" s="0" t="n">
-        <v>0.197927777551602</v>
+        <v>0.199240695628117</v>
       </c>
       <c r="L146" s="0" t="n">
-        <v>0.197927777551602</v>
+        <v>0.199240695628117</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5727,28 +5727,28 @@
         <v>9</v>
       </c>
       <c r="E147" s="0" t="n">
-        <v>0.0303030303030303</v>
+        <v>0</v>
       </c>
       <c r="F147" s="0" t="n">
-        <v>0.0732323232323232</v>
+        <v>0.0272727272727273</v>
       </c>
       <c r="G147" s="0" t="n">
-        <v>0.108585858585859</v>
+        <v>0.0272727272727273</v>
       </c>
       <c r="H147" s="0" t="n">
-        <v>0.13475665748393</v>
+        <v>0.0632088648131429</v>
       </c>
       <c r="I147" s="0" t="n">
-        <v>0.167912895185622</v>
+        <v>0.0835559251602033</v>
       </c>
       <c r="J147" s="0" t="n">
-        <v>0.194296486528101</v>
+        <v>0.103020573063597</v>
       </c>
       <c r="K147" s="0" t="n">
-        <v>0.208373555292669</v>
+        <v>0.115249709480591</v>
       </c>
       <c r="L147" s="0" t="n">
-        <v>0.208373555292669</v>
+        <v>0.117113507790692</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5768,25 +5768,25 @@
         <v>0.025</v>
       </c>
       <c r="F148" s="0" t="n">
-        <v>0.125</v>
+        <v>0.065</v>
       </c>
       <c r="G148" s="0" t="n">
-        <v>0.189444444444444</v>
+        <v>0.065</v>
       </c>
       <c r="H148" s="0" t="n">
-        <v>0.221262626262626</v>
+        <v>0.112577136915372</v>
       </c>
       <c r="I148" s="0" t="n">
-        <v>0.257415223665224</v>
+        <v>0.150620837209072</v>
       </c>
       <c r="J148" s="0" t="n">
-        <v>0.298712835875353</v>
+        <v>0.177600046603512</v>
       </c>
       <c r="K148" s="0" t="n">
-        <v>0.315439132530253</v>
+        <v>0.193939185579812</v>
       </c>
       <c r="L148" s="0" t="n">
-        <v>0.315439132530253</v>
+        <v>0.19595014779067</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5806,25 +5806,25 @@
         <v>0.5</v>
       </c>
       <c r="F149" s="0" t="n">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="G149" s="0" t="n">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="H149" s="0" t="n">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="I149" s="0" t="n">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="J149" s="0" t="n">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="K149" s="0" t="n">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="L149" s="0" t="n">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5844,25 +5844,25 @@
         <v>0</v>
       </c>
       <c r="F150" s="0" t="n">
-        <v>0.110416666666667</v>
+        <v>0.119791666666667</v>
       </c>
       <c r="G150" s="0" t="n">
-        <v>0.282142857142857</v>
+        <v>0.351587301587302</v>
       </c>
       <c r="H150" s="0" t="n">
-        <v>0.487870309837222</v>
+        <v>0.590532731157731</v>
       </c>
       <c r="I150" s="0" t="n">
-        <v>0.558543822371199</v>
+        <v>0.631252428127428</v>
       </c>
       <c r="J150" s="0" t="n">
-        <v>0.558543822371199</v>
+        <v>0.645538142413142</v>
       </c>
       <c r="K150" s="0" t="n">
-        <v>0.558543822371199</v>
+        <v>0.645538142413142</v>
       </c>
       <c r="L150" s="0" t="n">
-        <v>0.558543822371199</v>
+        <v>0.645538142413142</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5885,22 +5885,22 @@
         <v>0.277777777777778</v>
       </c>
       <c r="G151" s="0" t="n">
-        <v>0.488271604938272</v>
+        <v>0.555555555555556</v>
       </c>
       <c r="H151" s="0" t="n">
-        <v>0.708824418138144</v>
+        <v>0.807498982498982</v>
       </c>
       <c r="I151" s="0" t="n">
-        <v>0.780722803990018</v>
+        <v>0.84868865702199</v>
       </c>
       <c r="J151" s="0" t="n">
-        <v>0.780722803990018</v>
+        <v>0.862974371307705</v>
       </c>
       <c r="K151" s="0" t="n">
-        <v>0.780722803990018</v>
+        <v>0.862974371307705</v>
       </c>
       <c r="L151" s="0" t="n">
-        <v>0.780722803990018</v>
+        <v>0.862974371307705</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5917,28 +5917,28 @@
         <v>10</v>
       </c>
       <c r="E152" s="0" t="n">
-        <v>0.0263157894736842</v>
+        <v>0</v>
       </c>
       <c r="F152" s="0" t="n">
-        <v>0.105263157894737</v>
+        <v>0.0464912280701754</v>
       </c>
       <c r="G152" s="0" t="n">
-        <v>0.12406015037594</v>
+        <v>0.0713450292397661</v>
       </c>
       <c r="H152" s="0" t="n">
-        <v>0.171894657592598</v>
+        <v>0.0818713450292398</v>
       </c>
       <c r="I152" s="0" t="n">
-        <v>0.234134192664125</v>
+        <v>0.0961907403555001</v>
       </c>
       <c r="J152" s="0" t="n">
-        <v>0.258569463848622</v>
+        <v>0.108150073154251</v>
       </c>
       <c r="K152" s="0" t="n">
-        <v>0.297683200480716</v>
+        <v>0.148739990143969</v>
       </c>
       <c r="L152" s="0" t="n">
-        <v>0.30005538151413</v>
+        <v>0.154622961312095</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5955,28 +5955,28 @@
         <v>10</v>
       </c>
       <c r="E153" s="0" t="n">
-        <v>0</v>
+        <v>0.0526315789473684</v>
       </c>
       <c r="F153" s="0" t="n">
-        <v>0.0105263157894737</v>
+        <v>0.0526315789473684</v>
       </c>
       <c r="G153" s="0" t="n">
-        <v>0.0280701754385965</v>
+        <v>0.0701754385964912</v>
       </c>
       <c r="H153" s="0" t="n">
-        <v>0.112913458230796</v>
+        <v>0.0701754385964912</v>
       </c>
       <c r="I153" s="0" t="n">
-        <v>0.112913458230796</v>
+        <v>0.0758145363408521</v>
       </c>
       <c r="J153" s="0" t="n">
-        <v>0.127477379996934</v>
+        <v>0.100744141346401</v>
       </c>
       <c r="K153" s="0" t="n">
-        <v>0.14841255197891</v>
+        <v>0.103285684078459</v>
       </c>
       <c r="L153" s="0" t="n">
-        <v>0.149556716738636</v>
+        <v>0.104397618844952</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5996,25 +5996,25 @@
         <v>0.0175438596491228</v>
       </c>
       <c r="F154" s="0" t="n">
-        <v>0.087719298245614</v>
+        <v>0.0666666666666667</v>
       </c>
       <c r="G154" s="0" t="n">
-        <v>0.12280701754386</v>
+        <v>0.105263157894737</v>
       </c>
       <c r="H154" s="0" t="n">
-        <v>0.240958584746443</v>
+        <v>0.114619883040936</v>
       </c>
       <c r="I154" s="0" t="n">
-        <v>0.306176468559704</v>
+        <v>0.133398714176746</v>
       </c>
       <c r="J154" s="0" t="n">
-        <v>0.344359724178188</v>
+        <v>0.167694895222326</v>
       </c>
       <c r="K154" s="0" t="n">
-        <v>0.403409361348568</v>
+        <v>0.211101689123667</v>
       </c>
       <c r="L154" s="0" t="n">
-        <v>0.406894275691084</v>
+        <v>0.217809343046153</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6034,25 +6034,25 @@
         <v>0.04</v>
       </c>
       <c r="F155" s="0" t="n">
-        <v>0.0906666666666667</v>
+        <v>0.0666666666666667</v>
       </c>
       <c r="G155" s="0" t="n">
-        <v>0.137333333333333</v>
+        <v>0.096</v>
       </c>
       <c r="H155" s="0" t="n">
-        <v>0.188746376811594</v>
+        <v>0.15927812284334</v>
       </c>
       <c r="I155" s="0" t="n">
-        <v>0.25695927492181</v>
+        <v>0.214218904284122</v>
       </c>
       <c r="J155" s="0" t="n">
-        <v>0.284047548966605</v>
+        <v>0.258482694637749</v>
       </c>
       <c r="K155" s="0" t="n">
-        <v>0.305617069524806</v>
+        <v>0.279532278037794</v>
       </c>
       <c r="L155" s="0" t="n">
-        <v>0.308240760905847</v>
+        <v>0.279532278037794</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6075,22 +6075,22 @@
         <v>0</v>
       </c>
       <c r="G156" s="0" t="n">
-        <v>0.0115546218487395</v>
+        <v>0.0133053221288515</v>
       </c>
       <c r="H156" s="0" t="n">
-        <v>0.0167449332674246</v>
+        <v>0.0254402460284813</v>
       </c>
       <c r="I156" s="0" t="n">
-        <v>0.0240807347208731</v>
+        <v>0.0386155047568463</v>
       </c>
       <c r="J156" s="0" t="n">
-        <v>0.0403638746841762</v>
+        <v>0.0491457954199116</v>
       </c>
       <c r="K156" s="0" t="n">
-        <v>0.0690203387480835</v>
+        <v>0.0702002844884483</v>
       </c>
       <c r="L156" s="0" t="n">
-        <v>0.072738549338466</v>
+        <v>0.0726718778702046</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6110,25 +6110,25 @@
         <v>0.0169491525423729</v>
       </c>
       <c r="F157" s="0" t="n">
-        <v>0.0384180790960452</v>
+        <v>0.0282485875706215</v>
       </c>
       <c r="G157" s="0" t="n">
-        <v>0.0864003228410008</v>
+        <v>0.0659940812483185</v>
       </c>
       <c r="H157" s="0" t="n">
-        <v>0.12530986233845</v>
+        <v>0.123941026630783</v>
       </c>
       <c r="I157" s="0" t="n">
-        <v>0.178656053015782</v>
+        <v>0.179640175406636</v>
       </c>
       <c r="J157" s="0" t="n">
-        <v>0.223377452409455</v>
+        <v>0.224795058702241</v>
       </c>
       <c r="K157" s="0" t="n">
-        <v>0.276549016152586</v>
+        <v>0.268169845144318</v>
       </c>
       <c r="L157" s="0" t="n">
-        <v>0.283001168818856</v>
+        <v>0.271051629841299</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6145,28 +6145,28 @@
         <v>10</v>
       </c>
       <c r="E158" s="0" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F158" s="0" t="n">
-        <v>0.1</v>
+        <v>0.226666666666667</v>
       </c>
       <c r="G158" s="0" t="n">
-        <v>0.142857142857143</v>
+        <v>0.293333333333333</v>
       </c>
       <c r="H158" s="0" t="n">
-        <v>0.224411027568922</v>
+        <v>0.388214285714286</v>
       </c>
       <c r="I158" s="0" t="n">
-        <v>0.273866365259554</v>
+        <v>0.438565162907268</v>
       </c>
       <c r="J158" s="0" t="n">
-        <v>0.282957274350463</v>
+        <v>0.438565162907268</v>
       </c>
       <c r="K158" s="0" t="n">
-        <v>0.285554676947866</v>
+        <v>0.446317100891764</v>
       </c>
       <c r="L158" s="0" t="n">
-        <v>0.285554676947866</v>
+        <v>0.446317100891764</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6183,28 +6183,28 @@
         <v>10</v>
       </c>
       <c r="E159" s="0" t="n">
-        <v>0.0357142857142857</v>
+        <v>0</v>
       </c>
       <c r="F159" s="0" t="n">
-        <v>0.0595238095238095</v>
+        <v>0.0178571428571429</v>
       </c>
       <c r="G159" s="0" t="n">
-        <v>0.0952380952380952</v>
+        <v>0.0267857142857143</v>
       </c>
       <c r="H159" s="0" t="n">
-        <v>0.124076903488668</v>
+        <v>0.0540382819794585</v>
       </c>
       <c r="I159" s="0" t="n">
-        <v>0.199262413665488</v>
+        <v>0.0762050041461806</v>
       </c>
       <c r="J159" s="0" t="n">
-        <v>0.223869243239422</v>
+        <v>0.086561314502491</v>
       </c>
       <c r="K159" s="0" t="n">
-        <v>0.251391179480726</v>
+        <v>0.116648576715584</v>
       </c>
       <c r="L159" s="0" t="n">
-        <v>0.252441599648794</v>
+        <v>0.12291744919216</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6224,25 +6224,25 @@
         <v>0.0263157894736842</v>
       </c>
       <c r="F160" s="0" t="n">
-        <v>0.105263157894737</v>
+        <v>0.1</v>
       </c>
       <c r="G160" s="0" t="n">
-        <v>0.172775689223058</v>
+        <v>0.141666666666667</v>
       </c>
       <c r="H160" s="0" t="n">
-        <v>0.253456846097794</v>
+        <v>0.228238488377807</v>
       </c>
       <c r="I160" s="0" t="n">
-        <v>0.376083933630762</v>
+        <v>0.286660660234882</v>
       </c>
       <c r="J160" s="0" t="n">
-        <v>0.410258539803291</v>
+        <v>0.301523867203352</v>
       </c>
       <c r="K160" s="0" t="n">
-        <v>0.441767879981511</v>
+        <v>0.343102137250755</v>
       </c>
       <c r="L160" s="0" t="n">
-        <v>0.442828538162912</v>
+        <v>0.349704922675097</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6262,25 +6262,25 @@
         <v>0</v>
       </c>
       <c r="F161" s="0" t="n">
-        <v>0</v>
+        <v>0.0208333333333333</v>
       </c>
       <c r="G161" s="0" t="n">
-        <v>0.0119047619047619</v>
+        <v>0.0736111111111111</v>
       </c>
       <c r="H161" s="0" t="n">
-        <v>0.0325782486907807</v>
+        <v>0.114781746031746</v>
       </c>
       <c r="I161" s="0" t="n">
-        <v>0.067849023667438</v>
+        <v>0.114781746031746</v>
       </c>
       <c r="J161" s="0" t="n">
-        <v>0.0772576258179756</v>
+        <v>0.127480926284118</v>
       </c>
       <c r="K161" s="0" t="n">
-        <v>0.0896649052916943</v>
+        <v>0.147305401462459</v>
       </c>
       <c r="L161" s="0" t="n">
-        <v>0.0925416952525805</v>
+        <v>0.147305401462459</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6297,28 +6297,28 @@
         <v>10</v>
       </c>
       <c r="E162" s="0" t="n">
-        <v>0.0303030303030303</v>
+        <v>0</v>
       </c>
       <c r="F162" s="0" t="n">
-        <v>0.0909090909090909</v>
+        <v>0.00606060606060606</v>
       </c>
       <c r="G162" s="0" t="n">
-        <v>0.130050505050505</v>
+        <v>0.0147186147186147</v>
       </c>
       <c r="H162" s="0" t="n">
-        <v>0.166322314049587</v>
+        <v>0.0349425936382458</v>
       </c>
       <c r="I162" s="0" t="n">
-        <v>0.191674030890665</v>
+        <v>0.0446044293870381</v>
       </c>
       <c r="J162" s="0" t="n">
-        <v>0.198408037624672</v>
+        <v>0.0470286718112805</v>
       </c>
       <c r="K162" s="0" t="n">
-        <v>0.204452947370864</v>
+        <v>0.0648103604316073</v>
       </c>
       <c r="L162" s="0" t="n">
-        <v>0.207806687407838</v>
+        <v>0.066755691850177</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6335,28 +6335,28 @@
         <v>10</v>
       </c>
       <c r="E163" s="0" t="n">
-        <v>0.0222222222222222</v>
+        <v>0</v>
       </c>
       <c r="F163" s="0" t="n">
-        <v>0.0666666666666667</v>
+        <v>0.0144444444444445</v>
       </c>
       <c r="G163" s="0" t="n">
-        <v>0.114021164021164</v>
+        <v>0.0493650793650794</v>
       </c>
       <c r="H163" s="0" t="n">
-        <v>0.167694482272487</v>
+        <v>0.0983252818035427</v>
       </c>
       <c r="I163" s="0" t="n">
-        <v>0.221781291027632</v>
+        <v>0.110912506709608</v>
       </c>
       <c r="J163" s="0" t="n">
-        <v>0.235998734277333</v>
+        <v>0.12130733646614</v>
       </c>
       <c r="K163" s="0" t="n">
-        <v>0.251357234208212</v>
+        <v>0.155750223499738</v>
       </c>
       <c r="L163" s="0" t="n">
-        <v>0.257260983275326</v>
+        <v>0.158156842598915</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6373,28 +6373,28 @@
         <v>10</v>
       </c>
       <c r="E164" s="0" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F164" s="0" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G164" s="0" t="n">
-        <v>0.0166666666666667</v>
+        <v>0.12</v>
       </c>
       <c r="H164" s="0" t="n">
-        <v>0.0333333333333333</v>
+        <v>0.12</v>
       </c>
       <c r="I164" s="0" t="n">
-        <v>0.040650406504065</v>
+        <v>0.12625</v>
       </c>
       <c r="J164" s="0" t="n">
-        <v>0.045650406504065</v>
+        <v>0.12625</v>
       </c>
       <c r="K164" s="0" t="n">
-        <v>0.0468352406272878</v>
+        <v>0.133134578544061</v>
       </c>
       <c r="L164" s="0" t="n">
-        <v>0.0475193911404007</v>
+        <v>0.133134578544061</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6411,28 +6411,28 @@
         <v>10</v>
       </c>
       <c r="E165" s="0" t="n">
-        <v>0.0526315789473684</v>
+        <v>0</v>
       </c>
       <c r="F165" s="0" t="n">
-        <v>0.105263157894737</v>
+        <v>0</v>
       </c>
       <c r="G165" s="0" t="n">
-        <v>0.105263157894737</v>
+        <v>0.0394736842105263</v>
       </c>
       <c r="H165" s="0" t="n">
-        <v>0.125657894736842</v>
+        <v>0.0586124401913876</v>
       </c>
       <c r="I165" s="0" t="n">
-        <v>0.13277027027027</v>
+        <v>0.067384370015949</v>
       </c>
       <c r="J165" s="0" t="n">
-        <v>0.141945106094007</v>
+        <v>0.0773744756621141</v>
       </c>
       <c r="K165" s="0" t="n">
-        <v>0.144910265471323</v>
+        <v>0.0796335006521151</v>
       </c>
       <c r="L165" s="0" t="n">
-        <v>0.14618446003961</v>
+        <v>0.0803940726022216</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6452,25 +6452,25 @@
         <v>0.0344827586206897</v>
       </c>
       <c r="F166" s="0" t="n">
-        <v>0.0689655172413793</v>
+        <v>0.0344827586206897</v>
       </c>
       <c r="G166" s="0" t="n">
-        <v>0.0862068965517241</v>
+        <v>0.0914750957854406</v>
       </c>
       <c r="H166" s="0" t="n">
-        <v>0.11882183908046</v>
+        <v>0.110283873214908</v>
       </c>
       <c r="I166" s="0" t="n">
-        <v>0.132073947370415</v>
+        <v>0.124076976663184</v>
       </c>
       <c r="J166" s="0" t="n">
-        <v>0.145613730372223</v>
+        <v>0.133717092930096</v>
       </c>
       <c r="K166" s="0" t="n">
-        <v>0.149590031387993</v>
+        <v>0.142199861904116</v>
       </c>
       <c r="L166" s="0" t="n">
-        <v>0.151495299230745</v>
+        <v>0.142997151120779</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6490,25 +6490,25 @@
         <v>0</v>
       </c>
       <c r="F167" s="0" t="n">
-        <v>0</v>
+        <v>0.0178571428571429</v>
       </c>
       <c r="G167" s="0" t="n">
-        <v>0.0261904761904762</v>
+        <v>0.0178571428571429</v>
       </c>
       <c r="H167" s="0" t="n">
-        <v>0.0414965986394558</v>
+        <v>0.0178571428571429</v>
       </c>
       <c r="I167" s="0" t="n">
-        <v>0.099942535201133</v>
+        <v>0.029531490015361</v>
       </c>
       <c r="J167" s="0" t="n">
-        <v>0.132323349550145</v>
+        <v>0.0333410138248848</v>
       </c>
       <c r="K167" s="0" t="n">
-        <v>0.140565107791903</v>
+        <v>0.0420055420002786</v>
       </c>
       <c r="L167" s="0" t="n">
-        <v>0.143230430440823</v>
+        <v>0.0439263217015263</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6525,28 +6525,28 @@
         <v>10</v>
       </c>
       <c r="E168" s="0" t="n">
-        <v>0.0588235294117647</v>
+        <v>0</v>
       </c>
       <c r="F168" s="0" t="n">
-        <v>0.161764705882353</v>
+        <v>0</v>
       </c>
       <c r="G168" s="0" t="n">
-        <v>0.161764705882353</v>
+        <v>0</v>
       </c>
       <c r="H168" s="0" t="n">
-        <v>0.248347093223254</v>
+        <v>0</v>
       </c>
       <c r="I168" s="0" t="n">
-        <v>0.248347093223254</v>
+        <v>0.00524273880675265</v>
       </c>
       <c r="J168" s="0" t="n">
-        <v>0.25833599444412</v>
+        <v>0.0106746882614725</v>
       </c>
       <c r="K168" s="0" t="n">
-        <v>0.263545500824272</v>
+        <v>0.0165383410407238</v>
       </c>
       <c r="L168" s="0" t="n">
-        <v>0.263545500824272</v>
+        <v>0.01759235699884</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6563,28 +6563,28 @@
         <v>10</v>
       </c>
       <c r="E169" s="0" t="n">
-        <v>0.032258064516129</v>
+        <v>0</v>
       </c>
       <c r="F169" s="0" t="n">
-        <v>0.0887096774193548</v>
+        <v>0.00806451612903226</v>
       </c>
       <c r="G169" s="0" t="n">
-        <v>0.126344086021505</v>
+        <v>0.00806451612903226</v>
       </c>
       <c r="H169" s="0" t="n">
-        <v>0.212474196243296</v>
+        <v>0.00806451612903226</v>
       </c>
       <c r="I169" s="0" t="n">
-        <v>0.275879062987748</v>
+        <v>0.0219907033856963</v>
       </c>
       <c r="J169" s="0" t="n">
-        <v>0.314166103071392</v>
+        <v>0.0309590780564644</v>
       </c>
       <c r="K169" s="0" t="n">
-        <v>0.326804147020706</v>
+        <v>0.044525470524638</v>
       </c>
       <c r="L169" s="0" t="n">
-        <v>0.328990764438633</v>
+        <v>0.0472995899649996</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6610,19 +6610,19 @@
         <v>0</v>
       </c>
       <c r="H170" s="0" t="n">
-        <v>0.0340579710144928</v>
+        <v>0.0335526315789474</v>
       </c>
       <c r="I170" s="0" t="n">
-        <v>0.0522397891963109</v>
+        <v>0.0535526315789474</v>
       </c>
       <c r="J170" s="0" t="n">
-        <v>0.0522397891963109</v>
+        <v>0.0643634423897582</v>
       </c>
       <c r="K170" s="0" t="n">
-        <v>0.0581811042530683</v>
+        <v>0.0737974046539091</v>
       </c>
       <c r="L170" s="0" t="n">
-        <v>0.0581811042530683</v>
+        <v>0.0737974046539091</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6645,22 +6645,22 @@
         <v>0.2</v>
       </c>
       <c r="G171" s="0" t="n">
-        <v>0.328273809523809</v>
+        <v>0.352103174603175</v>
       </c>
       <c r="H171" s="0" t="n">
-        <v>0.532758184797658</v>
+        <v>0.562732762406675</v>
       </c>
       <c r="I171" s="0" t="n">
-        <v>0.639748807763362</v>
+        <v>0.63518978997192</v>
       </c>
       <c r="J171" s="0" t="n">
-        <v>0.663714377077769</v>
+        <v>0.677271089287262</v>
       </c>
       <c r="K171" s="0" t="n">
-        <v>0.663714377077769</v>
+        <v>0.677271089287262</v>
       </c>
       <c r="L171" s="0" t="n">
-        <v>0.663714377077769</v>
+        <v>0.677271089287262</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6683,22 +6683,22 @@
         <v>0.16</v>
       </c>
       <c r="G172" s="0" t="n">
-        <v>0.262619047619048</v>
+        <v>0.28168253968254</v>
       </c>
       <c r="H172" s="0" t="n">
-        <v>0.494817681936675</v>
+        <v>0.518842415657061</v>
       </c>
       <c r="I172" s="0" t="n">
-        <v>0.615853212231919</v>
+        <v>0.61031032607875</v>
       </c>
       <c r="J172" s="0" t="n">
-        <v>0.637979458079095</v>
+        <v>0.66219650570961</v>
       </c>
       <c r="K172" s="0" t="n">
-        <v>0.644616425309765</v>
+        <v>0.671630467973761</v>
       </c>
       <c r="L172" s="0" t="n">
-        <v>0.644616425309765</v>
+        <v>0.671630467973761</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6715,28 +6715,28 @@
         <v>10</v>
       </c>
       <c r="E173" s="0" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="F173" s="0" t="n">
-        <v>0.125</v>
+        <v>0.0625</v>
       </c>
       <c r="G173" s="0" t="n">
-        <v>0.125</v>
+        <v>0.0625</v>
       </c>
       <c r="H173" s="0" t="n">
-        <v>0.125</v>
+        <v>0.0625</v>
       </c>
       <c r="I173" s="0" t="n">
-        <v>0.125</v>
+        <v>0.0625</v>
       </c>
       <c r="J173" s="0" t="n">
-        <v>0.125</v>
+        <v>0.0625</v>
       </c>
       <c r="K173" s="0" t="n">
-        <v>0.131363102232668</v>
+        <v>0.0630050505050505</v>
       </c>
       <c r="L173" s="0" t="n">
-        <v>0.132050670989543</v>
+        <v>0.0637403446226976</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6753,28 +6753,28 @@
         <v>10</v>
       </c>
       <c r="E174" s="0" t="n">
-        <v>0</v>
+        <v>0.0238095238095238</v>
       </c>
       <c r="F174" s="0" t="n">
-        <v>0.0646825396825397</v>
+        <v>0.0765873015873016</v>
       </c>
       <c r="G174" s="0" t="n">
-        <v>0.13994708994709</v>
+        <v>0.132804232804233</v>
       </c>
       <c r="H174" s="0" t="n">
-        <v>0.193637566137566</v>
+        <v>0.178635385778243</v>
       </c>
       <c r="I174" s="0" t="n">
-        <v>0.220075002814364</v>
+        <v>0.201201153940144</v>
       </c>
       <c r="J174" s="0" t="n">
-        <v>0.224504681662648</v>
+        <v>0.207049107156518</v>
       </c>
       <c r="K174" s="0" t="n">
-        <v>0.228862784706725</v>
+        <v>0.209775388508754</v>
       </c>
       <c r="L174" s="0" t="n">
-        <v>0.228862784706725</v>
+        <v>0.210348249231991</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6797,22 +6797,22 @@
         <v>0.1</v>
       </c>
       <c r="G175" s="0" t="n">
-        <v>0.173277777777778</v>
+        <v>0.155277777777778</v>
       </c>
       <c r="H175" s="0" t="n">
-        <v>0.222761111111111</v>
+        <v>0.198076312576313</v>
       </c>
       <c r="I175" s="0" t="n">
-        <v>0.246579987270413</v>
+        <v>0.218632703553756</v>
       </c>
       <c r="J175" s="0" t="n">
-        <v>0.250533475642506</v>
+        <v>0.223895861448493</v>
       </c>
       <c r="K175" s="0" t="n">
-        <v>0.261714095406331</v>
+        <v>0.227025478226965</v>
       </c>
       <c r="L175" s="0" t="n">
-        <v>0.262242148211611</v>
+        <v>0.228302789151334</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6835,22 +6835,22 @@
         <v>0.142857142857143</v>
       </c>
       <c r="G176" s="0" t="n">
-        <v>0.233333333333333</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="H176" s="0" t="n">
-        <v>0.233333333333333</v>
+        <v>0.159663865546219</v>
       </c>
       <c r="I176" s="0" t="n">
-        <v>0.250140056022409</v>
+        <v>0.172268907563025</v>
       </c>
       <c r="J176" s="0" t="n">
-        <v>0.250140056022409</v>
+        <v>0.190876350540216</v>
       </c>
       <c r="K176" s="0" t="n">
-        <v>0.262174439711524</v>
+        <v>0.193842242779465</v>
       </c>
       <c r="L176" s="0" t="n">
-        <v>0.262174439711524</v>
+        <v>0.193842242779465</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6870,25 +6870,25 @@
         <v>0</v>
       </c>
       <c r="F177" s="0" t="n">
-        <v>0.0580808080808081</v>
+        <v>0.0222222222222222</v>
       </c>
       <c r="G177" s="0" t="n">
-        <v>0.0900673400673401</v>
+        <v>0.0525252525252525</v>
       </c>
       <c r="H177" s="0" t="n">
-        <v>0.145600025085671</v>
+        <v>0.0597402597402598</v>
       </c>
       <c r="I177" s="0" t="n">
-        <v>0.164179427180632</v>
+        <v>0.0771709771709772</v>
       </c>
       <c r="J177" s="0" t="n">
-        <v>0.188750053809578</v>
+        <v>0.0962207323453457</v>
       </c>
       <c r="K177" s="0" t="n">
-        <v>0.202911722496852</v>
+        <v>0.11258449437563</v>
       </c>
       <c r="L177" s="0" t="n">
-        <v>0.202911722496852</v>
+        <v>0.113347087191203</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6908,25 +6908,25 @@
         <v>0.025</v>
       </c>
       <c r="F178" s="0" t="n">
-        <v>0.1</v>
+        <v>0.0566666666666667</v>
       </c>
       <c r="G178" s="0" t="n">
-        <v>0.179027777777778</v>
+        <v>0.0889583333333333</v>
       </c>
       <c r="H178" s="0" t="n">
-        <v>0.243866721728564</v>
+        <v>0.106115196078431</v>
       </c>
       <c r="I178" s="0" t="n">
-        <v>0.274514077390761</v>
+        <v>0.132488642893055</v>
       </c>
       <c r="J178" s="0" t="n">
-        <v>0.300892416033251</v>
+        <v>0.164629917468874</v>
       </c>
       <c r="K178" s="0" t="n">
-        <v>0.324301661014965</v>
+        <v>0.184685965804035</v>
       </c>
       <c r="L178" s="0" t="n">
-        <v>0.324301661014965</v>
+        <v>0.185513780373571</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6946,25 +6946,25 @@
         <v>0.5</v>
       </c>
       <c r="F179" s="0" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="G179" s="0" t="n">
-        <v>0.666666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="H179" s="0" t="n">
-        <v>0.666666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="I179" s="0" t="n">
-        <v>0.666666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="J179" s="0" t="n">
-        <v>0.666666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="K179" s="0" t="n">
-        <v>0.666666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="L179" s="0" t="n">
-        <v>0.666666666666667</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6984,25 +6984,25 @@
         <v>0</v>
       </c>
       <c r="F180" s="0" t="n">
-        <v>0.169791666666667</v>
+        <v>0.110416666666667</v>
       </c>
       <c r="G180" s="0" t="n">
-        <v>0.299851190476191</v>
+        <v>0.342212301587302</v>
       </c>
       <c r="H180" s="0" t="n">
-        <v>0.566463744588745</v>
+        <v>0.55436326323054</v>
       </c>
       <c r="I180" s="0" t="n">
-        <v>0.610126636574807</v>
+        <v>0.57186326323054</v>
       </c>
       <c r="J180" s="0" t="n">
-        <v>0.610126636574807</v>
+        <v>0.590245616171717</v>
       </c>
       <c r="K180" s="0" t="n">
-        <v>0.614474462661764</v>
+        <v>0.594962597303792</v>
       </c>
       <c r="L180" s="0" t="n">
-        <v>0.614474462661764</v>
+        <v>0.594962597303792</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7025,22 +7025,22 @@
         <v>0.277777777777778</v>
       </c>
       <c r="G181" s="0" t="n">
-        <v>0.488271604938272</v>
+        <v>0.555555555555556</v>
       </c>
       <c r="H181" s="0" t="n">
-        <v>0.771959676126343</v>
+        <v>0.779416233821268</v>
       </c>
       <c r="I181" s="0" t="n">
-        <v>0.816126665415283</v>
+        <v>0.797194011599046</v>
       </c>
       <c r="J181" s="0" t="n">
-        <v>0.816126665415283</v>
+        <v>0.815712530117565</v>
       </c>
       <c r="K181" s="0" t="n">
-        <v>0.82047449150224</v>
+        <v>0.82042951124964</v>
       </c>
       <c r="L181" s="0" t="n">
-        <v>0.82047449150224</v>
+        <v>0.82042951124964</v>
       </c>
     </row>
   </sheetData>

--- a/all_BM25.xlsx
+++ b/all_BM25.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Fscore" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="16">
   <si>
     <t xml:space="preserve">Query</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t xml:space="preserve">stem100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stem</t>
   </si>
 </sst>
 </file>
@@ -164,7 +167,7 @@
   </sheetPr>
   <dimension ref="A1:L541"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A211" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F388" activeCellId="0" sqref="F388"/>
     </sheetView>
   </sheetViews>
@@ -20754,8 +20757,8 @@
   </sheetPr>
   <dimension ref="A1:L181"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L31" activeCellId="0" sqref="L31"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A160" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A62" activeCellId="0" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -23097,31 +23100,31 @@
         <v>13</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>0</v>
+        <v>0.0263157894736842</v>
       </c>
       <c r="F62" s="0" t="n">
-        <v>0.0421052631578947</v>
+        <v>0.105263157894737</v>
       </c>
       <c r="G62" s="0" t="n">
-        <v>0.0526315789473684</v>
+        <v>0.12406015037594</v>
       </c>
       <c r="H62" s="0" t="n">
-        <v>0.08170667052246</v>
+        <v>0.171894657592598</v>
       </c>
       <c r="I62" s="0" t="n">
-        <v>0.101302712205921</v>
+        <v>0.234134192664125</v>
       </c>
       <c r="J62" s="0" t="n">
-        <v>0.128048919496602</v>
+        <v>0.258569463848622</v>
       </c>
       <c r="K62" s="0" t="n">
-        <v>0.160248843799198</v>
+        <v>0.297683200480716</v>
       </c>
       <c r="L62" s="0" t="n">
-        <v>0.162684392222183</v>
+        <v>0.30005538151413</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23135,31 +23138,31 @@
         <v>13</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>0.0526315789473684</v>
+        <v>0</v>
       </c>
       <c r="F63" s="0" t="n">
-        <v>0.0526315789473684</v>
+        <v>0.0105263157894737</v>
       </c>
       <c r="G63" s="0" t="n">
-        <v>0.0676691729323308</v>
+        <v>0.0280701754385965</v>
       </c>
       <c r="H63" s="0" t="n">
-        <v>0.0764411027568922</v>
+        <v>0.112913458230796</v>
       </c>
       <c r="I63" s="0" t="n">
-        <v>0.0764411027568922</v>
+        <v>0.112913458230796</v>
       </c>
       <c r="J63" s="0" t="n">
-        <v>0.088276273031264</v>
+        <v>0.127477379996934</v>
       </c>
       <c r="K63" s="0" t="n">
-        <v>0.0992877917069703</v>
+        <v>0.14841255197891</v>
       </c>
       <c r="L63" s="0" t="n">
-        <v>0.100446652160857</v>
+        <v>0.149556716738636</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23173,31 +23176,31 @@
         <v>13</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E64" s="0" t="n">
         <v>0.0175438596491228</v>
       </c>
       <c r="F64" s="0" t="n">
-        <v>0.062280701754386</v>
+        <v>0.087719298245614</v>
       </c>
       <c r="G64" s="0" t="n">
-        <v>0.0853383458646616</v>
+        <v>0.12280701754386</v>
       </c>
       <c r="H64" s="0" t="n">
-        <v>0.120891973523552</v>
+        <v>0.240958584746443</v>
       </c>
       <c r="I64" s="0" t="n">
-        <v>0.138392984817362</v>
+        <v>0.306176468559704</v>
       </c>
       <c r="J64" s="0" t="n">
-        <v>0.17617534956463</v>
+        <v>0.344359724178188</v>
       </c>
       <c r="K64" s="0" t="n">
-        <v>0.218243509063759</v>
+        <v>0.403409361348568</v>
       </c>
       <c r="L64" s="0" t="n">
-        <v>0.221815520452381</v>
+        <v>0.406894275691084</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23211,7 +23214,7 @@
         <v>13</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E65" s="0" t="n">
         <v>0.04</v>
@@ -23220,22 +23223,22 @@
         <v>0.0906666666666667</v>
       </c>
       <c r="G65" s="0" t="n">
-        <v>0.135746031746032</v>
+        <v>0.137333333333333</v>
       </c>
       <c r="H65" s="0" t="n">
-        <v>0.171555555555555</v>
+        <v>0.188746376811594</v>
       </c>
       <c r="I65" s="0" t="n">
-        <v>0.22455439154294</v>
+        <v>0.25695927492181</v>
       </c>
       <c r="J65" s="0" t="n">
-        <v>0.255259873195791</v>
+        <v>0.284047548966605</v>
       </c>
       <c r="K65" s="0" t="n">
-        <v>0.286402562487254</v>
+        <v>0.305617069524806</v>
       </c>
       <c r="L65" s="0" t="n">
-        <v>0.288292326266781</v>
+        <v>0.308240760905847</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23249,7 +23252,7 @@
         <v>13</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E66" s="0" t="n">
         <v>0</v>
@@ -23258,22 +23261,22 @@
         <v>0</v>
       </c>
       <c r="G66" s="0" t="n">
-        <v>0.00490196078431373</v>
+        <v>0.0115546218487395</v>
       </c>
       <c r="H66" s="0" t="n">
-        <v>0.0187405731523379</v>
+        <v>0.0167449332674246</v>
       </c>
       <c r="I66" s="0" t="n">
-        <v>0.0225113122171946</v>
+        <v>0.0240807347208731</v>
       </c>
       <c r="J66" s="0" t="n">
-        <v>0.0385583522296185</v>
+        <v>0.0403638746841762</v>
       </c>
       <c r="K66" s="0" t="n">
-        <v>0.0654102428568329</v>
+        <v>0.0690203387480835</v>
       </c>
       <c r="L66" s="0" t="n">
-        <v>0.067876250762193</v>
+        <v>0.072738549338466</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23287,7 +23290,7 @@
         <v>13</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E67" s="0" t="n">
         <v>0.0169491525423729</v>
@@ -23296,22 +23299,22 @@
         <v>0.0384180790960452</v>
       </c>
       <c r="G67" s="0" t="n">
-        <v>0.0731234866828087</v>
+        <v>0.0864003228410008</v>
       </c>
       <c r="H67" s="0" t="n">
-        <v>0.118347612839138</v>
+        <v>0.12530986233845</v>
       </c>
       <c r="I67" s="0" t="n">
-        <v>0.157299401233734</v>
+        <v>0.178656053015782</v>
       </c>
       <c r="J67" s="0" t="n">
-        <v>0.202611014471808</v>
+        <v>0.223377452409455</v>
       </c>
       <c r="K67" s="0" t="n">
-        <v>0.260123630288215</v>
+        <v>0.276549016152586</v>
       </c>
       <c r="L67" s="0" t="n">
-        <v>0.264532736252176</v>
+        <v>0.283001168818856</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23325,31 +23328,31 @@
         <v>13</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E68" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F68" s="0" t="n">
-        <v>0.0733333333333333</v>
+        <v>0.1</v>
       </c>
       <c r="G68" s="0" t="n">
-        <v>0.0733333333333333</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="H68" s="0" t="n">
-        <v>0.195844155844156</v>
+        <v>0.224411027568922</v>
       </c>
       <c r="I68" s="0" t="n">
-        <v>0.228420987995456</v>
+        <v>0.273866365259554</v>
       </c>
       <c r="J68" s="0" t="n">
-        <v>0.238311097885566</v>
+        <v>0.282957274350463</v>
       </c>
       <c r="K68" s="0" t="n">
-        <v>0.240855627147652</v>
+        <v>0.285554676947866</v>
       </c>
       <c r="L68" s="0" t="n">
-        <v>0.240855627147652</v>
+        <v>0.285554676947866</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23363,31 +23366,31 @@
         <v>13</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E69" s="0" t="n">
         <v>0.0357142857142857</v>
       </c>
       <c r="F69" s="0" t="n">
-        <v>0.0714285714285714</v>
+        <v>0.0595238095238095</v>
       </c>
       <c r="G69" s="0" t="n">
-        <v>0.132015306122449</v>
+        <v>0.0952380952380952</v>
       </c>
       <c r="H69" s="0" t="n">
-        <v>0.153088952972493</v>
+        <v>0.124076903488668</v>
       </c>
       <c r="I69" s="0" t="n">
-        <v>0.187858453658143</v>
+        <v>0.199262413665488</v>
       </c>
       <c r="J69" s="0" t="n">
-        <v>0.211486195661534</v>
+        <v>0.223869243239422</v>
       </c>
       <c r="K69" s="0" t="n">
-        <v>0.242043730479743</v>
+        <v>0.251391179480726</v>
       </c>
       <c r="L69" s="0" t="n">
-        <v>0.246360906606891</v>
+        <v>0.252441599648794</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23401,31 +23404,31 @@
         <v>13</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E70" s="0" t="n">
         <v>0.0263157894736842</v>
       </c>
       <c r="F70" s="0" t="n">
-        <v>0.1</v>
+        <v>0.105263157894737</v>
       </c>
       <c r="G70" s="0" t="n">
-        <v>0.167512531328321</v>
+        <v>0.172775689223058</v>
       </c>
       <c r="H70" s="0" t="n">
-        <v>0.267106047397809</v>
+        <v>0.253456846097794</v>
       </c>
       <c r="I70" s="0" t="n">
-        <v>0.330344079949404</v>
+        <v>0.376083933630762</v>
       </c>
       <c r="J70" s="0" t="n">
-        <v>0.365111934693474</v>
+        <v>0.410258539803291</v>
       </c>
       <c r="K70" s="0" t="n">
-        <v>0.400551716968894</v>
+        <v>0.441767879981511</v>
       </c>
       <c r="L70" s="0" t="n">
-        <v>0.4049620384982</v>
+        <v>0.442828538162912</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23439,31 +23442,31 @@
         <v>13</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E71" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F71" s="0" t="n">
-        <v>0.0166666666666667</v>
+        <v>0</v>
       </c>
       <c r="G71" s="0" t="n">
-        <v>0.0166666666666667</v>
+        <v>0.0119047619047619</v>
       </c>
       <c r="H71" s="0" t="n">
-        <v>0.0294871794871795</v>
+        <v>0.0325782486907807</v>
       </c>
       <c r="I71" s="0" t="n">
-        <v>0.0391025641025641</v>
+        <v>0.067849023667438</v>
       </c>
       <c r="J71" s="0" t="n">
-        <v>0.0541548729048729</v>
+        <v>0.0772576258179756</v>
       </c>
       <c r="K71" s="0" t="n">
-        <v>0.0754802747440111</v>
+        <v>0.0896649052916943</v>
       </c>
       <c r="L71" s="0" t="n">
-        <v>0.0754802747440111</v>
+        <v>0.0925416952525805</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23477,31 +23480,31 @@
         <v>13</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E72" s="0" t="n">
         <v>0.0303030303030303</v>
       </c>
       <c r="F72" s="0" t="n">
-        <v>0.0732323232323232</v>
+        <v>0.0909090909090909</v>
       </c>
       <c r="G72" s="0" t="n">
-        <v>0.0905483405483406</v>
+        <v>0.130050505050505</v>
       </c>
       <c r="H72" s="0" t="n">
-        <v>0.0905483405483406</v>
+        <v>0.166322314049587</v>
       </c>
       <c r="I72" s="0" t="n">
-        <v>0.0905483405483406</v>
+        <v>0.191674030890665</v>
       </c>
       <c r="J72" s="0" t="n">
-        <v>0.100786649875027</v>
+        <v>0.198408037624672</v>
       </c>
       <c r="K72" s="0" t="n">
-        <v>0.112782871452734</v>
+        <v>0.204452947370864</v>
       </c>
       <c r="L72" s="0" t="n">
-        <v>0.113539186684922</v>
+        <v>0.207806687407838</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23515,31 +23518,31 @@
         <v>13</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E73" s="0" t="n">
         <v>0.0222222222222222</v>
       </c>
       <c r="F73" s="0" t="n">
-        <v>0.0714814814814815</v>
+        <v>0.0666666666666667</v>
       </c>
       <c r="G73" s="0" t="n">
-        <v>0.0873544973544974</v>
+        <v>0.114021164021164</v>
       </c>
       <c r="H73" s="0" t="n">
-        <v>0.0976109076109076</v>
+        <v>0.167694482272487</v>
       </c>
       <c r="I73" s="0" t="n">
-        <v>0.103593813593814</v>
+        <v>0.221781291027632</v>
       </c>
       <c r="J73" s="0" t="n">
-        <v>0.125048908990492</v>
+        <v>0.235998734277333</v>
       </c>
       <c r="K73" s="0" t="n">
-        <v>0.15287634092619</v>
+        <v>0.251357234208212</v>
       </c>
       <c r="L73" s="0" t="n">
-        <v>0.153837701621328</v>
+        <v>0.257260983275326</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23553,7 +23556,7 @@
         <v>13</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E74" s="0" t="n">
         <v>0</v>
@@ -23565,19 +23568,19 @@
         <v>0.0166666666666667</v>
       </c>
       <c r="H74" s="0" t="n">
-        <v>0.0261904761904762</v>
+        <v>0.0333333333333333</v>
       </c>
       <c r="I74" s="0" t="n">
-        <v>0.0261904761904762</v>
+        <v>0.040650406504065</v>
       </c>
       <c r="J74" s="0" t="n">
-        <v>0.0370270711024136</v>
+        <v>0.045650406504065</v>
       </c>
       <c r="K74" s="0" t="n">
-        <v>0.0386827002414864</v>
+        <v>0.0468352406272878</v>
       </c>
       <c r="L74" s="0" t="n">
-        <v>0.0396305675400646</v>
+        <v>0.0475193911404007</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23591,31 +23594,31 @@
         <v>13</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E75" s="0" t="n">
         <v>0.0526315789473684</v>
       </c>
       <c r="F75" s="0" t="n">
-        <v>0.087719298245614</v>
+        <v>0.105263157894737</v>
       </c>
       <c r="G75" s="0" t="n">
-        <v>0.087719298245614</v>
+        <v>0.105263157894737</v>
       </c>
       <c r="H75" s="0" t="n">
-        <v>0.0998650472334683</v>
+        <v>0.125657894736842</v>
       </c>
       <c r="I75" s="0" t="n">
-        <v>0.111507790455159</v>
+        <v>0.13277027027027</v>
       </c>
       <c r="J75" s="0" t="n">
-        <v>0.122748238930486</v>
+        <v>0.141945106094007</v>
       </c>
       <c r="K75" s="0" t="n">
-        <v>0.124180390738577</v>
+        <v>0.144910265471323</v>
       </c>
       <c r="L75" s="0" t="n">
-        <v>0.126178682558158</v>
+        <v>0.14618446003961</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23629,31 +23632,31 @@
         <v>13</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E76" s="0" t="n">
         <v>0.0344827586206897</v>
       </c>
       <c r="F76" s="0" t="n">
-        <v>0.0574712643678161</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="G76" s="0" t="n">
-        <v>0.0747126436781609</v>
+        <v>0.0862068965517241</v>
       </c>
       <c r="H76" s="0" t="n">
-        <v>0.0935329038777315</v>
+        <v>0.11882183908046</v>
       </c>
       <c r="I76" s="0" t="n">
-        <v>0.104630082561117</v>
+        <v>0.132073947370415</v>
       </c>
       <c r="J76" s="0" t="n">
-        <v>0.125530340975564</v>
+        <v>0.145613730372223</v>
       </c>
       <c r="K76" s="0" t="n">
-        <v>0.128422157670271</v>
+        <v>0.149590031387993</v>
       </c>
       <c r="L76" s="0" t="n">
-        <v>0.131289817443832</v>
+        <v>0.151495299230745</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23667,7 +23670,7 @@
         <v>13</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E77" s="0" t="n">
         <v>0</v>
@@ -23676,22 +23679,22 @@
         <v>0</v>
       </c>
       <c r="G77" s="0" t="n">
-        <v>0</v>
+        <v>0.0261904761904762</v>
       </c>
       <c r="H77" s="0" t="n">
-        <v>0.0031055900621118</v>
+        <v>0.0414965986394558</v>
       </c>
       <c r="I77" s="0" t="n">
-        <v>0.0031055900621118</v>
+        <v>0.099942535201133</v>
       </c>
       <c r="J77" s="0" t="n">
-        <v>0.00484775034085745</v>
+        <v>0.132323349550145</v>
       </c>
       <c r="K77" s="0" t="n">
-        <v>0.0143322774216591</v>
+        <v>0.140565107791903</v>
       </c>
       <c r="L77" s="0" t="n">
-        <v>0.0153478495272786</v>
+        <v>0.143230430440823</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23705,31 +23708,31 @@
         <v>13</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E78" s="0" t="n">
-        <v>0</v>
+        <v>0.0588235294117647</v>
       </c>
       <c r="F78" s="0" t="n">
-        <v>0</v>
+        <v>0.161764705882353</v>
       </c>
       <c r="G78" s="0" t="n">
-        <v>0</v>
+        <v>0.161764705882353</v>
       </c>
       <c r="H78" s="0" t="n">
-        <v>0.0200980392156863</v>
+        <v>0.248347093223254</v>
       </c>
       <c r="I78" s="0" t="n">
-        <v>0.0288126361655773</v>
+        <v>0.248347093223254</v>
       </c>
       <c r="J78" s="0" t="n">
-        <v>0.0288126361655773</v>
+        <v>0.25833599444412</v>
       </c>
       <c r="K78" s="0" t="n">
-        <v>0.0305280801457397</v>
+        <v>0.263545500824272</v>
       </c>
       <c r="L78" s="0" t="n">
-        <v>0.0315486923083954</v>
+        <v>0.263545500824272</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23743,31 +23746,31 @@
         <v>13</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>0</v>
+        <v>0.032258064516129</v>
       </c>
       <c r="F79" s="0" t="n">
-        <v>0</v>
+        <v>0.0887096774193548</v>
       </c>
       <c r="G79" s="0" t="n">
-        <v>0</v>
+        <v>0.126344086021505</v>
       </c>
       <c r="H79" s="0" t="n">
-        <v>0.0166316035530622</v>
+        <v>0.212474196243296</v>
       </c>
       <c r="I79" s="0" t="n">
-        <v>0.0226053192041972</v>
+        <v>0.275879062987748</v>
       </c>
       <c r="J79" s="0" t="n">
-        <v>0.0249656653883042</v>
+        <v>0.314166103071392</v>
       </c>
       <c r="K79" s="0" t="n">
-        <v>0.0350475399212945</v>
+        <v>0.326804147020706</v>
       </c>
       <c r="L79" s="0" t="n">
-        <v>0.0370432941204469</v>
+        <v>0.328990764438633</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23781,7 +23784,7 @@
         <v>13</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E80" s="0" t="n">
         <v>0</v>
@@ -23790,22 +23793,22 @@
         <v>0</v>
       </c>
       <c r="G80" s="0" t="n">
-        <v>0.0222222222222222</v>
+        <v>0</v>
       </c>
       <c r="H80" s="0" t="n">
-        <v>0.0382222222222222</v>
+        <v>0.0340579710144928</v>
       </c>
       <c r="I80" s="0" t="n">
-        <v>0.0582222222222222</v>
+        <v>0.0522397891963109</v>
       </c>
       <c r="J80" s="0" t="n">
-        <v>0.0582222222222222</v>
+        <v>0.0522397891963109</v>
       </c>
       <c r="K80" s="0" t="n">
-        <v>0.0654940249173659</v>
+        <v>0.0581811042530683</v>
       </c>
       <c r="L80" s="0" t="n">
-        <v>0.0654940249173659</v>
+        <v>0.0581811042530683</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23819,31 +23822,31 @@
         <v>13</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E81" s="0" t="n">
         <v>0.05</v>
       </c>
       <c r="F81" s="0" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="G81" s="0" t="n">
-        <v>0.304166666666667</v>
+        <v>0.328273809523809</v>
       </c>
       <c r="H81" s="0" t="n">
-        <v>0.512998325092147</v>
+        <v>0.532758184797658</v>
       </c>
       <c r="I81" s="0" t="n">
-        <v>0.637922921355485</v>
+        <v>0.639748807763362</v>
       </c>
       <c r="J81" s="0" t="n">
-        <v>0.662606262705493</v>
+        <v>0.663714377077769</v>
       </c>
       <c r="K81" s="0" t="n">
-        <v>0.662606262705493</v>
+        <v>0.663714377077769</v>
       </c>
       <c r="L81" s="0" t="n">
-        <v>0.662606262705493</v>
+        <v>0.663714377077769</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23857,31 +23860,31 @@
         <v>13</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E82" s="0" t="n">
         <v>0.04</v>
       </c>
       <c r="F82" s="0" t="n">
-        <v>0.152</v>
+        <v>0.16</v>
       </c>
       <c r="G82" s="0" t="n">
-        <v>0.278444444444444</v>
+        <v>0.262619047619048</v>
       </c>
       <c r="H82" s="0" t="n">
-        <v>0.486067451490793</v>
+        <v>0.494817681936675</v>
       </c>
       <c r="I82" s="0" t="n">
-        <v>0.626043898704562</v>
+        <v>0.615853212231919</v>
       </c>
       <c r="J82" s="0" t="n">
-        <v>0.648830494824492</v>
+        <v>0.637979458079095</v>
       </c>
       <c r="K82" s="0" t="n">
-        <v>0.656971862737027</v>
+        <v>0.644616425309765</v>
       </c>
       <c r="L82" s="0" t="n">
-        <v>0.656971862737027</v>
+        <v>0.644616425309765</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23895,31 +23898,31 @@
         <v>13</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E83" s="0" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="F83" s="0" t="n">
-        <v>0.0625</v>
+        <v>0.125</v>
       </c>
       <c r="G83" s="0" t="n">
-        <v>0.0625</v>
+        <v>0.125</v>
       </c>
       <c r="H83" s="0" t="n">
-        <v>0.0625</v>
+        <v>0.125</v>
       </c>
       <c r="I83" s="0" t="n">
-        <v>0.0625</v>
+        <v>0.125</v>
       </c>
       <c r="J83" s="0" t="n">
-        <v>0.0625</v>
+        <v>0.125</v>
       </c>
       <c r="K83" s="0" t="n">
-        <v>0.0625</v>
+        <v>0.131363102232668</v>
       </c>
       <c r="L83" s="0" t="n">
-        <v>0.0628090234857849</v>
+        <v>0.132050670989543</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23933,31 +23936,31 @@
         <v>13</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E84" s="0" t="n">
-        <v>0.0238095238095238</v>
+        <v>0</v>
       </c>
       <c r="F84" s="0" t="n">
-        <v>0.0765873015873016</v>
+        <v>0.0646825396825397</v>
       </c>
       <c r="G84" s="0" t="n">
-        <v>0.132804232804233</v>
+        <v>0.13994708994709</v>
       </c>
       <c r="H84" s="0" t="n">
-        <v>0.179135094924569</v>
+        <v>0.193637566137566</v>
       </c>
       <c r="I84" s="0" t="n">
-        <v>0.208733190794216</v>
+        <v>0.220075002814364</v>
       </c>
       <c r="J84" s="0" t="n">
-        <v>0.212609159786464</v>
+        <v>0.224504681662648</v>
       </c>
       <c r="K84" s="0" t="n">
-        <v>0.214638380565685</v>
+        <v>0.228862784706725</v>
       </c>
       <c r="L84" s="0" t="n">
-        <v>0.214638380565685</v>
+        <v>0.228862784706725</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23971,7 +23974,7 @@
         <v>13</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E85" s="0" t="n">
         <v>0.02</v>
@@ -23980,22 +23983,22 @@
         <v>0.1</v>
       </c>
       <c r="G85" s="0" t="n">
-        <v>0.155277777777778</v>
+        <v>0.173277777777778</v>
       </c>
       <c r="H85" s="0" t="n">
-        <v>0.198604976894451</v>
+        <v>0.222761111111111</v>
       </c>
       <c r="I85" s="0" t="n">
-        <v>0.225551263366599</v>
+        <v>0.246579987270413</v>
       </c>
       <c r="J85" s="0" t="n">
-        <v>0.229039635459622</v>
+        <v>0.250533475642506</v>
       </c>
       <c r="K85" s="0" t="n">
-        <v>0.230857817277804</v>
+        <v>0.261714095406331</v>
       </c>
       <c r="L85" s="0" t="n">
-        <v>0.231278089218472</v>
+        <v>0.262242148211611</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24009,31 +24012,31 @@
         <v>13</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E86" s="0" t="n">
-        <v>0</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="F86" s="0" t="n">
-        <v>0.128571428571429</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="G86" s="0" t="n">
-        <v>0.176190476190476</v>
+        <v>0.233333333333333</v>
       </c>
       <c r="H86" s="0" t="n">
-        <v>0.176190476190476</v>
+        <v>0.233333333333333</v>
       </c>
       <c r="I86" s="0" t="n">
-        <v>0.176190476190476</v>
+        <v>0.250140056022409</v>
       </c>
       <c r="J86" s="0" t="n">
-        <v>0.195566502463054</v>
+        <v>0.250140056022409</v>
       </c>
       <c r="K86" s="0" t="n">
-        <v>0.197927777551602</v>
+        <v>0.262174439711524</v>
       </c>
       <c r="L86" s="0" t="n">
-        <v>0.197927777551602</v>
+        <v>0.262174439711524</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24047,31 +24050,31 @@
         <v>13</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E87" s="0" t="n">
-        <v>0.0303030303030303</v>
+        <v>0</v>
       </c>
       <c r="F87" s="0" t="n">
-        <v>0.0732323232323232</v>
+        <v>0.0580808080808081</v>
       </c>
       <c r="G87" s="0" t="n">
-        <v>0.108585858585859</v>
+        <v>0.0900673400673401</v>
       </c>
       <c r="H87" s="0" t="n">
-        <v>0.13475665748393</v>
+        <v>0.145600025085671</v>
       </c>
       <c r="I87" s="0" t="n">
-        <v>0.167912895185622</v>
+        <v>0.164179427180632</v>
       </c>
       <c r="J87" s="0" t="n">
-        <v>0.194296486528101</v>
+        <v>0.188750053809578</v>
       </c>
       <c r="K87" s="0" t="n">
-        <v>0.208373555292669</v>
+        <v>0.202911722496852</v>
       </c>
       <c r="L87" s="0" t="n">
-        <v>0.208373555292669</v>
+        <v>0.202911722496852</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24085,31 +24088,31 @@
         <v>13</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E88" s="0" t="n">
         <v>0.025</v>
       </c>
       <c r="F88" s="0" t="n">
-        <v>0.125</v>
+        <v>0.1</v>
       </c>
       <c r="G88" s="0" t="n">
-        <v>0.189444444444444</v>
+        <v>0.179027777777778</v>
       </c>
       <c r="H88" s="0" t="n">
-        <v>0.221262626262626</v>
+        <v>0.243866721728564</v>
       </c>
       <c r="I88" s="0" t="n">
-        <v>0.257415223665224</v>
+        <v>0.274514077390761</v>
       </c>
       <c r="J88" s="0" t="n">
-        <v>0.298712835875353</v>
+        <v>0.300892416033251</v>
       </c>
       <c r="K88" s="0" t="n">
-        <v>0.315439132530253</v>
+        <v>0.324301661014965</v>
       </c>
       <c r="L88" s="0" t="n">
-        <v>0.315439132530253</v>
+        <v>0.324301661014965</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24123,31 +24126,31 @@
         <v>13</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E89" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="F89" s="0" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="G89" s="0" t="n">
-        <v>0.75</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="H89" s="0" t="n">
-        <v>0.75</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="I89" s="0" t="n">
-        <v>0.75</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="J89" s="0" t="n">
-        <v>0.75</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="K89" s="0" t="n">
-        <v>0.75</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="L89" s="0" t="n">
-        <v>0.75</v>
+        <v>0.666666666666667</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24161,31 +24164,31 @@
         <v>13</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E90" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F90" s="0" t="n">
-        <v>0.110416666666667</v>
+        <v>0.169791666666667</v>
       </c>
       <c r="G90" s="0" t="n">
-        <v>0.282142857142857</v>
+        <v>0.299851190476191</v>
       </c>
       <c r="H90" s="0" t="n">
-        <v>0.487870309837222</v>
+        <v>0.566463744588745</v>
       </c>
       <c r="I90" s="0" t="n">
-        <v>0.558543822371199</v>
+        <v>0.610126636574807</v>
       </c>
       <c r="J90" s="0" t="n">
-        <v>0.558543822371199</v>
+        <v>0.610126636574807</v>
       </c>
       <c r="K90" s="0" t="n">
-        <v>0.558543822371199</v>
+        <v>0.614474462661764</v>
       </c>
       <c r="L90" s="0" t="n">
-        <v>0.558543822371199</v>
+        <v>0.614474462661764</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24199,7 +24202,7 @@
         <v>13</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E91" s="0" t="n">
         <v>0.0555555555555556</v>
@@ -24211,19 +24214,19 @@
         <v>0.488271604938272</v>
       </c>
       <c r="H91" s="0" t="n">
-        <v>0.708824418138144</v>
+        <v>0.771959676126343</v>
       </c>
       <c r="I91" s="0" t="n">
-        <v>0.780722803990018</v>
+        <v>0.816126665415283</v>
       </c>
       <c r="J91" s="0" t="n">
-        <v>0.780722803990018</v>
+        <v>0.816126665415283</v>
       </c>
       <c r="K91" s="0" t="n">
-        <v>0.780722803990018</v>
+        <v>0.82047449150224</v>
       </c>
       <c r="L91" s="0" t="n">
-        <v>0.780722803990018</v>
+        <v>0.82047449150224</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24237,31 +24240,31 @@
         <v>13</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E92" s="0" t="n">
         <v>0.0263157894736842</v>
       </c>
       <c r="F92" s="0" t="n">
-        <v>0.105263157894737</v>
+        <v>0.0552631578947369</v>
       </c>
       <c r="G92" s="0" t="n">
-        <v>0.12406015037594</v>
+        <v>0.0552631578947369</v>
       </c>
       <c r="H92" s="0" t="n">
-        <v>0.171894657592598</v>
+        <v>0.120147529314397</v>
       </c>
       <c r="I92" s="0" t="n">
-        <v>0.234134192664125</v>
+        <v>0.167560422178742</v>
       </c>
       <c r="J92" s="0" t="n">
-        <v>0.258569463848622</v>
+        <v>0.210303989099159</v>
       </c>
       <c r="K92" s="0" t="n">
-        <v>0.297683200480716</v>
+        <v>0.231196837998385</v>
       </c>
       <c r="L92" s="0" t="n">
-        <v>0.30005538151413</v>
+        <v>0.237007364504387</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24275,31 +24278,31 @@
         <v>13</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E93" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F93" s="0" t="n">
-        <v>0.0105263157894737</v>
+        <v>0.0263157894736842</v>
       </c>
       <c r="G93" s="0" t="n">
-        <v>0.0280701754385965</v>
+        <v>0.116123642439432</v>
       </c>
       <c r="H93" s="0" t="n">
-        <v>0.112913458230796</v>
+        <v>0.16546574770259</v>
       </c>
       <c r="I93" s="0" t="n">
-        <v>0.112913458230796</v>
+        <v>0.16546574770259</v>
       </c>
       <c r="J93" s="0" t="n">
-        <v>0.127477379996934</v>
+        <v>0.187132749335108</v>
       </c>
       <c r="K93" s="0" t="n">
-        <v>0.14841255197891</v>
+        <v>0.204807532043288</v>
       </c>
       <c r="L93" s="0" t="n">
-        <v>0.149556716738636</v>
+        <v>0.206458338025032</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24313,31 +24316,31 @@
         <v>13</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E94" s="0" t="n">
         <v>0.0175438596491228</v>
       </c>
       <c r="F94" s="0" t="n">
-        <v>0.087719298245614</v>
+        <v>0.062280701754386</v>
       </c>
       <c r="G94" s="0" t="n">
-        <v>0.12280701754386</v>
+        <v>0.119618490671122</v>
       </c>
       <c r="H94" s="0" t="n">
-        <v>0.240958584746443</v>
+        <v>0.232960052245852</v>
       </c>
       <c r="I94" s="0" t="n">
-        <v>0.306176468559704</v>
+        <v>0.281985633440218</v>
       </c>
       <c r="J94" s="0" t="n">
-        <v>0.344359724178188</v>
+        <v>0.345061673923439</v>
       </c>
       <c r="K94" s="0" t="n">
-        <v>0.403409361348568</v>
+        <v>0.382980158762614</v>
       </c>
       <c r="L94" s="0" t="n">
-        <v>0.406894275691084</v>
+        <v>0.390419259887038</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24351,31 +24354,31 @@
         <v>13</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E95" s="0" t="n">
         <v>0.04</v>
       </c>
       <c r="F95" s="0" t="n">
-        <v>0.0906666666666667</v>
+        <v>0.11</v>
       </c>
       <c r="G95" s="0" t="n">
-        <v>0.137333333333333</v>
+        <v>0.11</v>
       </c>
       <c r="H95" s="0" t="n">
-        <v>0.188746376811594</v>
+        <v>0.177712121212121</v>
       </c>
       <c r="I95" s="0" t="n">
-        <v>0.25695927492181</v>
+        <v>0.250339419541547</v>
       </c>
       <c r="J95" s="0" t="n">
-        <v>0.284047548966605</v>
+        <v>0.279356346886648</v>
       </c>
       <c r="K95" s="0" t="n">
-        <v>0.305617069524806</v>
+        <v>0.300523230322725</v>
       </c>
       <c r="L95" s="0" t="n">
-        <v>0.308240760905847</v>
+        <v>0.305363815304671</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24389,31 +24392,31 @@
         <v>13</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E96" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F96" s="0" t="n">
-        <v>0</v>
+        <v>0.00588235294117647</v>
       </c>
       <c r="G96" s="0" t="n">
-        <v>0.0115546218487395</v>
+        <v>0.0282913165266106</v>
       </c>
       <c r="H96" s="0" t="n">
-        <v>0.0167449332674246</v>
+        <v>0.0282913165266106</v>
       </c>
       <c r="I96" s="0" t="n">
-        <v>0.0240807347208731</v>
+        <v>0.0450691064614639</v>
       </c>
       <c r="J96" s="0" t="n">
-        <v>0.0403638746841762</v>
+        <v>0.0567308350349572</v>
       </c>
       <c r="K96" s="0" t="n">
-        <v>0.0690203387480835</v>
+        <v>0.0822653406710935</v>
       </c>
       <c r="L96" s="0" t="n">
-        <v>0.072738549338466</v>
+        <v>0.083209033656309</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24427,31 +24430,31 @@
         <v>13</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E97" s="0" t="n">
         <v>0.0169491525423729</v>
       </c>
       <c r="F97" s="0" t="n">
-        <v>0.0384180790960452</v>
+        <v>0.0601694915254237</v>
       </c>
       <c r="G97" s="0" t="n">
-        <v>0.0864003228410008</v>
+        <v>0.0888216303470541</v>
       </c>
       <c r="H97" s="0" t="n">
-        <v>0.12530986233845</v>
+        <v>0.132606941081517</v>
       </c>
       <c r="I97" s="0" t="n">
-        <v>0.178656053015782</v>
+        <v>0.20559088070716</v>
       </c>
       <c r="J97" s="0" t="n">
-        <v>0.223377452409455</v>
+        <v>0.242624378407178</v>
       </c>
       <c r="K97" s="0" t="n">
-        <v>0.276549016152586</v>
+        <v>0.29067963326116</v>
       </c>
       <c r="L97" s="0" t="n">
-        <v>0.283001168818856</v>
+        <v>0.295814105192862</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24465,31 +24468,31 @@
         <v>13</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E98" s="0" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F98" s="0" t="n">
-        <v>0.1</v>
+        <v>0.241666666666667</v>
       </c>
       <c r="G98" s="0" t="n">
-        <v>0.142857142857143</v>
+        <v>0.363888888888889</v>
       </c>
       <c r="H98" s="0" t="n">
-        <v>0.224411027568922</v>
+        <v>0.43406432748538</v>
       </c>
       <c r="I98" s="0" t="n">
-        <v>0.273866365259554</v>
+        <v>0.489408242829296</v>
       </c>
       <c r="J98" s="0" t="n">
-        <v>0.282957274350463</v>
+        <v>0.489408242829296</v>
       </c>
       <c r="K98" s="0" t="n">
-        <v>0.285554676947866</v>
+        <v>0.497041830615555</v>
       </c>
       <c r="L98" s="0" t="n">
-        <v>0.285554676947866</v>
+        <v>0.497041830615555</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24503,31 +24506,31 @@
         <v>13</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E99" s="0" t="n">
-        <v>0.0357142857142857</v>
+        <v>0</v>
       </c>
       <c r="F99" s="0" t="n">
-        <v>0.0595238095238095</v>
+        <v>0.0321428571428572</v>
       </c>
       <c r="G99" s="0" t="n">
-        <v>0.0952380952380952</v>
+        <v>0.0321428571428572</v>
       </c>
       <c r="H99" s="0" t="n">
-        <v>0.124076903488668</v>
+        <v>0.0470238095238095</v>
       </c>
       <c r="I99" s="0" t="n">
-        <v>0.199262413665488</v>
+        <v>0.0712154287749034</v>
       </c>
       <c r="J99" s="0" t="n">
-        <v>0.223869243239422</v>
+        <v>0.0938735565421393</v>
       </c>
       <c r="K99" s="0" t="n">
-        <v>0.251391179480726</v>
+        <v>0.12070383672756</v>
       </c>
       <c r="L99" s="0" t="n">
-        <v>0.252441599648794</v>
+        <v>0.124054966643972</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24541,31 +24544,31 @@
         <v>13</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E100" s="0" t="n">
         <v>0.0263157894736842</v>
       </c>
       <c r="F100" s="0" t="n">
-        <v>0.105263157894737</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="G100" s="0" t="n">
-        <v>0.172775689223058</v>
+        <v>0.178362573099415</v>
       </c>
       <c r="H100" s="0" t="n">
-        <v>0.253456846097794</v>
+        <v>0.234976146506617</v>
       </c>
       <c r="I100" s="0" t="n">
-        <v>0.376083933630762</v>
+        <v>0.299471928052106</v>
       </c>
       <c r="J100" s="0" t="n">
-        <v>0.410258539803291</v>
+        <v>0.330749808474224</v>
       </c>
       <c r="K100" s="0" t="n">
-        <v>0.441767879981511</v>
+        <v>0.367559454115258</v>
       </c>
       <c r="L100" s="0" t="n">
-        <v>0.442828538162912</v>
+        <v>0.371160396059984</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24579,7 +24582,7 @@
         <v>13</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E101" s="0" t="n">
         <v>0</v>
@@ -24588,22 +24591,22 @@
         <v>0</v>
       </c>
       <c r="G101" s="0" t="n">
-        <v>0.0119047619047619</v>
+        <v>0</v>
       </c>
       <c r="H101" s="0" t="n">
-        <v>0.0325782486907807</v>
+        <v>0.0232007575757576</v>
       </c>
       <c r="I101" s="0" t="n">
-        <v>0.067849023667438</v>
+        <v>0.0588790409858958</v>
       </c>
       <c r="J101" s="0" t="n">
-        <v>0.0772576258179756</v>
+        <v>0.0687660466356134</v>
       </c>
       <c r="K101" s="0" t="n">
-        <v>0.0896649052916943</v>
+        <v>0.0827587579966747</v>
       </c>
       <c r="L101" s="0" t="n">
-        <v>0.0925416952525805</v>
+        <v>0.0842358628711209</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24617,31 +24620,31 @@
         <v>13</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E102" s="0" t="n">
         <v>0.0303030303030303</v>
       </c>
       <c r="F102" s="0" t="n">
-        <v>0.0909090909090909</v>
+        <v>0.0787878787878788</v>
       </c>
       <c r="G102" s="0" t="n">
-        <v>0.130050505050505</v>
+        <v>0.0961038961038961</v>
       </c>
       <c r="H102" s="0" t="n">
-        <v>0.166322314049587</v>
+        <v>0.105016552075376</v>
       </c>
       <c r="I102" s="0" t="n">
-        <v>0.191674030890665</v>
+        <v>0.131909237524211</v>
       </c>
       <c r="J102" s="0" t="n">
-        <v>0.198408037624672</v>
+        <v>0.136500605751943</v>
       </c>
       <c r="K102" s="0" t="n">
-        <v>0.204452947370864</v>
+        <v>0.147296485866134</v>
       </c>
       <c r="L102" s="0" t="n">
-        <v>0.207806687407838</v>
+        <v>0.14963858759523</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24655,31 +24658,31 @@
         <v>13</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E103" s="0" t="n">
         <v>0.0222222222222222</v>
       </c>
       <c r="F103" s="0" t="n">
-        <v>0.0666666666666667</v>
+        <v>0.0577777777777778</v>
       </c>
       <c r="G103" s="0" t="n">
-        <v>0.114021164021164</v>
+        <v>0.0704761904761905</v>
       </c>
       <c r="H103" s="0" t="n">
-        <v>0.167694482272487</v>
+        <v>0.0997418866536514</v>
       </c>
       <c r="I103" s="0" t="n">
-        <v>0.221781291027632</v>
+        <v>0.153990686206056</v>
       </c>
       <c r="J103" s="0" t="n">
-        <v>0.235998734277333</v>
+        <v>0.165740957278361</v>
       </c>
       <c r="K103" s="0" t="n">
-        <v>0.251357234208212</v>
+        <v>0.187722467462192</v>
       </c>
       <c r="L103" s="0" t="n">
-        <v>0.257260983275326</v>
+        <v>0.191507780875476</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24693,31 +24696,31 @@
         <v>13</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E104" s="0" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F104" s="0" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G104" s="0" t="n">
-        <v>0.0166666666666667</v>
+        <v>0.1</v>
       </c>
       <c r="H104" s="0" t="n">
-        <v>0.0333333333333333</v>
+        <v>0.118181818181818</v>
       </c>
       <c r="I104" s="0" t="n">
-        <v>0.040650406504065</v>
+        <v>0.118181818181818</v>
       </c>
       <c r="J104" s="0" t="n">
-        <v>0.045650406504065</v>
+        <v>0.122467532467533</v>
       </c>
       <c r="K104" s="0" t="n">
-        <v>0.0468352406272878</v>
+        <v>0.129928721472991</v>
       </c>
       <c r="L104" s="0" t="n">
-        <v>0.0475193911404007</v>
+        <v>0.129928721472991</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24731,31 +24734,31 @@
         <v>13</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E105" s="0" t="n">
-        <v>0.0526315789473684</v>
+        <v>0</v>
       </c>
       <c r="F105" s="0" t="n">
-        <v>0.105263157894737</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="G105" s="0" t="n">
-        <v>0.105263157894737</v>
+        <v>0.0421052631578947</v>
       </c>
       <c r="H105" s="0" t="n">
-        <v>0.125657894736842</v>
+        <v>0.0737794713026911</v>
       </c>
       <c r="I105" s="0" t="n">
-        <v>0.13277027027027</v>
+        <v>0.0828020276936686</v>
       </c>
       <c r="J105" s="0" t="n">
-        <v>0.141945106094007</v>
+        <v>0.0828020276936686</v>
       </c>
       <c r="K105" s="0" t="n">
-        <v>0.144910265471323</v>
+        <v>0.0876016849556088</v>
       </c>
       <c r="L105" s="0" t="n">
-        <v>0.14618446003961</v>
+        <v>0.0888129164299981</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24769,31 +24772,31 @@
         <v>13</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E106" s="0" t="n">
         <v>0.0344827586206897</v>
       </c>
       <c r="F106" s="0" t="n">
-        <v>0.0689655172413793</v>
+        <v>0.0517241379310345</v>
       </c>
       <c r="G106" s="0" t="n">
-        <v>0.0862068965517241</v>
+        <v>0.078448275862069</v>
       </c>
       <c r="H106" s="0" t="n">
-        <v>0.11882183908046</v>
+        <v>0.124236159378147</v>
       </c>
       <c r="I106" s="0" t="n">
-        <v>0.132073947370415</v>
+        <v>0.132117932777162</v>
       </c>
       <c r="J106" s="0" t="n">
-        <v>0.145613730372223</v>
+        <v>0.136551430314108</v>
       </c>
       <c r="K106" s="0" t="n">
-        <v>0.149590031387993</v>
+        <v>0.147852756173755</v>
       </c>
       <c r="L106" s="0" t="n">
-        <v>0.151495299230745</v>
+        <v>0.149100356559286</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24807,31 +24810,31 @@
         <v>13</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E107" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F107" s="0" t="n">
-        <v>0</v>
+        <v>0.0142857142857143</v>
       </c>
       <c r="G107" s="0" t="n">
-        <v>0.0261904761904762</v>
+        <v>0.0301587301587302</v>
       </c>
       <c r="H107" s="0" t="n">
-        <v>0.0414965986394558</v>
+        <v>0.0557507851625499</v>
       </c>
       <c r="I107" s="0" t="n">
-        <v>0.099942535201133</v>
+        <v>0.143852844234306</v>
       </c>
       <c r="J107" s="0" t="n">
-        <v>0.132323349550145</v>
+        <v>0.143852844234306</v>
       </c>
       <c r="K107" s="0" t="n">
-        <v>0.140565107791903</v>
+        <v>0.156913601277035</v>
       </c>
       <c r="L107" s="0" t="n">
-        <v>0.143230430440823</v>
+        <v>0.156913601277035</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24845,31 +24848,31 @@
         <v>13</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E108" s="0" t="n">
         <v>0.0588235294117647</v>
       </c>
       <c r="F108" s="0" t="n">
-        <v>0.161764705882353</v>
+        <v>0.117647058823529</v>
       </c>
       <c r="G108" s="0" t="n">
-        <v>0.161764705882353</v>
+        <v>0.147058823529412</v>
       </c>
       <c r="H108" s="0" t="n">
-        <v>0.248347093223254</v>
+        <v>0.198781266892722</v>
       </c>
       <c r="I108" s="0" t="n">
-        <v>0.248347093223254</v>
+        <v>0.211258985252793</v>
       </c>
       <c r="J108" s="0" t="n">
-        <v>0.25833599444412</v>
+        <v>0.221618799281498</v>
       </c>
       <c r="K108" s="0" t="n">
-        <v>0.263545500824272</v>
+        <v>0.230974950968023</v>
       </c>
       <c r="L108" s="0" t="n">
-        <v>0.263545500824272</v>
+        <v>0.230974950968023</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24883,31 +24886,31 @@
         <v>13</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E109" s="0" t="n">
         <v>0.032258064516129</v>
       </c>
       <c r="F109" s="0" t="n">
-        <v>0.0887096774193548</v>
+        <v>0.0838709677419355</v>
       </c>
       <c r="G109" s="0" t="n">
-        <v>0.126344086021505</v>
+        <v>0.123297491039426</v>
       </c>
       <c r="H109" s="0" t="n">
-        <v>0.212474196243296</v>
+        <v>0.194684918264265</v>
       </c>
       <c r="I109" s="0" t="n">
-        <v>0.275879062987748</v>
+        <v>0.283878321622117</v>
       </c>
       <c r="J109" s="0" t="n">
-        <v>0.314166103071392</v>
+        <v>0.296245298675658</v>
       </c>
       <c r="K109" s="0" t="n">
-        <v>0.326804147020706</v>
+        <v>0.317701108668805</v>
       </c>
       <c r="L109" s="0" t="n">
-        <v>0.328990764438633</v>
+        <v>0.317701108668805</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24921,7 +24924,7 @@
         <v>13</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E110" s="0" t="n">
         <v>0</v>
@@ -24933,19 +24936,19 @@
         <v>0</v>
       </c>
       <c r="H110" s="0" t="n">
-        <v>0.0340579710144928</v>
+        <v>0.0311111111111111</v>
       </c>
       <c r="I110" s="0" t="n">
-        <v>0.0522397891963109</v>
+        <v>0.0482539682539683</v>
       </c>
       <c r="J110" s="0" t="n">
-        <v>0.0522397891963109</v>
+        <v>0.0577777777777778</v>
       </c>
       <c r="K110" s="0" t="n">
-        <v>0.0581811042530683</v>
+        <v>0.0647707847707848</v>
       </c>
       <c r="L110" s="0" t="n">
-        <v>0.0581811042530683</v>
+        <v>0.0647707847707848</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24959,31 +24962,31 @@
         <v>13</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E111" s="0" t="n">
         <v>0.05</v>
       </c>
       <c r="F111" s="0" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G111" s="0" t="n">
-        <v>0.328273809523809</v>
+        <v>0.3225</v>
       </c>
       <c r="H111" s="0" t="n">
-        <v>0.532758184797658</v>
+        <v>0.554984375273849</v>
       </c>
       <c r="I111" s="0" t="n">
-        <v>0.639748807763362</v>
+        <v>0.630846444239366</v>
       </c>
       <c r="J111" s="0" t="n">
-        <v>0.663714377077769</v>
+        <v>0.658250923817759</v>
       </c>
       <c r="K111" s="0" t="n">
-        <v>0.663714377077769</v>
+        <v>0.668151913916769</v>
       </c>
       <c r="L111" s="0" t="n">
-        <v>0.663714377077769</v>
+        <v>0.668151913916769</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24997,31 +25000,31 @@
         <v>13</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E112" s="0" t="n">
         <v>0.04</v>
       </c>
       <c r="F112" s="0" t="n">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="G112" s="0" t="n">
-        <v>0.262619047619048</v>
+        <v>0.258</v>
       </c>
       <c r="H112" s="0" t="n">
-        <v>0.494817681936675</v>
+        <v>0.507595793680004</v>
       </c>
       <c r="I112" s="0" t="n">
-        <v>0.615853212231919</v>
+        <v>0.598754153575687</v>
       </c>
       <c r="J112" s="0" t="n">
-        <v>0.637979458079095</v>
+        <v>0.635187430443746</v>
       </c>
       <c r="K112" s="0" t="n">
-        <v>0.644616425309765</v>
+        <v>0.651685387931802</v>
       </c>
       <c r="L112" s="0" t="n">
-        <v>0.644616425309765</v>
+        <v>0.651685387931802</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25035,7 +25038,7 @@
         <v>13</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E113" s="0" t="n">
         <v>0.125</v>
@@ -25056,10 +25059,10 @@
         <v>0.125</v>
       </c>
       <c r="K113" s="0" t="n">
-        <v>0.131363102232668</v>
+        <v>0.129267197886235</v>
       </c>
       <c r="L113" s="0" t="n">
-        <v>0.132050670989543</v>
+        <v>0.129267197886235</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25073,31 +25076,31 @@
         <v>13</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E114" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F114" s="0" t="n">
-        <v>0.0646825396825397</v>
+        <v>0.0420634920634921</v>
       </c>
       <c r="G114" s="0" t="n">
-        <v>0.13994708994709</v>
+        <v>0.130366591080877</v>
       </c>
       <c r="H114" s="0" t="n">
-        <v>0.193637566137566</v>
+        <v>0.235598660598661</v>
       </c>
       <c r="I114" s="0" t="n">
-        <v>0.220075002814364</v>
+        <v>0.243715543715544</v>
       </c>
       <c r="J114" s="0" t="n">
-        <v>0.224504681662648</v>
+        <v>0.277691495514424</v>
       </c>
       <c r="K114" s="0" t="n">
-        <v>0.228862784706725</v>
+        <v>0.281893176186693</v>
       </c>
       <c r="L114" s="0" t="n">
-        <v>0.228862784706725</v>
+        <v>0.283244483448932</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25111,31 +25114,31 @@
         <v>13</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E115" s="0" t="n">
         <v>0.02</v>
       </c>
       <c r="F115" s="0" t="n">
-        <v>0.1</v>
+        <v>0.076</v>
       </c>
       <c r="G115" s="0" t="n">
-        <v>0.173277777777778</v>
+        <v>0.163087301587302</v>
       </c>
       <c r="H115" s="0" t="n">
-        <v>0.222761111111111</v>
+        <v>0.259478132978133</v>
       </c>
       <c r="I115" s="0" t="n">
-        <v>0.246579987270413</v>
+        <v>0.26675086025086</v>
       </c>
       <c r="J115" s="0" t="n">
-        <v>0.250533475642506</v>
+        <v>0.296887751853485</v>
       </c>
       <c r="K115" s="0" t="n">
-        <v>0.261714095406331</v>
+        <v>0.306465205988424</v>
       </c>
       <c r="L115" s="0" t="n">
-        <v>0.262242148211611</v>
+        <v>0.307802857810286</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25149,7 +25152,7 @@
         <v>13</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E116" s="0" t="n">
         <v>0.142857142857143</v>
@@ -25158,22 +25161,22 @@
         <v>0.142857142857143</v>
       </c>
       <c r="G116" s="0" t="n">
-        <v>0.233333333333333</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="H116" s="0" t="n">
-        <v>0.233333333333333</v>
+        <v>0.158730158730159</v>
       </c>
       <c r="I116" s="0" t="n">
-        <v>0.250140056022409</v>
+        <v>0.186419072133358</v>
       </c>
       <c r="J116" s="0" t="n">
-        <v>0.250140056022409</v>
+        <v>0.194822433477896</v>
       </c>
       <c r="K116" s="0" t="n">
-        <v>0.262174439711524</v>
+        <v>0.199240695628117</v>
       </c>
       <c r="L116" s="0" t="n">
-        <v>0.262174439711524</v>
+        <v>0.199240695628117</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25187,31 +25190,31 @@
         <v>13</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E117" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F117" s="0" t="n">
-        <v>0.0580808080808081</v>
+        <v>0.0272727272727273</v>
       </c>
       <c r="G117" s="0" t="n">
-        <v>0.0900673400673401</v>
+        <v>0.0272727272727273</v>
       </c>
       <c r="H117" s="0" t="n">
-        <v>0.145600025085671</v>
+        <v>0.0632088648131429</v>
       </c>
       <c r="I117" s="0" t="n">
-        <v>0.164179427180632</v>
+        <v>0.0835559251602033</v>
       </c>
       <c r="J117" s="0" t="n">
-        <v>0.188750053809578</v>
+        <v>0.103020573063597</v>
       </c>
       <c r="K117" s="0" t="n">
-        <v>0.202911722496852</v>
+        <v>0.115249709480591</v>
       </c>
       <c r="L117" s="0" t="n">
-        <v>0.202911722496852</v>
+        <v>0.117113507790692</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25225,31 +25228,31 @@
         <v>13</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E118" s="0" t="n">
         <v>0.025</v>
       </c>
       <c r="F118" s="0" t="n">
-        <v>0.1</v>
+        <v>0.065</v>
       </c>
       <c r="G118" s="0" t="n">
-        <v>0.179027777777778</v>
+        <v>0.065</v>
       </c>
       <c r="H118" s="0" t="n">
-        <v>0.243866721728564</v>
+        <v>0.112577136915372</v>
       </c>
       <c r="I118" s="0" t="n">
-        <v>0.274514077390761</v>
+        <v>0.150620837209072</v>
       </c>
       <c r="J118" s="0" t="n">
-        <v>0.300892416033251</v>
+        <v>0.177600046603512</v>
       </c>
       <c r="K118" s="0" t="n">
-        <v>0.324301661014965</v>
+        <v>0.193939185579812</v>
       </c>
       <c r="L118" s="0" t="n">
-        <v>0.324301661014965</v>
+        <v>0.19595014779067</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25263,31 +25266,31 @@
         <v>13</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E119" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="F119" s="0" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="G119" s="0" t="n">
-        <v>0.666666666666667</v>
+        <v>0.7</v>
       </c>
       <c r="H119" s="0" t="n">
-        <v>0.666666666666667</v>
+        <v>0.7</v>
       </c>
       <c r="I119" s="0" t="n">
-        <v>0.666666666666667</v>
+        <v>0.7</v>
       </c>
       <c r="J119" s="0" t="n">
-        <v>0.666666666666667</v>
+        <v>0.7</v>
       </c>
       <c r="K119" s="0" t="n">
-        <v>0.666666666666667</v>
+        <v>0.7</v>
       </c>
       <c r="L119" s="0" t="n">
-        <v>0.666666666666667</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25301,31 +25304,31 @@
         <v>13</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E120" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F120" s="0" t="n">
-        <v>0.169791666666667</v>
+        <v>0.119791666666667</v>
       </c>
       <c r="G120" s="0" t="n">
-        <v>0.299851190476191</v>
+        <v>0.351587301587302</v>
       </c>
       <c r="H120" s="0" t="n">
-        <v>0.566463744588745</v>
+        <v>0.590532731157731</v>
       </c>
       <c r="I120" s="0" t="n">
-        <v>0.610126636574807</v>
+        <v>0.631252428127428</v>
       </c>
       <c r="J120" s="0" t="n">
-        <v>0.610126636574807</v>
+        <v>0.645538142413142</v>
       </c>
       <c r="K120" s="0" t="n">
-        <v>0.614474462661764</v>
+        <v>0.645538142413142</v>
       </c>
       <c r="L120" s="0" t="n">
-        <v>0.614474462661764</v>
+        <v>0.645538142413142</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25339,7 +25342,7 @@
         <v>13</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E121" s="0" t="n">
         <v>0.0555555555555556</v>
@@ -25348,22 +25351,22 @@
         <v>0.277777777777778</v>
       </c>
       <c r="G121" s="0" t="n">
-        <v>0.488271604938272</v>
+        <v>0.555555555555556</v>
       </c>
       <c r="H121" s="0" t="n">
-        <v>0.771959676126343</v>
+        <v>0.807498982498982</v>
       </c>
       <c r="I121" s="0" t="n">
-        <v>0.816126665415283</v>
+        <v>0.84868865702199</v>
       </c>
       <c r="J121" s="0" t="n">
-        <v>0.816126665415283</v>
+        <v>0.862974371307705</v>
       </c>
       <c r="K121" s="0" t="n">
-        <v>0.82047449150224</v>
+        <v>0.862974371307705</v>
       </c>
       <c r="L121" s="0" t="n">
-        <v>0.82047449150224</v>
+        <v>0.862974371307705</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25377,31 +25380,31 @@
         <v>13</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E122" s="0" t="n">
-        <v>0.0263157894736842</v>
+        <v>0</v>
       </c>
       <c r="F122" s="0" t="n">
-        <v>0.0552631578947369</v>
+        <v>0.0464912280701754</v>
       </c>
       <c r="G122" s="0" t="n">
-        <v>0.0552631578947369</v>
+        <v>0.0713450292397661</v>
       </c>
       <c r="H122" s="0" t="n">
-        <v>0.120147529314397</v>
+        <v>0.0818713450292398</v>
       </c>
       <c r="I122" s="0" t="n">
-        <v>0.167560422178742</v>
+        <v>0.0961907403555001</v>
       </c>
       <c r="J122" s="0" t="n">
-        <v>0.210303989099159</v>
+        <v>0.108150073154251</v>
       </c>
       <c r="K122" s="0" t="n">
-        <v>0.231196837998385</v>
+        <v>0.148739990143969</v>
       </c>
       <c r="L122" s="0" t="n">
-        <v>0.237007364504387</v>
+        <v>0.154622961312095</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25415,31 +25418,31 @@
         <v>13</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E123" s="0" t="n">
-        <v>0</v>
+        <v>0.0526315789473684</v>
       </c>
       <c r="F123" s="0" t="n">
-        <v>0.0263157894736842</v>
+        <v>0.0526315789473684</v>
       </c>
       <c r="G123" s="0" t="n">
-        <v>0.116123642439432</v>
+        <v>0.0701754385964912</v>
       </c>
       <c r="H123" s="0" t="n">
-        <v>0.16546574770259</v>
+        <v>0.0701754385964912</v>
       </c>
       <c r="I123" s="0" t="n">
-        <v>0.16546574770259</v>
+        <v>0.0758145363408521</v>
       </c>
       <c r="J123" s="0" t="n">
-        <v>0.187132749335108</v>
+        <v>0.100744141346401</v>
       </c>
       <c r="K123" s="0" t="n">
-        <v>0.204807532043288</v>
+        <v>0.103285684078459</v>
       </c>
       <c r="L123" s="0" t="n">
-        <v>0.206458338025032</v>
+        <v>0.104397618844952</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25453,31 +25456,31 @@
         <v>13</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E124" s="0" t="n">
         <v>0.0175438596491228</v>
       </c>
       <c r="F124" s="0" t="n">
-        <v>0.062280701754386</v>
+        <v>0.0666666666666667</v>
       </c>
       <c r="G124" s="0" t="n">
-        <v>0.119618490671122</v>
+        <v>0.105263157894737</v>
       </c>
       <c r="H124" s="0" t="n">
-        <v>0.232960052245852</v>
+        <v>0.114619883040936</v>
       </c>
       <c r="I124" s="0" t="n">
-        <v>0.281985633440218</v>
+        <v>0.133398714176746</v>
       </c>
       <c r="J124" s="0" t="n">
-        <v>0.345061673923439</v>
+        <v>0.167694895222326</v>
       </c>
       <c r="K124" s="0" t="n">
-        <v>0.382980158762614</v>
+        <v>0.211101689123667</v>
       </c>
       <c r="L124" s="0" t="n">
-        <v>0.390419259887038</v>
+        <v>0.217809343046153</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25491,31 +25494,31 @@
         <v>13</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E125" s="0" t="n">
         <v>0.04</v>
       </c>
       <c r="F125" s="0" t="n">
-        <v>0.11</v>
+        <v>0.0666666666666667</v>
       </c>
       <c r="G125" s="0" t="n">
-        <v>0.11</v>
+        <v>0.096</v>
       </c>
       <c r="H125" s="0" t="n">
-        <v>0.177712121212121</v>
+        <v>0.15927812284334</v>
       </c>
       <c r="I125" s="0" t="n">
-        <v>0.250339419541547</v>
+        <v>0.214218904284122</v>
       </c>
       <c r="J125" s="0" t="n">
-        <v>0.279356346886648</v>
+        <v>0.258482694637749</v>
       </c>
       <c r="K125" s="0" t="n">
-        <v>0.300523230322725</v>
+        <v>0.279532278037794</v>
       </c>
       <c r="L125" s="0" t="n">
-        <v>0.305363815304671</v>
+        <v>0.279532278037794</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25529,31 +25532,31 @@
         <v>13</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E126" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F126" s="0" t="n">
-        <v>0.00588235294117647</v>
+        <v>0</v>
       </c>
       <c r="G126" s="0" t="n">
-        <v>0.0282913165266106</v>
+        <v>0.0133053221288515</v>
       </c>
       <c r="H126" s="0" t="n">
-        <v>0.0282913165266106</v>
+        <v>0.0254402460284813</v>
       </c>
       <c r="I126" s="0" t="n">
-        <v>0.0450691064614639</v>
+        <v>0.0386155047568463</v>
       </c>
       <c r="J126" s="0" t="n">
-        <v>0.0567308350349572</v>
+        <v>0.0491457954199116</v>
       </c>
       <c r="K126" s="0" t="n">
-        <v>0.0822653406710935</v>
+        <v>0.0702002844884483</v>
       </c>
       <c r="L126" s="0" t="n">
-        <v>0.083209033656309</v>
+        <v>0.0726718778702046</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25567,31 +25570,31 @@
         <v>13</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E127" s="0" t="n">
         <v>0.0169491525423729</v>
       </c>
       <c r="F127" s="0" t="n">
-        <v>0.0601694915254237</v>
+        <v>0.0282485875706215</v>
       </c>
       <c r="G127" s="0" t="n">
-        <v>0.0888216303470541</v>
+        <v>0.0659940812483185</v>
       </c>
       <c r="H127" s="0" t="n">
-        <v>0.132606941081517</v>
+        <v>0.123941026630783</v>
       </c>
       <c r="I127" s="0" t="n">
-        <v>0.20559088070716</v>
+        <v>0.179640175406636</v>
       </c>
       <c r="J127" s="0" t="n">
-        <v>0.242624378407178</v>
+        <v>0.224795058702241</v>
       </c>
       <c r="K127" s="0" t="n">
-        <v>0.29067963326116</v>
+        <v>0.268169845144318</v>
       </c>
       <c r="L127" s="0" t="n">
-        <v>0.295814105192862</v>
+        <v>0.271051629841299</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25605,31 +25608,31 @@
         <v>13</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E128" s="0" t="n">
         <v>0.1</v>
       </c>
       <c r="F128" s="0" t="n">
-        <v>0.241666666666667</v>
+        <v>0.226666666666667</v>
       </c>
       <c r="G128" s="0" t="n">
-        <v>0.363888888888889</v>
+        <v>0.293333333333333</v>
       </c>
       <c r="H128" s="0" t="n">
-        <v>0.43406432748538</v>
+        <v>0.388214285714286</v>
       </c>
       <c r="I128" s="0" t="n">
-        <v>0.489408242829296</v>
+        <v>0.438565162907268</v>
       </c>
       <c r="J128" s="0" t="n">
-        <v>0.489408242829296</v>
+        <v>0.438565162907268</v>
       </c>
       <c r="K128" s="0" t="n">
-        <v>0.497041830615555</v>
+        <v>0.446317100891764</v>
       </c>
       <c r="L128" s="0" t="n">
-        <v>0.497041830615555</v>
+        <v>0.446317100891764</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25643,31 +25646,31 @@
         <v>13</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E129" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F129" s="0" t="n">
-        <v>0.0321428571428572</v>
+        <v>0.0178571428571429</v>
       </c>
       <c r="G129" s="0" t="n">
-        <v>0.0321428571428572</v>
+        <v>0.0267857142857143</v>
       </c>
       <c r="H129" s="0" t="n">
-        <v>0.0470238095238095</v>
+        <v>0.0540382819794585</v>
       </c>
       <c r="I129" s="0" t="n">
-        <v>0.0712154287749034</v>
+        <v>0.0762050041461806</v>
       </c>
       <c r="J129" s="0" t="n">
-        <v>0.0938735565421393</v>
+        <v>0.086561314502491</v>
       </c>
       <c r="K129" s="0" t="n">
-        <v>0.12070383672756</v>
+        <v>0.116648576715584</v>
       </c>
       <c r="L129" s="0" t="n">
-        <v>0.124054966643972</v>
+        <v>0.12291744919216</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25681,31 +25684,31 @@
         <v>13</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E130" s="0" t="n">
         <v>0.0263157894736842</v>
       </c>
       <c r="F130" s="0" t="n">
-        <v>0.131578947368421</v>
+        <v>0.1</v>
       </c>
       <c r="G130" s="0" t="n">
-        <v>0.178362573099415</v>
+        <v>0.141666666666667</v>
       </c>
       <c r="H130" s="0" t="n">
-        <v>0.234976146506617</v>
+        <v>0.228238488377807</v>
       </c>
       <c r="I130" s="0" t="n">
-        <v>0.299471928052106</v>
+        <v>0.286660660234882</v>
       </c>
       <c r="J130" s="0" t="n">
-        <v>0.330749808474224</v>
+        <v>0.301523867203352</v>
       </c>
       <c r="K130" s="0" t="n">
-        <v>0.367559454115258</v>
+        <v>0.343102137250755</v>
       </c>
       <c r="L130" s="0" t="n">
-        <v>0.371160396059984</v>
+        <v>0.349704922675097</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25719,31 +25722,31 @@
         <v>13</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E131" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F131" s="0" t="n">
-        <v>0</v>
+        <v>0.0208333333333333</v>
       </c>
       <c r="G131" s="0" t="n">
-        <v>0</v>
+        <v>0.0736111111111111</v>
       </c>
       <c r="H131" s="0" t="n">
-        <v>0.0232007575757576</v>
+        <v>0.114781746031746</v>
       </c>
       <c r="I131" s="0" t="n">
-        <v>0.0588790409858958</v>
+        <v>0.114781746031746</v>
       </c>
       <c r="J131" s="0" t="n">
-        <v>0.0687660466356134</v>
+        <v>0.127480926284118</v>
       </c>
       <c r="K131" s="0" t="n">
-        <v>0.0827587579966747</v>
+        <v>0.147305401462459</v>
       </c>
       <c r="L131" s="0" t="n">
-        <v>0.0842358628711209</v>
+        <v>0.147305401462459</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25757,31 +25760,31 @@
         <v>13</v>
       </c>
       <c r="D132" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E132" s="0" t="n">
-        <v>0.0303030303030303</v>
+        <v>0</v>
       </c>
       <c r="F132" s="0" t="n">
-        <v>0.0787878787878788</v>
+        <v>0.00606060606060606</v>
       </c>
       <c r="G132" s="0" t="n">
-        <v>0.0961038961038961</v>
+        <v>0.0147186147186147</v>
       </c>
       <c r="H132" s="0" t="n">
-        <v>0.105016552075376</v>
+        <v>0.0349425936382458</v>
       </c>
       <c r="I132" s="0" t="n">
-        <v>0.131909237524211</v>
+        <v>0.0446044293870381</v>
       </c>
       <c r="J132" s="0" t="n">
-        <v>0.136500605751943</v>
+        <v>0.0470286718112805</v>
       </c>
       <c r="K132" s="0" t="n">
-        <v>0.147296485866134</v>
+        <v>0.0648103604316073</v>
       </c>
       <c r="L132" s="0" t="n">
-        <v>0.14963858759523</v>
+        <v>0.066755691850177</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25795,31 +25798,31 @@
         <v>13</v>
       </c>
       <c r="D133" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E133" s="0" t="n">
-        <v>0.0222222222222222</v>
+        <v>0</v>
       </c>
       <c r="F133" s="0" t="n">
-        <v>0.0577777777777778</v>
+        <v>0.0144444444444445</v>
       </c>
       <c r="G133" s="0" t="n">
-        <v>0.0704761904761905</v>
+        <v>0.0493650793650794</v>
       </c>
       <c r="H133" s="0" t="n">
-        <v>0.0997418866536514</v>
+        <v>0.0983252818035427</v>
       </c>
       <c r="I133" s="0" t="n">
-        <v>0.153990686206056</v>
+        <v>0.110912506709608</v>
       </c>
       <c r="J133" s="0" t="n">
-        <v>0.165740957278361</v>
+        <v>0.12130733646614</v>
       </c>
       <c r="K133" s="0" t="n">
-        <v>0.187722467462192</v>
+        <v>0.155750223499738</v>
       </c>
       <c r="L133" s="0" t="n">
-        <v>0.191507780875476</v>
+        <v>0.158156842598915</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25833,7 +25836,7 @@
         <v>13</v>
       </c>
       <c r="D134" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E134" s="0" t="n">
         <v>0.1</v>
@@ -25842,22 +25845,22 @@
         <v>0.1</v>
       </c>
       <c r="G134" s="0" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="H134" s="0" t="n">
-        <v>0.118181818181818</v>
+        <v>0.12</v>
       </c>
       <c r="I134" s="0" t="n">
-        <v>0.118181818181818</v>
+        <v>0.12625</v>
       </c>
       <c r="J134" s="0" t="n">
-        <v>0.122467532467533</v>
+        <v>0.12625</v>
       </c>
       <c r="K134" s="0" t="n">
-        <v>0.129928721472991</v>
+        <v>0.133134578544061</v>
       </c>
       <c r="L134" s="0" t="n">
-        <v>0.129928721472991</v>
+        <v>0.133134578544061</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25871,31 +25874,31 @@
         <v>13</v>
       </c>
       <c r="D135" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E135" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F135" s="0" t="n">
-        <v>0.0131578947368421</v>
+        <v>0</v>
       </c>
       <c r="G135" s="0" t="n">
-        <v>0.0421052631578947</v>
+        <v>0.0394736842105263</v>
       </c>
       <c r="H135" s="0" t="n">
-        <v>0.0737794713026911</v>
+        <v>0.0586124401913876</v>
       </c>
       <c r="I135" s="0" t="n">
-        <v>0.0828020276936686</v>
+        <v>0.067384370015949</v>
       </c>
       <c r="J135" s="0" t="n">
-        <v>0.0828020276936686</v>
+        <v>0.0773744756621141</v>
       </c>
       <c r="K135" s="0" t="n">
-        <v>0.0876016849556088</v>
+        <v>0.0796335006521151</v>
       </c>
       <c r="L135" s="0" t="n">
-        <v>0.0888129164299981</v>
+        <v>0.0803940726022216</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25909,31 +25912,31 @@
         <v>13</v>
       </c>
       <c r="D136" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E136" s="0" t="n">
         <v>0.0344827586206897</v>
       </c>
       <c r="F136" s="0" t="n">
-        <v>0.0517241379310345</v>
+        <v>0.0344827586206897</v>
       </c>
       <c r="G136" s="0" t="n">
-        <v>0.078448275862069</v>
+        <v>0.0914750957854406</v>
       </c>
       <c r="H136" s="0" t="n">
-        <v>0.124236159378147</v>
+        <v>0.110283873214908</v>
       </c>
       <c r="I136" s="0" t="n">
-        <v>0.132117932777162</v>
+        <v>0.124076976663184</v>
       </c>
       <c r="J136" s="0" t="n">
-        <v>0.136551430314108</v>
+        <v>0.133717092930096</v>
       </c>
       <c r="K136" s="0" t="n">
-        <v>0.147852756173755</v>
+        <v>0.142199861904116</v>
       </c>
       <c r="L136" s="0" t="n">
-        <v>0.149100356559286</v>
+        <v>0.142997151120779</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25947,31 +25950,31 @@
         <v>13</v>
       </c>
       <c r="D137" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E137" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F137" s="0" t="n">
-        <v>0.0142857142857143</v>
+        <v>0.0178571428571429</v>
       </c>
       <c r="G137" s="0" t="n">
-        <v>0.0301587301587302</v>
+        <v>0.0178571428571429</v>
       </c>
       <c r="H137" s="0" t="n">
-        <v>0.0557507851625499</v>
+        <v>0.0178571428571429</v>
       </c>
       <c r="I137" s="0" t="n">
-        <v>0.143852844234306</v>
+        <v>0.029531490015361</v>
       </c>
       <c r="J137" s="0" t="n">
-        <v>0.143852844234306</v>
+        <v>0.0333410138248848</v>
       </c>
       <c r="K137" s="0" t="n">
-        <v>0.156913601277035</v>
+        <v>0.0420055420002786</v>
       </c>
       <c r="L137" s="0" t="n">
-        <v>0.156913601277035</v>
+        <v>0.0439263217015263</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25985,31 +25988,31 @@
         <v>13</v>
       </c>
       <c r="D138" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E138" s="0" t="n">
-        <v>0.0588235294117647</v>
+        <v>0</v>
       </c>
       <c r="F138" s="0" t="n">
-        <v>0.117647058823529</v>
+        <v>0</v>
       </c>
       <c r="G138" s="0" t="n">
-        <v>0.147058823529412</v>
+        <v>0</v>
       </c>
       <c r="H138" s="0" t="n">
-        <v>0.198781266892722</v>
+        <v>0</v>
       </c>
       <c r="I138" s="0" t="n">
-        <v>0.211258985252793</v>
+        <v>0.00524273880675265</v>
       </c>
       <c r="J138" s="0" t="n">
-        <v>0.221618799281498</v>
+        <v>0.0106746882614725</v>
       </c>
       <c r="K138" s="0" t="n">
-        <v>0.230974950968023</v>
+        <v>0.0165383410407238</v>
       </c>
       <c r="L138" s="0" t="n">
-        <v>0.230974950968023</v>
+        <v>0.01759235699884</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26023,31 +26026,31 @@
         <v>13</v>
       </c>
       <c r="D139" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E139" s="0" t="n">
-        <v>0.032258064516129</v>
+        <v>0</v>
       </c>
       <c r="F139" s="0" t="n">
-        <v>0.0838709677419355</v>
+        <v>0.00806451612903226</v>
       </c>
       <c r="G139" s="0" t="n">
-        <v>0.123297491039426</v>
+        <v>0.00806451612903226</v>
       </c>
       <c r="H139" s="0" t="n">
-        <v>0.194684918264265</v>
+        <v>0.00806451612903226</v>
       </c>
       <c r="I139" s="0" t="n">
-        <v>0.283878321622117</v>
+        <v>0.0219907033856963</v>
       </c>
       <c r="J139" s="0" t="n">
-        <v>0.296245298675658</v>
+        <v>0.0309590780564644</v>
       </c>
       <c r="K139" s="0" t="n">
-        <v>0.317701108668805</v>
+        <v>0.044525470524638</v>
       </c>
       <c r="L139" s="0" t="n">
-        <v>0.317701108668805</v>
+        <v>0.0472995899649996</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26061,7 +26064,7 @@
         <v>13</v>
       </c>
       <c r="D140" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E140" s="0" t="n">
         <v>0</v>
@@ -26073,19 +26076,19 @@
         <v>0</v>
       </c>
       <c r="H140" s="0" t="n">
-        <v>0.0311111111111111</v>
+        <v>0.0335526315789474</v>
       </c>
       <c r="I140" s="0" t="n">
-        <v>0.0482539682539683</v>
+        <v>0.0535526315789474</v>
       </c>
       <c r="J140" s="0" t="n">
-        <v>0.0577777777777778</v>
+        <v>0.0643634423897582</v>
       </c>
       <c r="K140" s="0" t="n">
-        <v>0.0647707847707848</v>
+        <v>0.0737974046539091</v>
       </c>
       <c r="L140" s="0" t="n">
-        <v>0.0647707847707848</v>
+        <v>0.0737974046539091</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26099,31 +26102,31 @@
         <v>13</v>
       </c>
       <c r="D141" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E141" s="0" t="n">
         <v>0.05</v>
       </c>
       <c r="F141" s="0" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G141" s="0" t="n">
-        <v>0.3225</v>
+        <v>0.352103174603175</v>
       </c>
       <c r="H141" s="0" t="n">
-        <v>0.554984375273849</v>
+        <v>0.562732762406675</v>
       </c>
       <c r="I141" s="0" t="n">
-        <v>0.630846444239366</v>
+        <v>0.63518978997192</v>
       </c>
       <c r="J141" s="0" t="n">
-        <v>0.658250923817759</v>
+        <v>0.677271089287262</v>
       </c>
       <c r="K141" s="0" t="n">
-        <v>0.668151913916769</v>
+        <v>0.677271089287262</v>
       </c>
       <c r="L141" s="0" t="n">
-        <v>0.668151913916769</v>
+        <v>0.677271089287262</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26137,31 +26140,31 @@
         <v>13</v>
       </c>
       <c r="D142" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E142" s="0" t="n">
         <v>0.04</v>
       </c>
       <c r="F142" s="0" t="n">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="G142" s="0" t="n">
-        <v>0.258</v>
+        <v>0.28168253968254</v>
       </c>
       <c r="H142" s="0" t="n">
-        <v>0.507595793680004</v>
+        <v>0.518842415657061</v>
       </c>
       <c r="I142" s="0" t="n">
-        <v>0.598754153575687</v>
+        <v>0.61031032607875</v>
       </c>
       <c r="J142" s="0" t="n">
-        <v>0.635187430443746</v>
+        <v>0.66219650570961</v>
       </c>
       <c r="K142" s="0" t="n">
-        <v>0.651685387931802</v>
+        <v>0.671630467973761</v>
       </c>
       <c r="L142" s="0" t="n">
-        <v>0.651685387931802</v>
+        <v>0.671630467973761</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26175,31 +26178,31 @@
         <v>13</v>
       </c>
       <c r="D143" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E143" s="0" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="F143" s="0" t="n">
-        <v>0.125</v>
+        <v>0.0625</v>
       </c>
       <c r="G143" s="0" t="n">
-        <v>0.125</v>
+        <v>0.0625</v>
       </c>
       <c r="H143" s="0" t="n">
-        <v>0.125</v>
+        <v>0.0625</v>
       </c>
       <c r="I143" s="0" t="n">
-        <v>0.125</v>
+        <v>0.0625</v>
       </c>
       <c r="J143" s="0" t="n">
-        <v>0.125</v>
+        <v>0.0625</v>
       </c>
       <c r="K143" s="0" t="n">
-        <v>0.129267197886235</v>
+        <v>0.0630050505050505</v>
       </c>
       <c r="L143" s="0" t="n">
-        <v>0.129267197886235</v>
+        <v>0.0637403446226976</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26213,31 +26216,31 @@
         <v>13</v>
       </c>
       <c r="D144" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E144" s="0" t="n">
-        <v>0</v>
+        <v>0.0238095238095238</v>
       </c>
       <c r="F144" s="0" t="n">
-        <v>0.0420634920634921</v>
+        <v>0.0765873015873016</v>
       </c>
       <c r="G144" s="0" t="n">
-        <v>0.130366591080877</v>
+        <v>0.132804232804233</v>
       </c>
       <c r="H144" s="0" t="n">
-        <v>0.235598660598661</v>
+        <v>0.178635385778243</v>
       </c>
       <c r="I144" s="0" t="n">
-        <v>0.243715543715544</v>
+        <v>0.201201153940144</v>
       </c>
       <c r="J144" s="0" t="n">
-        <v>0.277691495514424</v>
+        <v>0.207049107156518</v>
       </c>
       <c r="K144" s="0" t="n">
-        <v>0.281893176186693</v>
+        <v>0.209775388508754</v>
       </c>
       <c r="L144" s="0" t="n">
-        <v>0.283244483448932</v>
+        <v>0.210348249231991</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26251,31 +26254,31 @@
         <v>13</v>
       </c>
       <c r="D145" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E145" s="0" t="n">
         <v>0.02</v>
       </c>
       <c r="F145" s="0" t="n">
-        <v>0.076</v>
+        <v>0.1</v>
       </c>
       <c r="G145" s="0" t="n">
-        <v>0.163087301587302</v>
+        <v>0.155277777777778</v>
       </c>
       <c r="H145" s="0" t="n">
-        <v>0.259478132978133</v>
+        <v>0.198076312576313</v>
       </c>
       <c r="I145" s="0" t="n">
-        <v>0.26675086025086</v>
+        <v>0.218632703553756</v>
       </c>
       <c r="J145" s="0" t="n">
-        <v>0.296887751853485</v>
+        <v>0.223895861448493</v>
       </c>
       <c r="K145" s="0" t="n">
-        <v>0.306465205988424</v>
+        <v>0.227025478226965</v>
       </c>
       <c r="L145" s="0" t="n">
-        <v>0.307802857810286</v>
+        <v>0.228302789151334</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26289,7 +26292,7 @@
         <v>13</v>
       </c>
       <c r="D146" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E146" s="0" t="n">
         <v>0.142857142857143</v>
@@ -26301,19 +26304,19 @@
         <v>0.142857142857143</v>
       </c>
       <c r="H146" s="0" t="n">
-        <v>0.158730158730159</v>
+        <v>0.159663865546219</v>
       </c>
       <c r="I146" s="0" t="n">
-        <v>0.186419072133358</v>
+        <v>0.172268907563025</v>
       </c>
       <c r="J146" s="0" t="n">
-        <v>0.194822433477896</v>
+        <v>0.190876350540216</v>
       </c>
       <c r="K146" s="0" t="n">
-        <v>0.199240695628117</v>
+        <v>0.193842242779465</v>
       </c>
       <c r="L146" s="0" t="n">
-        <v>0.199240695628117</v>
+        <v>0.193842242779465</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26327,31 +26330,31 @@
         <v>13</v>
       </c>
       <c r="D147" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E147" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F147" s="0" t="n">
-        <v>0.0272727272727273</v>
+        <v>0.0222222222222222</v>
       </c>
       <c r="G147" s="0" t="n">
-        <v>0.0272727272727273</v>
+        <v>0.0525252525252525</v>
       </c>
       <c r="H147" s="0" t="n">
-        <v>0.0632088648131429</v>
+        <v>0.0597402597402598</v>
       </c>
       <c r="I147" s="0" t="n">
-        <v>0.0835559251602033</v>
+        <v>0.0771709771709772</v>
       </c>
       <c r="J147" s="0" t="n">
-        <v>0.103020573063597</v>
+        <v>0.0962207323453457</v>
       </c>
       <c r="K147" s="0" t="n">
-        <v>0.115249709480591</v>
+        <v>0.11258449437563</v>
       </c>
       <c r="L147" s="0" t="n">
-        <v>0.117113507790692</v>
+        <v>0.113347087191203</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26365,31 +26368,31 @@
         <v>13</v>
       </c>
       <c r="D148" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E148" s="0" t="n">
         <v>0.025</v>
       </c>
       <c r="F148" s="0" t="n">
-        <v>0.065</v>
+        <v>0.0566666666666667</v>
       </c>
       <c r="G148" s="0" t="n">
-        <v>0.065</v>
+        <v>0.0889583333333333</v>
       </c>
       <c r="H148" s="0" t="n">
-        <v>0.112577136915372</v>
+        <v>0.106115196078431</v>
       </c>
       <c r="I148" s="0" t="n">
-        <v>0.150620837209072</v>
+        <v>0.132488642893055</v>
       </c>
       <c r="J148" s="0" t="n">
-        <v>0.177600046603512</v>
+        <v>0.164629917468874</v>
       </c>
       <c r="K148" s="0" t="n">
-        <v>0.193939185579812</v>
+        <v>0.184685965804035</v>
       </c>
       <c r="L148" s="0" t="n">
-        <v>0.19595014779067</v>
+        <v>0.185513780373571</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26403,31 +26406,31 @@
         <v>13</v>
       </c>
       <c r="D149" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E149" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="F149" s="0" t="n">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="G149" s="0" t="n">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="H149" s="0" t="n">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="I149" s="0" t="n">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="J149" s="0" t="n">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="K149" s="0" t="n">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="L149" s="0" t="n">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26441,31 +26444,31 @@
         <v>13</v>
       </c>
       <c r="D150" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E150" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F150" s="0" t="n">
-        <v>0.119791666666667</v>
+        <v>0.110416666666667</v>
       </c>
       <c r="G150" s="0" t="n">
-        <v>0.351587301587302</v>
+        <v>0.342212301587302</v>
       </c>
       <c r="H150" s="0" t="n">
-        <v>0.590532731157731</v>
+        <v>0.55436326323054</v>
       </c>
       <c r="I150" s="0" t="n">
-        <v>0.631252428127428</v>
+        <v>0.57186326323054</v>
       </c>
       <c r="J150" s="0" t="n">
-        <v>0.645538142413142</v>
+        <v>0.590245616171717</v>
       </c>
       <c r="K150" s="0" t="n">
-        <v>0.645538142413142</v>
+        <v>0.594962597303792</v>
       </c>
       <c r="L150" s="0" t="n">
-        <v>0.645538142413142</v>
+        <v>0.594962597303792</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26479,7 +26482,7 @@
         <v>13</v>
       </c>
       <c r="D151" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E151" s="0" t="n">
         <v>0.0555555555555556</v>
@@ -26491,19 +26494,19 @@
         <v>0.555555555555556</v>
       </c>
       <c r="H151" s="0" t="n">
-        <v>0.807498982498982</v>
+        <v>0.779416233821268</v>
       </c>
       <c r="I151" s="0" t="n">
-        <v>0.84868865702199</v>
+        <v>0.797194011599046</v>
       </c>
       <c r="J151" s="0" t="n">
-        <v>0.862974371307705</v>
+        <v>0.815712530117565</v>
       </c>
       <c r="K151" s="0" t="n">
-        <v>0.862974371307705</v>
+        <v>0.82042951124964</v>
       </c>
       <c r="L151" s="0" t="n">
-        <v>0.862974371307705</v>
+        <v>0.82042951124964</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26517,31 +26520,31 @@
         <v>13</v>
       </c>
       <c r="D152" s="0" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E152" s="0" t="n">
-        <v>0</v>
+        <v>0.0263157894736842</v>
       </c>
       <c r="F152" s="0" t="n">
-        <v>0.0464912280701754</v>
+        <v>0.093421052631579</v>
       </c>
       <c r="G152" s="0" t="n">
-        <v>0.0713450292397661</v>
+        <v>0.184325396825397</v>
       </c>
       <c r="H152" s="0" t="n">
-        <v>0.0818713450292398</v>
+        <v>0.242260006075796</v>
       </c>
       <c r="I152" s="0" t="n">
-        <v>0.0961907403555001</v>
+        <v>0.344390579457899</v>
       </c>
       <c r="J152" s="0" t="n">
-        <v>0.108150073154251</v>
+        <v>0.370580735563361</v>
       </c>
       <c r="K152" s="0" t="n">
-        <v>0.148739990143969</v>
+        <v>0.408613588298416</v>
       </c>
       <c r="L152" s="0" t="n">
-        <v>0.154622961312095</v>
+        <v>0.412273636860475</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26555,31 +26558,31 @@
         <v>13</v>
       </c>
       <c r="D153" s="0" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E153" s="0" t="n">
-        <v>0.0526315789473684</v>
+        <v>0</v>
       </c>
       <c r="F153" s="0" t="n">
-        <v>0.0526315789473684</v>
+        <v>0.0175438596491228</v>
       </c>
       <c r="G153" s="0" t="n">
-        <v>0.0701754385964912</v>
+        <v>0.0280701754385965</v>
       </c>
       <c r="H153" s="0" t="n">
-        <v>0.0701754385964912</v>
+        <v>0.0815737753818249</v>
       </c>
       <c r="I153" s="0" t="n">
-        <v>0.0758145363408521</v>
+        <v>0.106217496120622</v>
       </c>
       <c r="J153" s="0" t="n">
-        <v>0.100744141346401</v>
+        <v>0.134585974474537</v>
       </c>
       <c r="K153" s="0" t="n">
-        <v>0.103285684078459</v>
+        <v>0.144019858440109</v>
       </c>
       <c r="L153" s="0" t="n">
-        <v>0.104397618844952</v>
+        <v>0.144910033136894</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26593,31 +26596,31 @@
         <v>13</v>
       </c>
       <c r="D154" s="0" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E154" s="0" t="n">
         <v>0.0175438596491228</v>
       </c>
       <c r="F154" s="0" t="n">
-        <v>0.0666666666666667</v>
+        <v>0.087719298245614</v>
       </c>
       <c r="G154" s="0" t="n">
-        <v>0.105263157894737</v>
+        <v>0.175438596491228</v>
       </c>
       <c r="H154" s="0" t="n">
-        <v>0.114619883040936</v>
+        <v>0.284729649435532</v>
       </c>
       <c r="I154" s="0" t="n">
-        <v>0.133398714176746</v>
+        <v>0.407923193673827</v>
       </c>
       <c r="J154" s="0" t="n">
-        <v>0.167694895222326</v>
+        <v>0.462111776602506</v>
       </c>
       <c r="K154" s="0" t="n">
-        <v>0.211101689123667</v>
+        <v>0.508943621112245</v>
       </c>
       <c r="L154" s="0" t="n">
-        <v>0.217809343046153</v>
+        <v>0.513411199552125</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26631,31 +26634,31 @@
         <v>13</v>
       </c>
       <c r="D155" s="0" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E155" s="0" t="n">
         <v>0.04</v>
       </c>
       <c r="F155" s="0" t="n">
-        <v>0.0666666666666667</v>
+        <v>0.0966666666666667</v>
       </c>
       <c r="G155" s="0" t="n">
-        <v>0.096</v>
+        <v>0.175904761904762</v>
       </c>
       <c r="H155" s="0" t="n">
-        <v>0.15927812284334</v>
+        <v>0.230904761904762</v>
       </c>
       <c r="I155" s="0" t="n">
-        <v>0.214218904284122</v>
+        <v>0.267576103653242</v>
       </c>
       <c r="J155" s="0" t="n">
-        <v>0.258482694637749</v>
+        <v>0.327591966838909</v>
       </c>
       <c r="K155" s="0" t="n">
-        <v>0.279532278037794</v>
+        <v>0.358896185365415</v>
       </c>
       <c r="L155" s="0" t="n">
-        <v>0.279532278037794</v>
+        <v>0.358896185365415</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26669,7 +26672,7 @@
         <v>13</v>
       </c>
       <c r="D156" s="0" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E156" s="0" t="n">
         <v>0</v>
@@ -26678,22 +26681,22 @@
         <v>0</v>
       </c>
       <c r="G156" s="0" t="n">
-        <v>0.0133053221288515</v>
+        <v>0.00326797385620915</v>
       </c>
       <c r="H156" s="0" t="n">
-        <v>0.0254402460284813</v>
+        <v>0.0121449792038027</v>
       </c>
       <c r="I156" s="0" t="n">
-        <v>0.0386155047568463</v>
+        <v>0.0312044033007738</v>
       </c>
       <c r="J156" s="0" t="n">
-        <v>0.0491457954199116</v>
+        <v>0.0524652008422701</v>
       </c>
       <c r="K156" s="0" t="n">
-        <v>0.0702002844884483</v>
+        <v>0.0820251608643876</v>
       </c>
       <c r="L156" s="0" t="n">
-        <v>0.0726718778702046</v>
+        <v>0.0832155189637825</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26707,31 +26710,31 @@
         <v>13</v>
       </c>
       <c r="D157" s="0" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E157" s="0" t="n">
         <v>0.0169491525423729</v>
       </c>
       <c r="F157" s="0" t="n">
-        <v>0.0282485875706215</v>
+        <v>0.0409604519774011</v>
       </c>
       <c r="G157" s="0" t="n">
-        <v>0.0659940812483185</v>
+        <v>0.0875302663438257</v>
       </c>
       <c r="H157" s="0" t="n">
-        <v>0.123941026630783</v>
+        <v>0.137249981656761</v>
       </c>
       <c r="I157" s="0" t="n">
-        <v>0.179640175406636</v>
+        <v>0.192105936602315</v>
       </c>
       <c r="J157" s="0" t="n">
-        <v>0.224795058702241</v>
+        <v>0.263747551105474</v>
       </c>
       <c r="K157" s="0" t="n">
-        <v>0.268169845144318</v>
+        <v>0.325208387340597</v>
       </c>
       <c r="L157" s="0" t="n">
-        <v>0.271051629841299</v>
+        <v>0.326608907533811</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26745,31 +26748,31 @@
         <v>13</v>
       </c>
       <c r="D158" s="0" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E158" s="0" t="n">
         <v>0.1</v>
       </c>
       <c r="F158" s="0" t="n">
-        <v>0.226666666666667</v>
+        <v>0.275</v>
       </c>
       <c r="G158" s="0" t="n">
-        <v>0.293333333333333</v>
+        <v>0.275</v>
       </c>
       <c r="H158" s="0" t="n">
-        <v>0.388214285714286</v>
+        <v>0.332085020242915</v>
       </c>
       <c r="I158" s="0" t="n">
-        <v>0.438565162907268</v>
+        <v>0.368215556373451</v>
       </c>
       <c r="J158" s="0" t="n">
-        <v>0.438565162907268</v>
+        <v>0.368215556373451</v>
       </c>
       <c r="K158" s="0" t="n">
-        <v>0.446317100891764</v>
+        <v>0.371971424918052</v>
       </c>
       <c r="L158" s="0" t="n">
-        <v>0.446317100891764</v>
+        <v>0.375067822969326</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26783,31 +26786,31 @@
         <v>13</v>
       </c>
       <c r="D159" s="0" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E159" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F159" s="0" t="n">
-        <v>0.0178571428571429</v>
+        <v>0.0261904761904762</v>
       </c>
       <c r="G159" s="0" t="n">
-        <v>0.0267857142857143</v>
+        <v>0.0733134920634921</v>
       </c>
       <c r="H159" s="0" t="n">
-        <v>0.0540382819794585</v>
+        <v>0.126963770356628</v>
       </c>
       <c r="I159" s="0" t="n">
-        <v>0.0762050041461806</v>
+        <v>0.153324314574315</v>
       </c>
       <c r="J159" s="0" t="n">
-        <v>0.086561314502491</v>
+        <v>0.158370898425246</v>
       </c>
       <c r="K159" s="0" t="n">
-        <v>0.116648576715584</v>
+        <v>0.191945878178802</v>
       </c>
       <c r="L159" s="0" t="n">
-        <v>0.12291744919216</v>
+        <v>0.194201288363132</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26821,31 +26824,31 @@
         <v>13</v>
       </c>
       <c r="D160" s="0" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E160" s="0" t="n">
         <v>0.0263157894736842</v>
       </c>
       <c r="F160" s="0" t="n">
-        <v>0.1</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="G160" s="0" t="n">
-        <v>0.141666666666667</v>
+        <v>0.192836257309942</v>
       </c>
       <c r="H160" s="0" t="n">
-        <v>0.228238488377807</v>
+        <v>0.291163885360561</v>
       </c>
       <c r="I160" s="0" t="n">
-        <v>0.286660660234882</v>
+        <v>0.345755675149719</v>
       </c>
       <c r="J160" s="0" t="n">
-        <v>0.301523867203352</v>
+        <v>0.351476498948346</v>
       </c>
       <c r="K160" s="0" t="n">
-        <v>0.343102137250755</v>
+        <v>0.389883209521653</v>
       </c>
       <c r="L160" s="0" t="n">
-        <v>0.349704922675097</v>
+        <v>0.395020383925546</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26859,31 +26862,31 @@
         <v>13</v>
       </c>
       <c r="D161" s="0" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E161" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F161" s="0" t="n">
-        <v>0.0208333333333333</v>
+        <v>0.0694444444444444</v>
       </c>
       <c r="G161" s="0" t="n">
-        <v>0.0736111111111111</v>
+        <v>0.0694444444444444</v>
       </c>
       <c r="H161" s="0" t="n">
-        <v>0.114781746031746</v>
+        <v>0.105429292929293</v>
       </c>
       <c r="I161" s="0" t="n">
-        <v>0.114781746031746</v>
+        <v>0.129981264255458</v>
       </c>
       <c r="J161" s="0" t="n">
-        <v>0.127480926284118</v>
+        <v>0.135933645207839</v>
       </c>
       <c r="K161" s="0" t="n">
-        <v>0.147305401462459</v>
+        <v>0.162745736687688</v>
       </c>
       <c r="L161" s="0" t="n">
-        <v>0.147305401462459</v>
+        <v>0.162745736687688</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26897,31 +26900,31 @@
         <v>13</v>
       </c>
       <c r="D162" s="0" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E162" s="0" t="n">
-        <v>0</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="F162" s="0" t="n">
-        <v>0.00606060606060606</v>
+        <v>0.0606060606060606</v>
       </c>
       <c r="G162" s="0" t="n">
-        <v>0.0147186147186147</v>
+        <v>0.0854377104377105</v>
       </c>
       <c r="H162" s="0" t="n">
-        <v>0.0349425936382458</v>
+        <v>0.149654467098085</v>
       </c>
       <c r="I162" s="0" t="n">
-        <v>0.0446044293870381</v>
+        <v>0.17280373162666</v>
       </c>
       <c r="J162" s="0" t="n">
-        <v>0.0470286718112805</v>
+        <v>0.196940916033037</v>
       </c>
       <c r="K162" s="0" t="n">
-        <v>0.0648103604316073</v>
+        <v>0.199216057684397</v>
       </c>
       <c r="L162" s="0" t="n">
-        <v>0.066755691850177</v>
+        <v>0.205294710123683</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26935,31 +26938,31 @@
         <v>13</v>
       </c>
       <c r="D163" s="0" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E163" s="0" t="n">
-        <v>0</v>
+        <v>0.0222222222222222</v>
       </c>
       <c r="F163" s="0" t="n">
-        <v>0.0144444444444445</v>
+        <v>0.0888888888888889</v>
       </c>
       <c r="G163" s="0" t="n">
-        <v>0.0493650793650794</v>
+        <v>0.117592592592593</v>
       </c>
       <c r="H163" s="0" t="n">
-        <v>0.0983252818035427</v>
+        <v>0.211909153175138</v>
       </c>
       <c r="I163" s="0" t="n">
-        <v>0.110912506709608</v>
+        <v>0.255233813793087</v>
       </c>
       <c r="J163" s="0" t="n">
-        <v>0.12130733646614</v>
+        <v>0.28587857640623</v>
       </c>
       <c r="K163" s="0" t="n">
-        <v>0.155750223499738</v>
+        <v>0.307018498074584</v>
       </c>
       <c r="L163" s="0" t="n">
-        <v>0.158156842598915</v>
+        <v>0.314063053782679</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26973,31 +26976,31 @@
         <v>13</v>
       </c>
       <c r="D164" s="0" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E164" s="0" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F164" s="0" t="n">
-        <v>0.1</v>
+        <v>0.0333333333333333</v>
       </c>
       <c r="G164" s="0" t="n">
-        <v>0.12</v>
+        <v>0.0555555555555556</v>
       </c>
       <c r="H164" s="0" t="n">
-        <v>0.12</v>
+        <v>0.0743055555555556</v>
       </c>
       <c r="I164" s="0" t="n">
-        <v>0.12625</v>
+        <v>0.107675120772947</v>
       </c>
       <c r="J164" s="0" t="n">
-        <v>0.12625</v>
+        <v>0.114891615618308</v>
       </c>
       <c r="K164" s="0" t="n">
-        <v>0.133134578544061</v>
+        <v>0.126017837462762</v>
       </c>
       <c r="L164" s="0" t="n">
-        <v>0.133134578544061</v>
+        <v>0.127532988977913</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27011,31 +27014,31 @@
         <v>13</v>
       </c>
       <c r="D165" s="0" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E165" s="0" t="n">
-        <v>0</v>
+        <v>0.0526315789473684</v>
       </c>
       <c r="F165" s="0" t="n">
-        <v>0</v>
+        <v>0.144736842105263</v>
       </c>
       <c r="G165" s="0" t="n">
-        <v>0.0394736842105263</v>
+        <v>0.144736842105263</v>
       </c>
       <c r="H165" s="0" t="n">
-        <v>0.0586124401913876</v>
+        <v>0.144736842105263</v>
       </c>
       <c r="I165" s="0" t="n">
-        <v>0.067384370015949</v>
+        <v>0.185973283814963</v>
       </c>
       <c r="J165" s="0" t="n">
-        <v>0.0773744756621141</v>
+        <v>0.215807898081664</v>
       </c>
       <c r="K165" s="0" t="n">
-        <v>0.0796335006521151</v>
+        <v>0.223142325954969</v>
       </c>
       <c r="L165" s="0" t="n">
-        <v>0.0803940726022216</v>
+        <v>0.224389519768887</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27049,31 +27052,31 @@
         <v>13</v>
       </c>
       <c r="D166" s="0" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E166" s="0" t="n">
         <v>0.0344827586206897</v>
       </c>
       <c r="F166" s="0" t="n">
-        <v>0.0344827586206897</v>
+        <v>0.137931034482759</v>
       </c>
       <c r="G166" s="0" t="n">
-        <v>0.0914750957854406</v>
+        <v>0.157088122605364</v>
       </c>
       <c r="H166" s="0" t="n">
-        <v>0.110283873214908</v>
+        <v>0.170019157088123</v>
       </c>
       <c r="I166" s="0" t="n">
-        <v>0.124076976663184</v>
+        <v>0.241119601405595</v>
       </c>
       <c r="J166" s="0" t="n">
-        <v>0.133717092930096</v>
+        <v>0.278729894781501</v>
       </c>
       <c r="K166" s="0" t="n">
-        <v>0.142199861904116</v>
+        <v>0.296045561747427</v>
       </c>
       <c r="L166" s="0" t="n">
-        <v>0.142997151120779</v>
+        <v>0.298659130017148</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27087,31 +27090,31 @@
         <v>13</v>
       </c>
       <c r="D167" s="0" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E167" s="0" t="n">
-        <v>0</v>
+        <v>0.0714285714285714</v>
       </c>
       <c r="F167" s="0" t="n">
-        <v>0.0178571428571429</v>
+        <v>0.0714285714285714</v>
       </c>
       <c r="G167" s="0" t="n">
-        <v>0.0178571428571429</v>
+        <v>0.118622448979592</v>
       </c>
       <c r="H167" s="0" t="n">
-        <v>0.0178571428571429</v>
+        <v>0.231766745159602</v>
       </c>
       <c r="I167" s="0" t="n">
-        <v>0.029531490015361</v>
+        <v>0.261414728754954</v>
       </c>
       <c r="J167" s="0" t="n">
-        <v>0.0333410138248848</v>
+        <v>0.261414728754954</v>
       </c>
       <c r="K167" s="0" t="n">
-        <v>0.0420055420002786</v>
+        <v>0.280173699404429</v>
       </c>
       <c r="L167" s="0" t="n">
-        <v>0.0439263217015263</v>
+        <v>0.280173699404429</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27125,31 +27128,31 @@
         <v>13</v>
       </c>
       <c r="D168" s="0" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E168" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F168" s="0" t="n">
-        <v>0</v>
+        <v>0.0686274509803921</v>
       </c>
       <c r="G168" s="0" t="n">
-        <v>0</v>
+        <v>0.0686274509803921</v>
       </c>
       <c r="H168" s="0" t="n">
-        <v>0</v>
+        <v>0.0861040068201193</v>
       </c>
       <c r="I168" s="0" t="n">
-        <v>0.00524273880675265</v>
+        <v>0.0942739414606422</v>
       </c>
       <c r="J168" s="0" t="n">
-        <v>0.0106746882614725</v>
+        <v>0.106746417081907</v>
       </c>
       <c r="K168" s="0" t="n">
-        <v>0.0165383410407238</v>
+        <v>0.111822578089671</v>
       </c>
       <c r="L168" s="0" t="n">
-        <v>0.01759235699884</v>
+        <v>0.11459969656951</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27163,31 +27166,31 @@
         <v>13</v>
       </c>
       <c r="D169" s="0" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E169" s="0" t="n">
-        <v>0</v>
+        <v>0.032258064516129</v>
       </c>
       <c r="F169" s="0" t="n">
-        <v>0.00806451612903226</v>
+        <v>0.0967741935483871</v>
       </c>
       <c r="G169" s="0" t="n">
-        <v>0.00806451612903226</v>
+        <v>0.13536866359447</v>
       </c>
       <c r="H169" s="0" t="n">
-        <v>0.00806451612903226</v>
+        <v>0.23425595559186</v>
       </c>
       <c r="I169" s="0" t="n">
-        <v>0.0219907033856963</v>
+        <v>0.266308227032926</v>
       </c>
       <c r="J169" s="0" t="n">
-        <v>0.0309590780564644</v>
+        <v>0.282696013819195</v>
       </c>
       <c r="K169" s="0" t="n">
-        <v>0.044525470524638</v>
+        <v>0.303353949456359</v>
       </c>
       <c r="L169" s="0" t="n">
-        <v>0.0472995899649996</v>
+        <v>0.306542587190393</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27201,7 +27204,7 @@
         <v>13</v>
       </c>
       <c r="D170" s="0" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E170" s="0" t="n">
         <v>0</v>
@@ -27210,22 +27213,22 @@
         <v>0</v>
       </c>
       <c r="G170" s="0" t="n">
-        <v>0</v>
+        <v>0.0222222222222222</v>
       </c>
       <c r="H170" s="0" t="n">
-        <v>0.0335526315789474</v>
+        <v>0.0404040404040404</v>
       </c>
       <c r="I170" s="0" t="n">
-        <v>0.0535526315789474</v>
+        <v>0.0618326118326118</v>
       </c>
       <c r="J170" s="0" t="n">
-        <v>0.0643634423897582</v>
+        <v>0.0618326118326118</v>
       </c>
       <c r="K170" s="0" t="n">
-        <v>0.0737974046539091</v>
+        <v>0.0685747837180216</v>
       </c>
       <c r="L170" s="0" t="n">
-        <v>0.0737974046539091</v>
+        <v>0.0685747837180216</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27239,31 +27242,31 @@
         <v>13</v>
       </c>
       <c r="D171" s="0" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E171" s="0" t="n">
         <v>0.05</v>
       </c>
       <c r="F171" s="0" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="G171" s="0" t="n">
-        <v>0.352103174603175</v>
+        <v>0.309523809523809</v>
       </c>
       <c r="H171" s="0" t="n">
-        <v>0.562732762406675</v>
+        <v>0.514041742459093</v>
       </c>
       <c r="I171" s="0" t="n">
-        <v>0.63518978997192</v>
+        <v>0.640856020079823</v>
       </c>
       <c r="J171" s="0" t="n">
-        <v>0.677271089287262</v>
+        <v>0.665381186271655</v>
       </c>
       <c r="K171" s="0" t="n">
-        <v>0.677271089287262</v>
+        <v>0.665381186271655</v>
       </c>
       <c r="L171" s="0" t="n">
-        <v>0.677271089287262</v>
+        <v>0.665381186271655</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27277,31 +27280,31 @@
         <v>13</v>
       </c>
       <c r="D172" s="0" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E172" s="0" t="n">
         <v>0.04</v>
       </c>
       <c r="F172" s="0" t="n">
-        <v>0.16</v>
+        <v>0.152</v>
       </c>
       <c r="G172" s="0" t="n">
-        <v>0.28168253968254</v>
+        <v>0.282730158730159</v>
       </c>
       <c r="H172" s="0" t="n">
-        <v>0.518842415657061</v>
+        <v>0.489782135783482</v>
       </c>
       <c r="I172" s="0" t="n">
-        <v>0.61031032607875</v>
+        <v>0.633232809750285</v>
       </c>
       <c r="J172" s="0" t="n">
-        <v>0.66219650570961</v>
+        <v>0.655872885723694</v>
       </c>
       <c r="K172" s="0" t="n">
-        <v>0.671630467973761</v>
+        <v>0.663457162872261</v>
       </c>
       <c r="L172" s="0" t="n">
-        <v>0.671630467973761</v>
+        <v>0.663457162872261</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27315,31 +27318,31 @@
         <v>13</v>
       </c>
       <c r="D173" s="0" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E173" s="0" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="F173" s="0" t="n">
-        <v>0.0625</v>
+        <v>0.125</v>
       </c>
       <c r="G173" s="0" t="n">
-        <v>0.0625</v>
+        <v>0.125</v>
       </c>
       <c r="H173" s="0" t="n">
-        <v>0.0625</v>
+        <v>0.125</v>
       </c>
       <c r="I173" s="0" t="n">
-        <v>0.0625</v>
+        <v>0.140299877600979</v>
       </c>
       <c r="J173" s="0" t="n">
-        <v>0.0625</v>
+        <v>0.140299877600979</v>
       </c>
       <c r="K173" s="0" t="n">
-        <v>0.0630050505050505</v>
+        <v>0.144632219341481</v>
       </c>
       <c r="L173" s="0" t="n">
-        <v>0.0637403446226976</v>
+        <v>0.144632219341481</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27353,31 +27356,31 @@
         <v>13</v>
       </c>
       <c r="D174" s="0" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E174" s="0" t="n">
-        <v>0.0238095238095238</v>
+        <v>0</v>
       </c>
       <c r="F174" s="0" t="n">
-        <v>0.0765873015873016</v>
+        <v>0.0646825396825397</v>
       </c>
       <c r="G174" s="0" t="n">
-        <v>0.132804232804233</v>
+        <v>0.121598639455782</v>
       </c>
       <c r="H174" s="0" t="n">
-        <v>0.178635385778243</v>
+        <v>0.189865293436722</v>
       </c>
       <c r="I174" s="0" t="n">
-        <v>0.201201153940144</v>
+        <v>0.223445587256378</v>
       </c>
       <c r="J174" s="0" t="n">
-        <v>0.207049107156518</v>
+        <v>0.234434940071038</v>
       </c>
       <c r="K174" s="0" t="n">
-        <v>0.209775388508754</v>
+        <v>0.243060761567229</v>
       </c>
       <c r="L174" s="0" t="n">
-        <v>0.210348249231991</v>
+        <v>0.245203983568944</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27391,7 +27394,7 @@
         <v>13</v>
       </c>
       <c r="D175" s="0" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E175" s="0" t="n">
         <v>0.02</v>
@@ -27400,22 +27403,22 @@
         <v>0.1</v>
       </c>
       <c r="G175" s="0" t="n">
-        <v>0.155277777777778</v>
+        <v>0.156</v>
       </c>
       <c r="H175" s="0" t="n">
-        <v>0.198076312576313</v>
+        <v>0.219462537462537</v>
       </c>
       <c r="I175" s="0" t="n">
-        <v>0.218632703553756</v>
+        <v>0.266818891608665</v>
       </c>
       <c r="J175" s="0" t="n">
-        <v>0.223895861448493</v>
+        <v>0.277740877424268</v>
       </c>
       <c r="K175" s="0" t="n">
-        <v>0.227025478226965</v>
+        <v>0.290086708620058</v>
       </c>
       <c r="L175" s="0" t="n">
-        <v>0.228302789151334</v>
+        <v>0.292279583558441</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27429,31 +27432,31 @@
         <v>13</v>
       </c>
       <c r="D176" s="0" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E176" s="0" t="n">
-        <v>0.142857142857143</v>
+        <v>0</v>
       </c>
       <c r="F176" s="0" t="n">
-        <v>0.142857142857143</v>
+        <v>0.0714285714285714</v>
       </c>
       <c r="G176" s="0" t="n">
-        <v>0.142857142857143</v>
+        <v>0.119047619047619</v>
       </c>
       <c r="H176" s="0" t="n">
-        <v>0.159663865546219</v>
+        <v>0.158008658008658</v>
       </c>
       <c r="I176" s="0" t="n">
-        <v>0.172268907563025</v>
+        <v>0.158008658008658</v>
       </c>
       <c r="J176" s="0" t="n">
-        <v>0.190876350540216</v>
+        <v>0.177283034425892</v>
       </c>
       <c r="K176" s="0" t="n">
-        <v>0.193842242779465</v>
+        <v>0.17956266968425</v>
       </c>
       <c r="L176" s="0" t="n">
-        <v>0.193842242779465</v>
+        <v>0.17956266968425</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27467,31 +27470,31 @@
         <v>13</v>
       </c>
       <c r="D177" s="0" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E177" s="0" t="n">
-        <v>0</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="F177" s="0" t="n">
-        <v>0.0222222222222222</v>
+        <v>0.0974747474747475</v>
       </c>
       <c r="G177" s="0" t="n">
-        <v>0.0525252525252525</v>
+        <v>0.119119769119769</v>
       </c>
       <c r="H177" s="0" t="n">
-        <v>0.0597402597402598</v>
+        <v>0.140584415584416</v>
       </c>
       <c r="I177" s="0" t="n">
-        <v>0.0771709771709772</v>
+        <v>0.170604087294857</v>
       </c>
       <c r="J177" s="0" t="n">
-        <v>0.0962207323453457</v>
+        <v>0.196919140962554</v>
       </c>
       <c r="K177" s="0" t="n">
-        <v>0.11258449437563</v>
+        <v>0.21220975467591</v>
       </c>
       <c r="L177" s="0" t="n">
-        <v>0.113347087191203</v>
+        <v>0.21220975467591</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27505,31 +27508,31 @@
         <v>13</v>
       </c>
       <c r="D178" s="0" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E178" s="0" t="n">
         <v>0.025</v>
       </c>
       <c r="F178" s="0" t="n">
-        <v>0.0566666666666667</v>
+        <v>0.125</v>
       </c>
       <c r="G178" s="0" t="n">
-        <v>0.0889583333333333</v>
+        <v>0.175</v>
       </c>
       <c r="H178" s="0" t="n">
-        <v>0.106115196078431</v>
+        <v>0.21914908008658</v>
       </c>
       <c r="I178" s="0" t="n">
-        <v>0.132488642893055</v>
+        <v>0.251900213328306</v>
       </c>
       <c r="J178" s="0" t="n">
-        <v>0.164629917468874</v>
+        <v>0.293084021193432</v>
       </c>
       <c r="K178" s="0" t="n">
-        <v>0.184685965804035</v>
+        <v>0.311034522684518</v>
       </c>
       <c r="L178" s="0" t="n">
-        <v>0.185513780373571</v>
+        <v>0.311034522684518</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27543,31 +27546,31 @@
         <v>13</v>
       </c>
       <c r="D179" s="0" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E179" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="F179" s="0" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="G179" s="0" t="n">
-        <v>0.75</v>
+        <v>0.642857142857143</v>
       </c>
       <c r="H179" s="0" t="n">
-        <v>0.75</v>
+        <v>0.642857142857143</v>
       </c>
       <c r="I179" s="0" t="n">
-        <v>0.75</v>
+        <v>0.642857142857143</v>
       </c>
       <c r="J179" s="0" t="n">
-        <v>0.75</v>
+        <v>0.642857142857143</v>
       </c>
       <c r="K179" s="0" t="n">
-        <v>0.75</v>
+        <v>0.642857142857143</v>
       </c>
       <c r="L179" s="0" t="n">
-        <v>0.75</v>
+        <v>0.642857142857143</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27581,31 +27584,31 @@
         <v>13</v>
       </c>
       <c r="D180" s="0" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E180" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F180" s="0" t="n">
-        <v>0.110416666666667</v>
+        <v>0.169791666666667</v>
       </c>
       <c r="G180" s="0" t="n">
-        <v>0.342212301587302</v>
+        <v>0.317361111111111</v>
       </c>
       <c r="H180" s="0" t="n">
-        <v>0.55436326323054</v>
+        <v>0.548541389166389</v>
       </c>
       <c r="I180" s="0" t="n">
-        <v>0.57186326323054</v>
+        <v>0.623374835417518</v>
       </c>
       <c r="J180" s="0" t="n">
-        <v>0.590245616171717</v>
+        <v>0.623374835417518</v>
       </c>
       <c r="K180" s="0" t="n">
-        <v>0.594962597303792</v>
+        <v>0.623374835417518</v>
       </c>
       <c r="L180" s="0" t="n">
-        <v>0.594962597303792</v>
+        <v>0.625199652935766</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27619,7 +27622,7 @@
         <v>13</v>
       </c>
       <c r="D181" s="0" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E181" s="0" t="n">
         <v>0.0555555555555556</v>
@@ -27628,22 +27631,22 @@
         <v>0.277777777777778</v>
       </c>
       <c r="G181" s="0" t="n">
-        <v>0.555555555555556</v>
+        <v>0.5</v>
       </c>
       <c r="H181" s="0" t="n">
-        <v>0.779416233821268</v>
+        <v>0.747510205843539</v>
       </c>
       <c r="I181" s="0" t="n">
-        <v>0.797194011599046</v>
+        <v>0.823631855948929</v>
       </c>
       <c r="J181" s="0" t="n">
-        <v>0.815712530117565</v>
+        <v>0.823631855948929</v>
       </c>
       <c r="K181" s="0" t="n">
-        <v>0.82042951124964</v>
+        <v>0.823631855948929</v>
       </c>
       <c r="L181" s="0" t="n">
-        <v>0.82042951124964</v>
+        <v>0.825456673467177</v>
       </c>
     </row>
   </sheetData>
